--- a/new_data/double_hit/20260204_210604_phrase62/20260204_210604_phrase62_keypoints.xlsx
+++ b/new_data/double_hit/20260204_210604_phrase62/20260204_210604_phrase62_keypoints.xlsx
@@ -491,1857 +491,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.406421781549487</v>
+        <v>3.554605797578946</v>
       </c>
       <c r="B2" t="n">
-        <v>5.384948885370611</v>
+        <v>3.540496708115815</v>
       </c>
       <c r="C2" t="n">
-        <v>5.406781409091989</v>
+        <v>3.554862842892768</v>
       </c>
       <c r="D2" t="n">
-        <v>5.29758693158869</v>
+        <v>3.483172407818722</v>
       </c>
       <c r="E2" t="n">
-        <v>5.358786791625538</v>
+        <v>3.523375502019439</v>
       </c>
       <c r="F2" t="n">
-        <v>5.217200996157493</v>
+        <v>3.430320127926198</v>
       </c>
       <c r="G2" t="n">
-        <v>5.350036934720581</v>
+        <v>3.517751038122234</v>
       </c>
       <c r="H2" t="n">
-        <v>5.402354642435186</v>
+        <v>3.551947295769688</v>
       </c>
       <c r="I2" t="n">
-        <v>5.456750198173135</v>
+        <v>3.588063937536568</v>
       </c>
       <c r="J2" t="n">
-        <v>5.560896930530326</v>
+        <v>3.656352072552105</v>
       </c>
       <c r="K2" t="n">
-        <v>5.600165450268802</v>
+        <v>3.682065479808451</v>
       </c>
       <c r="L2" t="n">
-        <v>5.114527332773193</v>
+        <v>3.36282443094996</v>
       </c>
       <c r="M2" t="n">
-        <v>5.26841390214243</v>
+        <v>3.464051289771017</v>
       </c>
       <c r="N2" t="n">
-        <v>5.17870410968964</v>
+        <v>3.405043058640415</v>
       </c>
       <c r="O2" t="n">
-        <v>5.654708960881595</v>
+        <v>3.717963065002642</v>
       </c>
       <c r="P2" t="n">
-        <v>4.914206151898898</v>
+        <v>3.231122790972455</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.663126189308803</v>
+        <v>3.723488829179898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.490418571900669</v>
+        <v>3.609941192008589</v>
       </c>
       <c r="B3" t="n">
-        <v>5.471696880420062</v>
+        <v>3.59762254386812</v>
       </c>
       <c r="C3" t="n">
-        <v>5.480965119368265</v>
+        <v>3.603723464686802</v>
       </c>
       <c r="D3" t="n">
-        <v>5.274411474386527</v>
+        <v>3.467907324513318</v>
       </c>
       <c r="E3" t="n">
-        <v>5.373892768354504</v>
+        <v>3.533355534853072</v>
       </c>
       <c r="F3" t="n">
-        <v>5.13870661520285</v>
+        <v>3.37874597390351</v>
       </c>
       <c r="G3" t="n">
-        <v>5.245971199557648</v>
+        <v>3.44935319730287</v>
       </c>
       <c r="H3" t="n">
-        <v>5.245186606735943</v>
+        <v>3.448678630871568</v>
       </c>
       <c r="I3" t="n">
-        <v>5.246384285248359</v>
+        <v>3.44952041877084</v>
       </c>
       <c r="J3" t="n">
-        <v>5.485577099609269</v>
+        <v>3.606796647333829</v>
       </c>
       <c r="K3" t="n">
-        <v>5.533741811183661</v>
+        <v>3.638303160095206</v>
       </c>
       <c r="L3" t="n">
-        <v>5.094828815129844</v>
+        <v>3.349826600923659</v>
       </c>
       <c r="M3" t="n">
-        <v>5.227272187291432</v>
+        <v>3.436966382449344</v>
       </c>
       <c r="N3" t="n">
-        <v>5.209043498733203</v>
+        <v>3.424975431580502</v>
       </c>
       <c r="O3" t="n">
-        <v>5.690397944615198</v>
+        <v>3.741496912615955</v>
       </c>
       <c r="P3" t="n">
-        <v>4.925797930359693</v>
+        <v>3.23872515465323</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.769345909857683</v>
+        <v>3.793371781253018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.53097548700913</v>
+        <v>3.636591181499554</v>
       </c>
       <c r="B4" t="n">
-        <v>5.506264862985146</v>
+        <v>3.620366083651918</v>
       </c>
       <c r="C4" t="n">
-        <v>5.527923512729519</v>
+        <v>3.634580973534274</v>
       </c>
       <c r="D4" t="n">
-        <v>5.315370675559799</v>
+        <v>3.494831756031334</v>
       </c>
       <c r="E4" t="n">
-        <v>5.383648610412135</v>
+        <v>3.539740483642829</v>
       </c>
       <c r="F4" t="n">
-        <v>5.211657008201236</v>
+        <v>3.426645871085384</v>
       </c>
       <c r="G4" t="n">
-        <v>5.217087600085533</v>
+        <v>3.430141190304421</v>
       </c>
       <c r="H4" t="n">
-        <v>5.267708146589802</v>
+        <v>3.463433883968893</v>
       </c>
       <c r="I4" t="n">
-        <v>5.422286431997995</v>
+        <v>3.565014002578974</v>
       </c>
       <c r="J4" t="n">
-        <v>5.560841312456937</v>
+        <v>3.656235976118928</v>
       </c>
       <c r="K4" t="n">
-        <v>5.62660509439953</v>
+        <v>3.699388345764291</v>
       </c>
       <c r="L4" t="n">
-        <v>5.156503858706334</v>
+        <v>3.390362362885497</v>
       </c>
       <c r="M4" t="n">
-        <v>5.227495739547583</v>
+        <v>3.437083899022376</v>
       </c>
       <c r="N4" t="n">
-        <v>5.203433093077656</v>
+        <v>3.421315731173206</v>
       </c>
       <c r="O4" t="n">
-        <v>5.706290134109754</v>
+        <v>3.751838726077744</v>
       </c>
       <c r="P4" t="n">
-        <v>4.941645841388055</v>
+        <v>3.249131939513403</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.87873802051497</v>
+        <v>3.86519393429865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.58696182764229</v>
+        <v>3.673400851515857</v>
       </c>
       <c r="B5" t="n">
-        <v>5.555597554100726</v>
+        <v>3.652761603962758</v>
       </c>
       <c r="C5" t="n">
-        <v>5.575507744411733</v>
+        <v>3.665876595527128</v>
       </c>
       <c r="D5" t="n">
-        <v>5.324070854185611</v>
+        <v>3.500565570697402</v>
       </c>
       <c r="E5" t="n">
-        <v>5.461605709978206</v>
+        <v>3.590970608785553</v>
       </c>
       <c r="F5" t="n">
-        <v>5.274914196972217</v>
+        <v>3.468306738847642</v>
       </c>
       <c r="G5" t="n">
-        <v>5.289439693809006</v>
+        <v>3.47780960468987</v>
       </c>
       <c r="H5" t="n">
-        <v>5.362073657768495</v>
+        <v>3.525549381103051</v>
       </c>
       <c r="I5" t="n">
-        <v>5.560572941753298</v>
+        <v>3.656069109685922</v>
       </c>
       <c r="J5" t="n">
-        <v>5.606036126908564</v>
+        <v>3.685946011963258</v>
       </c>
       <c r="K5" t="n">
-        <v>5.64428624192458</v>
+        <v>3.711146393696851</v>
       </c>
       <c r="L5" t="n">
-        <v>5.199459370727398</v>
+        <v>3.418713324888235</v>
       </c>
       <c r="M5" t="n">
-        <v>5.289832800191801</v>
+        <v>3.478074815807861</v>
       </c>
       <c r="N5" t="n">
-        <v>5.21322241397558</v>
+        <v>3.42775677548725</v>
       </c>
       <c r="O5" t="n">
-        <v>5.768747070601474</v>
+        <v>3.792906685450383</v>
       </c>
       <c r="P5" t="n">
-        <v>4.966970424144508</v>
+        <v>3.265874323303359</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.949891895744732</v>
+        <v>3.911906594561432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.589063434842617</v>
+        <v>3.674815310811809</v>
       </c>
       <c r="B6" t="n">
-        <v>5.562954259264459</v>
+        <v>3.657641914575747</v>
       </c>
       <c r="C6" t="n">
-        <v>5.565101764874865</v>
+        <v>3.659057083941627</v>
       </c>
       <c r="D6" t="n">
-        <v>5.341442052447303</v>
+        <v>3.511957932617204</v>
       </c>
       <c r="E6" t="n">
-        <v>5.512396350590415</v>
+        <v>3.624421293008936</v>
       </c>
       <c r="F6" t="n">
-        <v>5.285599346838626</v>
+        <v>3.475295247075932</v>
       </c>
       <c r="G6" t="n">
-        <v>5.390071687916731</v>
+        <v>3.543939127125239</v>
       </c>
       <c r="H6" t="n">
-        <v>5.447650973370282</v>
+        <v>3.581811061753362</v>
       </c>
       <c r="I6" t="n">
-        <v>5.522910326386294</v>
+        <v>3.631335243894819</v>
       </c>
       <c r="J6" t="n">
-        <v>5.60757183371168</v>
+        <v>3.687012536994643</v>
       </c>
       <c r="K6" t="n">
-        <v>5.683136816140689</v>
+        <v>3.736519322422872</v>
       </c>
       <c r="L6" t="n">
-        <v>5.193518496519281</v>
+        <v>3.414736933293191</v>
       </c>
       <c r="M6" t="n">
-        <v>5.336542262176038</v>
+        <v>3.508731729900761</v>
       </c>
       <c r="N6" t="n">
-        <v>5.293997135939211</v>
+        <v>3.480857934889428</v>
       </c>
       <c r="O6" t="n">
-        <v>5.790849044989081</v>
+        <v>3.807497557359449</v>
       </c>
       <c r="P6" t="n">
-        <v>4.951354705073016</v>
+        <v>3.255537480331063</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.974331989139896</v>
+        <v>3.92810044933225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.535063145412643</v>
+        <v>3.639228026176018</v>
       </c>
       <c r="B7" t="n">
-        <v>5.501117761280749</v>
+        <v>3.616907333034157</v>
       </c>
       <c r="C7" t="n">
-        <v>5.512516766419211</v>
+        <v>3.624418452729225</v>
       </c>
       <c r="D7" t="n">
-        <v>5.323543832441644</v>
+        <v>3.500185328251126</v>
       </c>
       <c r="E7" t="n">
-        <v>5.481836649178472</v>
+        <v>3.604279804475145</v>
       </c>
       <c r="F7" t="n">
-        <v>5.282209344268314</v>
+        <v>3.473023023307335</v>
       </c>
       <c r="G7" t="n">
-        <v>5.417223567375626</v>
+        <v>3.5618293389533</v>
       </c>
       <c r="H7" t="n">
-        <v>5.510412459312409</v>
+        <v>3.623104113293077</v>
       </c>
       <c r="I7" t="n">
-        <v>5.518764350002916</v>
+        <v>3.628585498099853</v>
       </c>
       <c r="J7" t="n">
-        <v>5.625855060380708</v>
+        <v>3.699048222268929</v>
       </c>
       <c r="K7" t="n">
-        <v>5.771793645068135</v>
+        <v>3.794809672856583</v>
       </c>
       <c r="L7" t="n">
-        <v>5.247910272388165</v>
+        <v>3.45047368764876</v>
       </c>
       <c r="M7" t="n">
-        <v>5.410891746709894</v>
+        <v>3.557661583512744</v>
       </c>
       <c r="N7" t="n">
-        <v>5.319358437423728</v>
+        <v>3.49748635245599</v>
       </c>
       <c r="O7" t="n">
-        <v>5.83644290561775</v>
+        <v>3.837508307818154</v>
       </c>
       <c r="P7" t="n">
-        <v>4.928599893299696</v>
+        <v>3.240583052619022</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.025303523485946</v>
+        <v>3.96167468572305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.724168914788792</v>
+        <v>3.763440558626213</v>
       </c>
       <c r="B8" t="n">
-        <v>5.685214664164033</v>
+        <v>3.737810939621334</v>
       </c>
       <c r="C8" t="n">
-        <v>5.691940131193856</v>
+        <v>3.742265918347639</v>
       </c>
       <c r="D8" t="n">
-        <v>5.469005073664248</v>
+        <v>3.595678372406115</v>
       </c>
       <c r="E8" t="n">
-        <v>5.624024523790496</v>
+        <v>3.697699799476252</v>
       </c>
       <c r="F8" t="n">
-        <v>5.410838288561684</v>
+        <v>3.557545132044604</v>
       </c>
       <c r="G8" t="n">
-        <v>5.527325213454606</v>
+        <v>3.634206411647419</v>
       </c>
       <c r="H8" t="n">
-        <v>5.562321941167958</v>
+        <v>3.657127468913139</v>
       </c>
       <c r="I8" t="n">
-        <v>5.573895360264721</v>
+        <v>3.664618351615267</v>
       </c>
       <c r="J8" t="n">
-        <v>5.616428606913057</v>
+        <v>3.692491436556672</v>
       </c>
       <c r="K8" t="n">
-        <v>5.847646437527404</v>
+        <v>3.844523798703696</v>
       </c>
       <c r="L8" t="n">
-        <v>5.303080161303212</v>
+        <v>3.486751160254262</v>
       </c>
       <c r="M8" t="n">
-        <v>5.452376349683247</v>
+        <v>3.584947795658917</v>
       </c>
       <c r="N8" t="n">
-        <v>5.354208830206121</v>
+        <v>3.520447883707587</v>
       </c>
       <c r="O8" t="n">
-        <v>5.920478574622175</v>
+        <v>3.892687131828743</v>
       </c>
       <c r="P8" t="n">
-        <v>4.922500804572129</v>
+        <v>3.236593169695352</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.032450715907201</v>
+        <v>3.966302566476747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.848334373697295</v>
+        <v>3.845104635904544</v>
       </c>
       <c r="B9" t="n">
-        <v>5.81042552685975</v>
+        <v>3.820177986128074</v>
       </c>
       <c r="C9" t="n">
-        <v>5.825985627857851</v>
+        <v>3.830421454904879</v>
       </c>
       <c r="D9" t="n">
-        <v>5.612626598614624</v>
+        <v>3.690191875095859</v>
       </c>
       <c r="E9" t="n">
-        <v>5.714397413273605</v>
+        <v>3.757060225290987</v>
       </c>
       <c r="F9" t="n">
-        <v>5.501898034252093</v>
+        <v>3.617455151983367</v>
       </c>
       <c r="G9" t="n">
-        <v>5.569522051756127</v>
+        <v>3.661906239526469</v>
       </c>
       <c r="H9" t="n">
-        <v>5.644022191071302</v>
+        <v>3.710888283278137</v>
       </c>
       <c r="I9" t="n">
-        <v>5.670212903825012</v>
+        <v>3.728073040633042</v>
       </c>
       <c r="J9" t="n">
-        <v>5.898748647346856</v>
+        <v>3.878352240128608</v>
       </c>
       <c r="K9" t="n">
-        <v>5.929794331924342</v>
+        <v>3.898716335584728</v>
       </c>
       <c r="L9" t="n">
-        <v>5.3835870525445</v>
+        <v>3.539704270076517</v>
       </c>
       <c r="M9" t="n">
-        <v>5.507684473809827</v>
+        <v>3.621304441061356</v>
       </c>
       <c r="N9" t="n">
-        <v>5.404187878931873</v>
+        <v>3.553232167303836</v>
       </c>
       <c r="O9" t="n">
-        <v>6.001487108486562</v>
+        <v>3.946124154306716</v>
       </c>
       <c r="P9" t="n">
-        <v>4.911346410960324</v>
+        <v>3.229191755804111</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.06972238481659</v>
+        <v>3.991037497372741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.906938543648848</v>
+        <v>3.88376119780276</v>
       </c>
       <c r="B10" t="n">
-        <v>5.866007961484214</v>
+        <v>3.856841736774237</v>
       </c>
       <c r="C10" t="n">
-        <v>5.892024260279624</v>
+        <v>3.873968623430035</v>
       </c>
       <c r="D10" t="n">
-        <v>5.669549266813398</v>
+        <v>3.727762030004715</v>
       </c>
       <c r="E10" t="n">
-        <v>5.782177485371907</v>
+        <v>3.801722913672538</v>
       </c>
       <c r="F10" t="n">
-        <v>5.593235330328158</v>
+        <v>3.677570027096269</v>
       </c>
       <c r="G10" t="n">
-        <v>5.666664146753956</v>
+        <v>3.725764248263169</v>
       </c>
       <c r="H10" t="n">
-        <v>5.694962406502238</v>
+        <v>3.744394352955879</v>
       </c>
       <c r="I10" t="n">
-        <v>5.762132839718432</v>
+        <v>3.788572773646749</v>
       </c>
       <c r="J10" t="n">
-        <v>5.964260798005957</v>
+        <v>3.921457745158743</v>
       </c>
       <c r="K10" t="n">
-        <v>6.001476308860661</v>
+        <v>3.945905807803952</v>
       </c>
       <c r="L10" t="n">
-        <v>5.455272269368589</v>
+        <v>3.586839776981237</v>
       </c>
       <c r="M10" t="n">
-        <v>5.583909853362679</v>
+        <v>3.671365791103108</v>
       </c>
       <c r="N10" t="n">
-        <v>5.421307985891369</v>
+        <v>3.564497071671618</v>
       </c>
       <c r="O10" t="n">
-        <v>6.083544286025932</v>
+        <v>3.999971952237857</v>
       </c>
       <c r="P10" t="n">
-        <v>4.962681352717942</v>
+        <v>3.262947415061435</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.035394153946507</v>
+        <v>3.968401888217952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.976390397836619</v>
+        <v>3.929436800936156</v>
       </c>
       <c r="B11" t="n">
-        <v>5.934537527620043</v>
+        <v>3.901925496622908</v>
       </c>
       <c r="C11" t="n">
-        <v>5.960790878203979</v>
+        <v>3.919200077823664</v>
       </c>
       <c r="D11" t="n">
-        <v>5.736501547586392</v>
+        <v>3.771740210975977</v>
       </c>
       <c r="E11" t="n">
-        <v>5.846190647955955</v>
+        <v>3.843816214020757</v>
       </c>
       <c r="F11" t="n">
-        <v>5.619768391222928</v>
+        <v>3.694935142212805</v>
       </c>
       <c r="G11" t="n">
-        <v>5.745344821255392</v>
+        <v>3.777499588159442</v>
       </c>
       <c r="H11" t="n">
-        <v>5.755472170444015</v>
+        <v>3.784201938206875</v>
       </c>
       <c r="I11" t="n">
-        <v>5.801782586251212</v>
+        <v>3.814654707195565</v>
       </c>
       <c r="J11" t="n">
-        <v>6.0231495381</v>
+        <v>3.960172887825993</v>
       </c>
       <c r="K11" t="n">
-        <v>6.122527695640623</v>
+        <v>4.02553446963457</v>
       </c>
       <c r="L11" t="n">
-        <v>5.459088317180693</v>
+        <v>3.589355909769994</v>
       </c>
       <c r="M11" t="n">
-        <v>5.622183187574382</v>
+        <v>3.696607356892507</v>
       </c>
       <c r="N11" t="n">
-        <v>5.466160452201936</v>
+        <v>3.593995151642534</v>
       </c>
       <c r="O11" t="n">
-        <v>6.151736363852356</v>
+        <v>4.044846241457859</v>
       </c>
       <c r="P11" t="n">
-        <v>5.014471498707285</v>
+        <v>3.297006629212845</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.031384792830776</v>
+        <v>3.965644686688745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.033045235313049</v>
+        <v>3.966724703048756</v>
       </c>
       <c r="B12" t="n">
-        <v>5.997550644845663</v>
+        <v>3.943379734036208</v>
       </c>
       <c r="C12" t="n">
-        <v>6.01756343160273</v>
+        <v>3.956563247348599</v>
       </c>
       <c r="D12" t="n">
-        <v>5.776063817149374</v>
+        <v>3.797731255574049</v>
       </c>
       <c r="E12" t="n">
-        <v>5.893478429907188</v>
+        <v>3.874959526014122</v>
       </c>
       <c r="F12" t="n">
-        <v>5.656591335676132</v>
+        <v>3.719193616187322</v>
       </c>
       <c r="G12" t="n">
-        <v>5.814970009438873</v>
+        <v>3.823347028215339</v>
       </c>
       <c r="H12" t="n">
-        <v>5.87919484469058</v>
+        <v>3.865503879822085</v>
       </c>
       <c r="I12" t="n">
-        <v>5.962063614116407</v>
+        <v>3.920010977681082</v>
       </c>
       <c r="J12" t="n">
-        <v>6.120428248365477</v>
+        <v>4.02419137236635</v>
       </c>
       <c r="K12" t="n">
-        <v>6.252995816224926</v>
+        <v>4.111317307528445</v>
       </c>
       <c r="L12" t="n">
-        <v>5.480360340317811</v>
+        <v>3.603336476576213</v>
       </c>
       <c r="M12" t="n">
-        <v>5.663108369926066</v>
+        <v>3.723533563585342</v>
       </c>
       <c r="N12" t="n">
-        <v>5.495141788288453</v>
+        <v>3.613015439760507</v>
       </c>
       <c r="O12" t="n">
-        <v>6.140462634374345</v>
+        <v>4.037440922182016</v>
       </c>
       <c r="P12" t="n">
-        <v>5.056372967240415</v>
+        <v>3.324468938701083</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037429883428838</v>
+        <v>3.969725813598123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.120804615328125</v>
+        <v>4.024375635512586</v>
       </c>
       <c r="B13" t="n">
-        <v>6.085238747329792</v>
+        <v>4.001004748947676</v>
       </c>
       <c r="C13" t="n">
-        <v>6.10053533745591</v>
+        <v>4.011069280102705</v>
       </c>
       <c r="D13" t="n">
-        <v>5.845367176481007</v>
+        <v>3.843306028777714</v>
       </c>
       <c r="E13" t="n">
-        <v>5.993533184010506</v>
+        <v>3.94073330341572</v>
       </c>
       <c r="F13" t="n">
-        <v>5.736524226800784</v>
+        <v>3.771735950556411</v>
       </c>
       <c r="G13" t="n">
-        <v>5.892612839891227</v>
+        <v>3.874388629792262</v>
       </c>
       <c r="H13" t="n">
-        <v>5.965772745632091</v>
+        <v>3.922463204176347</v>
       </c>
       <c r="I13" t="n">
-        <v>5.972835700971318</v>
+        <v>3.927038894790359</v>
       </c>
       <c r="J13" t="n">
-        <v>6.252727445521288</v>
+        <v>4.111070913263538</v>
       </c>
       <c r="K13" t="n">
-        <v>6.259356255899296</v>
+        <v>4.115409085486739</v>
       </c>
       <c r="L13" t="n">
-        <v>5.545369228409928</v>
+        <v>3.646067419719494</v>
       </c>
       <c r="M13" t="n">
-        <v>5.729391613874496</v>
+        <v>3.76708925294963</v>
       </c>
       <c r="N13" t="n">
-        <v>5.57664764492558</v>
+        <v>3.666662642937077</v>
       </c>
       <c r="O13" t="n">
-        <v>6.212948103477696</v>
+        <v>4.085150520623271</v>
       </c>
       <c r="P13" t="n">
-        <v>5.13431980716188</v>
+        <v>3.375851018808332</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.045127316789746</v>
+        <v>3.974825180783804</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.165208897163803</v>
+        <v>4.053583296883077</v>
       </c>
       <c r="B14" t="n">
-        <v>6.128064663840044</v>
+        <v>4.029159021580445</v>
       </c>
       <c r="C14" t="n">
-        <v>6.150458768108273</v>
+        <v>4.043903978663819</v>
       </c>
       <c r="D14" t="n">
-        <v>5.910181131325611</v>
+        <v>3.885892472690711</v>
       </c>
       <c r="E14" t="n">
-        <v>6.028438114903699</v>
+        <v>3.963655780821295</v>
       </c>
       <c r="F14" t="n">
-        <v>5.817765492603336</v>
+        <v>3.825110841915712</v>
       </c>
       <c r="G14" t="n">
-        <v>5.930863494888537</v>
+        <v>3.899518004533086</v>
       </c>
       <c r="H14" t="n">
-        <v>6.000004859831655</v>
+        <v>3.945009344520249</v>
       </c>
       <c r="I14" t="n">
-        <v>6.021425377824912</v>
+        <v>3.9589984321656</v>
       </c>
       <c r="J14" t="n">
-        <v>6.296472410195711</v>
+        <v>4.139903302677248</v>
       </c>
       <c r="K14" t="n">
-        <v>6.306115936143972</v>
+        <v>4.146129195803202</v>
       </c>
       <c r="L14" t="n">
-        <v>5.607951440562099</v>
+        <v>3.687212421679287</v>
       </c>
       <c r="M14" t="n">
-        <v>5.756854522559339</v>
+        <v>3.785158402399468</v>
       </c>
       <c r="N14" t="n">
-        <v>5.576214579926951</v>
+        <v>3.666303347553667</v>
       </c>
       <c r="O14" t="n">
-        <v>6.166955736653282</v>
+        <v>4.054743906179881</v>
       </c>
       <c r="P14" t="n">
-        <v>5.19654995150968</v>
+        <v>3.416566073426911</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.061230638970666</v>
+        <v>3.985220959560098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.23502523872573</v>
+        <v>4.099496063372321</v>
       </c>
       <c r="B15" t="n">
-        <v>6.192595128504749</v>
+        <v>4.07159102528417</v>
       </c>
       <c r="C15" t="n">
-        <v>6.225141421101173</v>
+        <v>4.093013479967508</v>
       </c>
       <c r="D15" t="n">
-        <v>6.005217839254049</v>
+        <v>3.948424425837457</v>
       </c>
       <c r="E15" t="n">
-        <v>6.085754969447859</v>
+        <v>4.001347712722749</v>
       </c>
       <c r="F15" t="n">
-        <v>5.889529546696503</v>
+        <v>3.872411440078619</v>
       </c>
       <c r="G15" t="n">
-        <v>5.995535434652544</v>
+        <v>3.942052613341362</v>
       </c>
       <c r="H15" t="n">
-        <v>6.037489281371293</v>
+        <v>3.969572793528707</v>
       </c>
       <c r="I15" t="n">
-        <v>6.05761330427514</v>
+        <v>3.982837254812854</v>
       </c>
       <c r="J15" t="n">
-        <v>6.29679423904756</v>
+        <v>4.140140466033095</v>
       </c>
       <c r="K15" t="n">
-        <v>6.346456858734413</v>
+        <v>4.172752912706843</v>
       </c>
       <c r="L15" t="n">
-        <v>5.663073271141887</v>
+        <v>3.723454035753441</v>
       </c>
       <c r="M15" t="n">
-        <v>5.799185276222032</v>
+        <v>3.812896219019649</v>
       </c>
       <c r="N15" t="n">
-        <v>5.616123517481355</v>
+        <v>3.692522324598527</v>
       </c>
       <c r="O15" t="n">
-        <v>6.164257990103223</v>
+        <v>4.052818551570959</v>
       </c>
       <c r="P15" t="n">
-        <v>5.28300905656628</v>
+        <v>3.473433798760502</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063669194499102</v>
+        <v>3.986505121024318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.291025618872562</v>
+        <v>4.136305023318696</v>
       </c>
       <c r="B16" t="n">
-        <v>6.265447784888732</v>
+        <v>4.119490567431081</v>
       </c>
       <c r="C16" t="n">
-        <v>6.272320666812101</v>
+        <v>4.124019393429865</v>
       </c>
       <c r="D16" t="n">
-        <v>6.038683719995939</v>
+        <v>3.970449019819472</v>
       </c>
       <c r="E16" t="n">
-        <v>6.199549547603671</v>
+        <v>4.076212515408518</v>
       </c>
       <c r="F16" t="n">
-        <v>5.92858099395437</v>
+        <v>3.898099994887497</v>
       </c>
       <c r="G16" t="n">
-        <v>6.078922046140321</v>
+        <v>3.996891313856588</v>
       </c>
       <c r="H16" t="n">
-        <v>6.076859857574534</v>
+        <v>3.995547506518442</v>
       </c>
       <c r="I16" t="n">
-        <v>6.101217333831556</v>
+        <v>4.011498872408954</v>
       </c>
       <c r="J16" t="n">
-        <v>6.347304089386344</v>
+        <v>4.173304637040656</v>
       </c>
       <c r="K16" t="n">
-        <v>6.428867184040745</v>
+        <v>4.226972432245128</v>
       </c>
       <c r="L16" t="n">
-        <v>5.704128588985678</v>
+        <v>3.750418941257335</v>
       </c>
       <c r="M16" t="n">
-        <v>5.850397102244378</v>
+        <v>3.846551758417169</v>
       </c>
       <c r="N16" t="n">
-        <v>5.743527784197555</v>
+        <v>3.776367026624782</v>
       </c>
       <c r="O16" t="n">
-        <v>6.193900803276175</v>
+        <v>4.072447724651924</v>
       </c>
       <c r="P16" t="n">
-        <v>5.394256542953352</v>
+        <v>3.546660115088134</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.058947058073908</v>
+        <v>3.983698214600174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.359980150287594</v>
+        <v>4.181486062747459</v>
       </c>
       <c r="B17" t="n">
-        <v>6.322784618740807</v>
+        <v>4.157052201500804</v>
       </c>
       <c r="C17" t="n">
-        <v>6.343473462079274</v>
+        <v>4.170634419077591</v>
       </c>
       <c r="D17" t="n">
-        <v>6.119976824002817</v>
+        <v>4.023751839081113</v>
       </c>
       <c r="E17" t="n">
-        <v>6.194999125230302</v>
+        <v>4.073115545418913</v>
       </c>
       <c r="F17" t="n">
-        <v>5.988295365448541</v>
+        <v>3.937244019791069</v>
       </c>
       <c r="G17" t="n">
-        <v>6.136873378706162</v>
+        <v>4.035043016036219</v>
       </c>
       <c r="H17" t="n">
-        <v>6.100400882113443</v>
+        <v>4.010958864228949</v>
       </c>
       <c r="I17" t="n">
-        <v>6.176631661479246</v>
+        <v>4.061110393151518</v>
       </c>
       <c r="J17" t="n">
-        <v>6.355070640353018</v>
+        <v>4.178356074506217</v>
       </c>
       <c r="K17" t="n">
-        <v>6.478729596806766</v>
+        <v>4.259628548219428</v>
       </c>
       <c r="L17" t="n">
-        <v>5.771573332699755</v>
+        <v>3.794744346423236</v>
       </c>
       <c r="M17" t="n">
-        <v>5.905057248816901</v>
+        <v>3.882578221303234</v>
       </c>
       <c r="N17" t="n">
-        <v>5.803941431468814</v>
+        <v>3.816089758519419</v>
       </c>
       <c r="O17" t="n">
-        <v>6.211898919821417</v>
+        <v>4.084257252654242</v>
       </c>
       <c r="P17" t="n">
-        <v>5.518348564405729</v>
+        <v>3.628324192366464</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.095996254689737</v>
+        <v>4.008086986406421</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.385447828087235</v>
+        <v>4.198349513460085</v>
       </c>
       <c r="B18" t="n">
-        <v>6.360055207687606</v>
+        <v>4.181649378830827</v>
       </c>
       <c r="C18" t="n">
-        <v>6.364033249888224</v>
+        <v>4.184273797283557</v>
       </c>
       <c r="D18" t="n">
-        <v>6.131218154603125</v>
+        <v>4.031199407517652</v>
       </c>
       <c r="E18" t="n">
-        <v>6.261298568617583</v>
+        <v>4.116731590727055</v>
       </c>
       <c r="F18" t="n">
-        <v>6.022990243617961</v>
+        <v>3.960047205448793</v>
       </c>
       <c r="G18" t="n">
-        <v>6.17959507882647</v>
+        <v>4.062996693914417</v>
       </c>
       <c r="H18" t="n">
-        <v>6.134914866549023</v>
+        <v>4.033634592334653</v>
       </c>
       <c r="I18" t="n">
-        <v>6.212537177712164</v>
+        <v>4.084621873562108</v>
       </c>
       <c r="J18" t="n">
-        <v>6.390497193177229</v>
+        <v>4.201657729253177</v>
       </c>
       <c r="K18" t="n">
-        <v>6.502393197099653</v>
+        <v>4.275218843551713</v>
       </c>
       <c r="L18" t="n">
-        <v>5.848331133809525</v>
+        <v>3.845223572617432</v>
       </c>
       <c r="M18" t="n">
-        <v>5.987803442488752</v>
+        <v>3.936925908463465</v>
       </c>
       <c r="N18" t="n">
-        <v>5.904390911898812</v>
+        <v>3.882141173262743</v>
       </c>
       <c r="O18" t="n">
-        <v>6.281635344151678</v>
+        <v>4.130231085157266</v>
       </c>
       <c r="P18" t="n">
-        <v>5.624309633914281</v>
+        <v>3.697933057447497</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.142083658222079</v>
+        <v>4.038458097353427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.445061223079232</v>
+        <v>4.23747436647561</v>
       </c>
       <c r="B19" t="n">
-        <v>6.423267038029802</v>
+        <v>4.223142315055187</v>
       </c>
       <c r="C19" t="n">
-        <v>6.430134520140222</v>
+        <v>4.227663330284766</v>
       </c>
       <c r="D19" t="n">
-        <v>6.211913499316384</v>
+        <v>4.084209322934123</v>
       </c>
       <c r="E19" t="n">
-        <v>6.344941131239214</v>
+        <v>4.171666860752447</v>
       </c>
       <c r="F19" t="n">
-        <v>6.090406908304696</v>
+        <v>4.004354858866501</v>
       </c>
       <c r="G19" t="n">
-        <v>6.242198350249147</v>
+        <v>4.104202051818063</v>
       </c>
       <c r="H19" t="n">
-        <v>6.15978316511116</v>
+        <v>4.050029041860042</v>
       </c>
       <c r="I19" t="n">
-        <v>6.218396514744729</v>
+        <v>4.08856844222019</v>
       </c>
       <c r="J19" t="n">
-        <v>6.420725886055307</v>
+        <v>4.221602173382035</v>
       </c>
       <c r="K19" t="n">
-        <v>6.501708500817531</v>
+        <v>4.274847832014497</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9025058371978</v>
+        <v>3.880828609001414</v>
       </c>
       <c r="M19" t="n">
-        <v>6.040060672298312</v>
+        <v>3.971307494362045</v>
       </c>
       <c r="N19" t="n">
-        <v>6.017299920730746</v>
+        <v>3.956346320985691</v>
       </c>
       <c r="O19" t="n">
-        <v>6.39017968417574</v>
+        <v>4.201526721351518</v>
       </c>
       <c r="P19" t="n">
-        <v>5.723232587223179</v>
+        <v>3.763000670306012</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.196699526328408</v>
+        <v>4.074238521009549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.490063804189822</v>
+        <v>4.267206059452735</v>
       </c>
       <c r="B20" t="n">
-        <v>6.472519811913715</v>
+        <v>4.255669198302649</v>
       </c>
       <c r="C20" t="n">
-        <v>6.485323308400597</v>
+        <v>4.264088142400263</v>
       </c>
       <c r="D20" t="n">
-        <v>6.249179768412822</v>
+        <v>4.108833127886435</v>
       </c>
       <c r="E20" t="n">
-        <v>6.390672147116824</v>
+        <v>4.201854418623146</v>
       </c>
       <c r="F20" t="n">
-        <v>6.119355845513511</v>
+        <v>4.02345964530587</v>
       </c>
       <c r="G20" t="n">
-        <v>6.260436218489391</v>
+        <v>4.116262944574782</v>
       </c>
       <c r="H20" t="n">
-        <v>6.215283522578778</v>
+        <v>4.086477996353081</v>
       </c>
       <c r="I20" t="n">
-        <v>6.264663192067027</v>
+        <v>4.119000619180977</v>
       </c>
       <c r="J20" t="n">
-        <v>6.447294045734256</v>
+        <v>4.239024804162714</v>
       </c>
       <c r="K20" t="n">
-        <v>6.513322958492718</v>
+        <v>4.282449840660308</v>
       </c>
       <c r="L20" t="n">
-        <v>5.93404938452932</v>
+        <v>3.90159495907157</v>
       </c>
       <c r="M20" t="n">
-        <v>6.06083213277492</v>
+        <v>3.984981665994467</v>
       </c>
       <c r="N20" t="n">
-        <v>6.10684231898207</v>
+        <v>4.015259402745983</v>
       </c>
       <c r="O20" t="n">
-        <v>6.468211301160528</v>
+        <v>4.252832113906577</v>
       </c>
       <c r="P20" t="n">
-        <v>5.835643733301079</v>
+        <v>3.836956583484342</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.242403543141266</v>
+        <v>4.104315307971529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.567494961974517</v>
+        <v>4.318081149631616</v>
       </c>
       <c r="B21" t="n">
-        <v>6.545545262312113</v>
+        <v>4.303655013945773</v>
       </c>
       <c r="C21" t="n">
-        <v>6.571760814205396</v>
+        <v>4.320893381580218</v>
       </c>
       <c r="D21" t="n">
-        <v>6.367069564710278</v>
+        <v>4.186328029584353</v>
       </c>
       <c r="E21" t="n">
-        <v>6.44615198529523</v>
+        <v>4.238329290668545</v>
       </c>
       <c r="F21" t="n">
-        <v>6.208294544676972</v>
+        <v>4.081982543640898</v>
       </c>
       <c r="G21" t="n">
-        <v>6.295642998926517</v>
+        <v>4.139424360511023</v>
       </c>
       <c r="H21" t="n">
-        <v>6.285389294114852</v>
+        <v>4.132619760394004</v>
       </c>
       <c r="I21" t="n">
-        <v>6.291764313284188</v>
+        <v>4.136846096603594</v>
       </c>
       <c r="J21" t="n">
-        <v>6.497372451018297</v>
+        <v>4.271947551394861</v>
       </c>
       <c r="K21" t="n">
-        <v>6.541436004656799</v>
+        <v>4.300898877521458</v>
       </c>
       <c r="L21" t="n">
-        <v>5.975262376911264</v>
+        <v>3.928696908071507</v>
       </c>
       <c r="M21" t="n">
-        <v>6.071102577006733</v>
+        <v>3.991726265202597</v>
       </c>
       <c r="N21" t="n">
-        <v>6.197497078701193</v>
+        <v>4.074760777441362</v>
       </c>
       <c r="O21" t="n">
-        <v>6.568098121081086</v>
+        <v>4.318513227182613</v>
       </c>
       <c r="P21" t="n">
-        <v>5.920125426855214</v>
+        <v>3.892338487494249</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.389171539097886</v>
+        <v>4.200847539465687</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.612666557230457</v>
+        <v>4.347788345196235</v>
       </c>
       <c r="B22" t="n">
-        <v>6.598090302151934</v>
+        <v>4.338199205857793</v>
       </c>
       <c r="C22" t="n">
-        <v>6.620000043198504</v>
+        <v>4.352625696578599</v>
       </c>
       <c r="D22" t="n">
-        <v>6.425338946258901</v>
+        <v>4.224600088616727</v>
       </c>
       <c r="E22" t="n">
-        <v>6.512401210422071</v>
+        <v>4.281863677935003</v>
       </c>
       <c r="F22" t="n">
-        <v>6.243603381578862</v>
+        <v>4.105076147899045</v>
       </c>
       <c r="G22" t="n">
-        <v>6.342458837225879</v>
+        <v>4.170135239918427</v>
       </c>
       <c r="H22" t="n">
-        <v>6.31234894023271</v>
+        <v>4.150396716068599</v>
       </c>
       <c r="I22" t="n">
-        <v>6.361957021808765</v>
+        <v>4.18295590749777</v>
       </c>
       <c r="J22" t="n">
-        <v>6.527439689489156</v>
+        <v>4.291805366992541</v>
       </c>
       <c r="K22" t="n">
-        <v>6.625601269172036</v>
+        <v>4.356227171251825</v>
       </c>
       <c r="L22" t="n">
-        <v>6.001333213817474</v>
+        <v>3.945873499622243</v>
       </c>
       <c r="M22" t="n">
-        <v>6.09535475691122</v>
+        <v>4.007770650253637</v>
       </c>
       <c r="N22" t="n">
-        <v>6.289172943049253</v>
+        <v>4.13503790353274</v>
       </c>
       <c r="O22" t="n">
-        <v>6.612236732119599</v>
+        <v>4.347552601980243</v>
       </c>
       <c r="P22" t="n">
-        <v>6.043799502785223</v>
+        <v>3.973765756451695</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.535313696733545</v>
+        <v>4.296899763688728</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.658491529853406</v>
+        <v>4.377932588801345</v>
       </c>
       <c r="B23" t="n">
-        <v>6.63978603781165</v>
+        <v>4.365624946744755</v>
       </c>
       <c r="C23" t="n">
-        <v>6.650111020154262</v>
+        <v>4.372447653644931</v>
       </c>
       <c r="D23" t="n">
-        <v>6.412465792184959</v>
+        <v>4.216199606337232</v>
       </c>
       <c r="E23" t="n">
-        <v>6.556531181759864</v>
+        <v>4.310871809655815</v>
       </c>
       <c r="F23" t="n">
-        <v>6.291323148566134</v>
+        <v>4.136512363737581</v>
       </c>
       <c r="G23" t="n">
-        <v>6.405190084215483</v>
+        <v>4.211402728940747</v>
       </c>
       <c r="H23" t="n">
-        <v>6.356026947226548</v>
+        <v>4.179056913524844</v>
       </c>
       <c r="I23" t="n">
-        <v>6.41687635940291</v>
+        <v>4.219095626537301</v>
       </c>
       <c r="J23" t="n">
-        <v>6.613621784141397</v>
+        <v>4.348425632956333</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727361284205115</v>
+        <v>4.423234695152779</v>
       </c>
       <c r="L23" t="n">
-        <v>6.066443078411764</v>
+        <v>3.988642076471691</v>
       </c>
       <c r="M23" t="n">
-        <v>6.176344931411576</v>
+        <v>4.060920449445861</v>
       </c>
       <c r="N23" t="n">
-        <v>6.384205871108625</v>
+        <v>4.197522992064258</v>
       </c>
       <c r="O23" t="n">
-        <v>6.683554761663056</v>
+        <v>4.394350825669312</v>
       </c>
       <c r="P23" t="n">
-        <v>6.128568466388324</v>
+        <v>4.029451925425616</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.682146490445571</v>
+        <v>4.39339542658161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.670377058138707</v>
+        <v>4.385753298984884</v>
       </c>
       <c r="B24" t="n">
-        <v>6.653608479002288</v>
+        <v>4.374732303637262</v>
       </c>
       <c r="C24" t="n">
-        <v>6.658340335090792</v>
+        <v>4.377845960270167</v>
       </c>
       <c r="D24" t="n">
-        <v>6.445337153521002</v>
+        <v>4.237820880600322</v>
       </c>
       <c r="E24" t="n">
-        <v>6.598593564718918</v>
+        <v>4.338554950891564</v>
       </c>
       <c r="F24" t="n">
-        <v>6.29989535162502</v>
+        <v>4.142197538613603</v>
       </c>
       <c r="G24" t="n">
-        <v>6.497889753098953</v>
+        <v>4.2723870846801</v>
       </c>
       <c r="H24" t="n">
-        <v>6.339581816885863</v>
+        <v>4.16825461971495</v>
       </c>
       <c r="I24" t="n">
-        <v>6.525932601694677</v>
+        <v>4.290802038184721</v>
       </c>
       <c r="J24" t="n">
-        <v>6.631659859302474</v>
+        <v>4.360317174035299</v>
       </c>
       <c r="K24" t="n">
-        <v>6.800007667734389</v>
+        <v>4.470980152125382</v>
       </c>
       <c r="L24" t="n">
-        <v>6.152263385596323</v>
+        <v>4.045099381387079</v>
       </c>
       <c r="M24" t="n">
-        <v>6.315937655919599</v>
+        <v>4.152720774941916</v>
       </c>
       <c r="N24" t="n">
-        <v>6.375473833586405</v>
+        <v>4.191945037747318</v>
       </c>
       <c r="O24" t="n">
-        <v>6.715123148134149</v>
+        <v>4.415229011753078</v>
       </c>
       <c r="P24" t="n">
-        <v>6.18089265387847</v>
+        <v>4.063987951533467</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.757459841591087</v>
+        <v>4.443103516834338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.750257571077737</v>
+        <v>4.438276106430961</v>
       </c>
       <c r="B25" t="n">
-        <v>6.733963095518371</v>
+        <v>4.427571447236124</v>
       </c>
       <c r="C25" t="n">
-        <v>6.739664758012783</v>
+        <v>4.431316711069706</v>
       </c>
       <c r="D25" t="n">
-        <v>6.52478622140529</v>
+        <v>4.29005184930612</v>
       </c>
       <c r="E25" t="n">
-        <v>6.654271036051311</v>
+        <v>4.37519491419515</v>
       </c>
       <c r="F25" t="n">
-        <v>6.309530777853855</v>
+        <v>4.148507575025989</v>
       </c>
       <c r="G25" t="n">
-        <v>6.544732050481771</v>
+        <v>4.3031696811502</v>
       </c>
       <c r="H25" t="n">
-        <v>6.195670321980047</v>
+        <v>4.073507148984032</v>
       </c>
       <c r="I25" t="n">
-        <v>6.557112201633336</v>
+        <v>4.311368858605196</v>
       </c>
       <c r="J25" t="n">
-        <v>6.357616112177874</v>
+        <v>4.179590886110464</v>
       </c>
       <c r="K25" t="n">
-        <v>6.883855963229434</v>
+        <v>4.526292469282374</v>
       </c>
       <c r="L25" t="n">
-        <v>6.182719950580912</v>
+        <v>4.065181934116872</v>
       </c>
       <c r="M25" t="n">
-        <v>6.359037882927735</v>
+        <v>4.181099074636871</v>
       </c>
       <c r="N25" t="n">
-        <v>6.479749621473112</v>
+        <v>4.260499093950772</v>
       </c>
       <c r="O25" t="n">
-        <v>6.863556986385992</v>
+        <v>4.512735104153057</v>
       </c>
       <c r="P25" t="n">
-        <v>6.186130472440435</v>
+        <v>4.067461613619709</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.800443972620789</v>
+        <v>4.471284772124359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.74397542869115</v>
+        <v>4.434145274626645</v>
       </c>
       <c r="B26" t="n">
-        <v>6.706777197237888</v>
+        <v>4.409671649464039</v>
       </c>
       <c r="C26" t="n">
-        <v>6.72752975836917</v>
+        <v>4.423315288089571</v>
       </c>
       <c r="D26" t="n">
-        <v>6.528295019860512</v>
+        <v>4.292232829089008</v>
       </c>
       <c r="E26" t="n">
-        <v>6.616505824238248</v>
+        <v>4.35027749532774</v>
       </c>
       <c r="F26" t="n">
-        <v>6.386515371107545</v>
+        <v>4.199043251779435</v>
       </c>
       <c r="G26" t="n">
-        <v>6.561201479980734</v>
+        <v>4.313889961883446</v>
       </c>
       <c r="H26" t="n">
-        <v>6.367518289166464</v>
+        <v>4.186564482870273</v>
       </c>
       <c r="I26" t="n">
-        <v>6.581419459629918</v>
+        <v>4.327264484006385</v>
       </c>
       <c r="J26" t="n">
-        <v>6.617434052084436</v>
+        <v>4.350845551269889</v>
       </c>
       <c r="K26" t="n">
-        <v>6.903481583397951</v>
+        <v>4.538912542107147</v>
       </c>
       <c r="L26" t="n">
-        <v>6.253461820082553</v>
+        <v>4.111584648856219</v>
       </c>
       <c r="M26" t="n">
-        <v>6.395858127474464</v>
+        <v>4.205204528541971</v>
       </c>
       <c r="N26" t="n">
-        <v>6.624004544482579</v>
+        <v>4.355215321604872</v>
       </c>
       <c r="O26" t="n">
-        <v>7.043891839586677</v>
+        <v>4.631246485153858</v>
       </c>
       <c r="P26" t="n">
-        <v>6.199826018026735</v>
+        <v>4.076325771561984</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.812753386222702</v>
+        <v>4.479393415663575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.768679572939593</v>
+        <v>4.45035368583098</v>
       </c>
       <c r="B27" t="n">
-        <v>6.731960844876333</v>
+        <v>4.426213793534387</v>
       </c>
       <c r="C27" t="n">
-        <v>6.748674345920658</v>
+        <v>4.437203545805191</v>
       </c>
       <c r="D27" t="n">
-        <v>6.527440229470451</v>
+        <v>4.291740040559194</v>
       </c>
       <c r="E27" t="n">
-        <v>6.666674946379858</v>
+        <v>4.383317759132919</v>
       </c>
       <c r="F27" t="n">
-        <v>6.43990926154318</v>
+        <v>4.23419206823488</v>
       </c>
       <c r="G27" t="n">
-        <v>6.586851671458101</v>
+        <v>4.330823354483949</v>
       </c>
       <c r="H27" t="n">
-        <v>6.502795483164463</v>
+        <v>4.275601571242736</v>
       </c>
       <c r="I27" t="n">
-        <v>6.581692690165212</v>
+        <v>4.327509813166401</v>
       </c>
       <c r="J27" t="n">
-        <v>6.74352832417885</v>
+        <v>4.433844915047234</v>
       </c>
       <c r="K27" t="n">
-        <v>6.857263504392208</v>
+        <v>4.508673504166691</v>
       </c>
       <c r="L27" t="n">
-        <v>6.411177396814974</v>
+        <v>4.215317344452082</v>
       </c>
       <c r="M27" t="n">
-        <v>6.558885500206273</v>
+        <v>4.312433608461761</v>
       </c>
       <c r="N27" t="n">
-        <v>6.63274846159329</v>
+        <v>4.361085469697056</v>
       </c>
       <c r="O27" t="n">
-        <v>7.204572453610207</v>
+        <v>4.736989388715001</v>
       </c>
       <c r="P27" t="n">
-        <v>6.207419774978995</v>
+        <v>4.081443600565784</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.912626166629588</v>
+        <v>4.544974054044842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.845039407834912</v>
+        <v>4.500657169718074</v>
       </c>
       <c r="B28" t="n">
-        <v>6.817819490732841</v>
+        <v>4.482763407540374</v>
       </c>
       <c r="C28" t="n">
-        <v>6.818493387389061</v>
+        <v>4.483193354881589</v>
       </c>
       <c r="D28" t="n">
-        <v>6.590693098391072</v>
+        <v>4.333340197342634</v>
       </c>
       <c r="E28" t="n">
-        <v>6.744356115504159</v>
+        <v>4.434456640289936</v>
       </c>
       <c r="F28" t="n">
-        <v>6.537419623784232</v>
+        <v>4.298344400956606</v>
       </c>
       <c r="G28" t="n">
-        <v>6.650278954337022</v>
+        <v>4.372591087770323</v>
       </c>
       <c r="H28" t="n">
-        <v>6.594953550809</v>
+        <v>4.336283437192895</v>
       </c>
       <c r="I28" t="n">
-        <v>6.715900181217723</v>
+        <v>4.415704758604627</v>
       </c>
       <c r="J28" t="n">
-        <v>6.850494838858782</v>
+        <v>4.504174146069905</v>
       </c>
       <c r="K28" t="n">
-        <v>6.872477477380183</v>
+        <v>4.518621228818614</v>
       </c>
       <c r="L28" t="n">
-        <v>6.552050956954851</v>
+        <v>4.307956617567698</v>
       </c>
       <c r="M28" t="n">
-        <v>6.708761088515894</v>
+        <v>4.411008356102909</v>
       </c>
       <c r="N28" t="n">
-        <v>6.620324571956828</v>
+        <v>4.352875641193145</v>
       </c>
       <c r="O28" t="n">
-        <v>7.289432134070876</v>
+        <v>4.792745499576799</v>
       </c>
       <c r="P28" t="n">
-        <v>6.233969035312617</v>
+        <v>4.098875107220559</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.10779214608006</v>
+        <v>4.67328937053721</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.861444579559764</v>
+        <v>4.511330585836093</v>
       </c>
       <c r="B29" t="n">
-        <v>6.815359875933898</v>
+        <v>4.481023381182579</v>
       </c>
       <c r="C29" t="n">
-        <v>6.828773551284184</v>
+        <v>4.489834638915241</v>
       </c>
       <c r="D29" t="n">
-        <v>6.638631557802838</v>
+        <v>4.364837479194951</v>
       </c>
       <c r="E29" t="n">
-        <v>6.739780853991218</v>
+        <v>4.431324876873875</v>
       </c>
       <c r="F29" t="n">
-        <v>6.556142935208724</v>
+        <v>4.310656303432762</v>
       </c>
       <c r="G29" t="n">
-        <v>6.735997205056817</v>
+        <v>4.428845312686393</v>
       </c>
       <c r="H29" t="n">
-        <v>6.747214236498848</v>
+        <v>4.436201637137225</v>
       </c>
       <c r="I29" t="n">
-        <v>6.779955462342785</v>
+        <v>4.457861610211373</v>
       </c>
       <c r="J29" t="n">
-        <v>6.9549439607412</v>
+        <v>4.5727651259096</v>
       </c>
       <c r="K29" t="n">
-        <v>6.975075543383177</v>
+        <v>4.586014320690301</v>
       </c>
       <c r="L29" t="n">
-        <v>6.616216934245398</v>
+        <v>4.350092877146541</v>
       </c>
       <c r="M29" t="n">
-        <v>6.827319921637915</v>
+        <v>4.488834505422094</v>
       </c>
       <c r="N29" t="n">
-        <v>6.651928597193393</v>
+        <v>4.373621044200433</v>
       </c>
       <c r="O29" t="n">
-        <v>7.438315776741494</v>
+        <v>4.890615147779753</v>
       </c>
       <c r="P29" t="n">
-        <v>6.208878804438214</v>
+        <v>4.082242074199467</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.320727829987969</v>
+        <v>4.813228176710843</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.01560275952041</v>
+        <v>4.612712239901385</v>
       </c>
       <c r="B30" t="n">
-        <v>6.96052358746293</v>
+        <v>4.576475596316725</v>
       </c>
       <c r="C30" t="n">
-        <v>6.97634665935172</v>
+        <v>4.586911494043934</v>
       </c>
       <c r="D30" t="n">
-        <v>6.765732895012516</v>
+        <v>4.448478036116997</v>
       </c>
       <c r="E30" t="n">
-        <v>6.868964359074601</v>
+        <v>4.516223677707781</v>
       </c>
       <c r="F30" t="n">
-        <v>6.661672559662533</v>
+        <v>4.3800549878152</v>
       </c>
       <c r="G30" t="n">
-        <v>6.863812397538549</v>
+        <v>4.512839484432427</v>
       </c>
       <c r="H30" t="n">
-        <v>6.883574632974714</v>
+        <v>4.526002050681951</v>
       </c>
       <c r="I30" t="n">
-        <v>7.092387019713637</v>
+        <v>4.663117618823102</v>
       </c>
       <c r="J30" t="n">
-        <v>7.211613269716337</v>
+        <v>4.741595612335903</v>
       </c>
       <c r="K30" t="n">
-        <v>7.39029416021029</v>
+        <v>4.858955259913996</v>
       </c>
       <c r="L30" t="n">
-        <v>6.719692469852844</v>
+        <v>4.418218406148638</v>
       </c>
       <c r="M30" t="n">
-        <v>6.941903952447087</v>
+        <v>4.56425706803606</v>
       </c>
       <c r="N30" t="n">
-        <v>6.710446910119034</v>
+        <v>4.412100088616727</v>
       </c>
       <c r="O30" t="n">
-        <v>7.536925000917968</v>
+        <v>4.955564533995308</v>
       </c>
       <c r="P30" t="n">
-        <v>6.22262618822884</v>
+        <v>4.091373928504479</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.542900973910264</v>
+        <v>4.959551221604303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.97200574972083</v>
+        <v>4.584229914962026</v>
       </c>
       <c r="B31" t="n">
-        <v>6.929334267860962</v>
+        <v>4.556162270860434</v>
       </c>
       <c r="C31" t="n">
-        <v>6.938398393879636</v>
+        <v>4.562123307903362</v>
       </c>
       <c r="D31" t="n">
-        <v>6.758214735441564</v>
+        <v>4.443571452916683</v>
       </c>
       <c r="E31" t="n">
-        <v>6.922667118811004</v>
+        <v>4.551724688847358</v>
       </c>
       <c r="F31" t="n">
-        <v>6.755115782789284</v>
+        <v>4.441529646839621</v>
       </c>
       <c r="G31" t="n">
-        <v>6.962644094008583</v>
+        <v>4.577958577360699</v>
       </c>
       <c r="H31" t="n">
-        <v>7.11314822054564</v>
+        <v>4.676769068217838</v>
       </c>
       <c r="I31" t="n">
-        <v>7.23878944833351</v>
+        <v>4.759424403115219</v>
       </c>
       <c r="J31" t="n">
-        <v>7.47443296564207</v>
+        <v>4.914350300217565</v>
       </c>
       <c r="K31" t="n">
-        <v>7.552329587303096</v>
+        <v>4.965473559836172</v>
       </c>
       <c r="L31" t="n">
-        <v>6.786187386468932</v>
+        <v>4.461940961945932</v>
       </c>
       <c r="M31" t="n">
-        <v>7.051050371615127</v>
+        <v>4.636028806116826</v>
       </c>
       <c r="N31" t="n">
-        <v>6.703504370608602</v>
+        <v>4.407594339890593</v>
       </c>
       <c r="O31" t="n">
-        <v>7.662074305746049</v>
+        <v>5.037630155817745</v>
       </c>
       <c r="P31" t="n">
-        <v>6.246673715222505</v>
+        <v>4.107248251807838</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.82045081958361</v>
+        <v>5.141621316867285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.95995336721536</v>
+        <v>4.575833338067133</v>
       </c>
       <c r="B32" t="n">
-        <v>6.921403022599297</v>
+        <v>4.550494492697641</v>
       </c>
       <c r="C32" t="n">
-        <v>6.924558673287557</v>
+        <v>4.552581033180148</v>
       </c>
       <c r="D32" t="n">
-        <v>6.819988055613753</v>
+        <v>4.48398792313067</v>
       </c>
       <c r="E32" t="n">
-        <v>6.954091870257614</v>
+        <v>4.572153755701861</v>
       </c>
       <c r="F32" t="n">
-        <v>6.882612386306938</v>
+        <v>4.525273518936145</v>
       </c>
       <c r="G32" t="n">
-        <v>7.069647327416578</v>
+        <v>4.648242008873034</v>
       </c>
       <c r="H32" t="n">
-        <v>7.187942109685321</v>
+        <v>4.725912297843092</v>
       </c>
       <c r="I32" t="n">
-        <v>7.464850457580149</v>
+        <v>4.908048784644312</v>
       </c>
       <c r="J32" t="n">
-        <v>7.568264975301256</v>
+        <v>4.976045080919569</v>
       </c>
       <c r="K32" t="n">
-        <v>7.791460303815076</v>
+        <v>5.122632626861093</v>
       </c>
       <c r="L32" t="n">
-        <v>6.891126271385959</v>
+        <v>4.530897272763422</v>
       </c>
       <c r="M32" t="n">
-        <v>7.13820713250493</v>
+        <v>4.693300561239271</v>
       </c>
       <c r="N32" t="n">
-        <v>6.743198395607577</v>
+        <v>4.433751185816779</v>
       </c>
       <c r="O32" t="n">
-        <v>7.763639387531616</v>
+        <v>5.104349746363022</v>
       </c>
       <c r="P32" t="n">
-        <v>6.272319046868216</v>
+        <v>4.124179159163594</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.063235589519179</v>
+        <v>5.301114383744511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.787835409381419</v>
+        <v>5.120449871903385</v>
       </c>
       <c r="B33" t="n">
-        <v>7.753809568036563</v>
+        <v>5.098084089321117</v>
       </c>
       <c r="C33" t="n">
-        <v>7.769246553299394</v>
+        <v>5.108218917398985</v>
       </c>
       <c r="D33" t="n">
-        <v>7.534985928087451</v>
+        <v>4.954238478405354</v>
       </c>
       <c r="E33" t="n">
-        <v>7.71030327509455</v>
+        <v>5.06939974948733</v>
       </c>
       <c r="F33" t="n">
-        <v>7.400483607247845</v>
+        <v>4.865807434716171</v>
       </c>
       <c r="G33" t="n">
-        <v>7.730108709034319</v>
+        <v>5.082445509233749</v>
       </c>
       <c r="H33" t="n">
-        <v>7.61478490385093</v>
+        <v>5.006756670396901</v>
       </c>
       <c r="I33" t="n">
-        <v>8.187808734305444</v>
+        <v>5.383373499622243</v>
       </c>
       <c r="J33" t="n">
-        <v>8.039180502787383</v>
+        <v>5.285714032117883</v>
       </c>
       <c r="K33" t="n">
-        <v>8.599258821674416</v>
+        <v>5.653983634308307</v>
       </c>
       <c r="L33" t="n">
-        <v>7.246412904256997</v>
+        <v>4.764513119251984</v>
       </c>
       <c r="M33" t="n">
-        <v>7.584407176135419</v>
+        <v>4.986657075988844</v>
       </c>
       <c r="N33" t="n">
-        <v>7.089903645737712</v>
+        <v>4.661709550156499</v>
       </c>
       <c r="O33" t="n">
-        <v>8.099167024854259</v>
+        <v>5.325025278489425</v>
       </c>
       <c r="P33" t="n">
-        <v>6.567743353370239</v>
+        <v>4.318447190679338</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.412781681242562</v>
+        <v>5.531210413601531</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.90701576097404</v>
+        <v>5.198810348843154</v>
       </c>
       <c r="B34" t="n">
-        <v>7.869804029988401</v>
+        <v>5.174347019694499</v>
       </c>
       <c r="C34" t="n">
-        <v>7.876329703939056</v>
+        <v>5.178639037372401</v>
       </c>
       <c r="D34" t="n">
-        <v>7.633598392151696</v>
+        <v>5.01903839490113</v>
       </c>
       <c r="E34" t="n">
-        <v>7.830183982426849</v>
+        <v>5.14832934747414</v>
       </c>
       <c r="F34" t="n">
-        <v>7.476130666833701</v>
+        <v>4.915547478115645</v>
       </c>
       <c r="G34" t="n">
-        <v>7.870007062955339</v>
+        <v>5.174499684728952</v>
       </c>
       <c r="H34" t="n">
-        <v>7.048615595955756</v>
+        <v>4.634572807730105</v>
       </c>
       <c r="I34" t="n">
-        <v>8.370718218320917</v>
+        <v>5.503777216980328</v>
       </c>
       <c r="J34" t="n">
-        <v>6.723471798936885</v>
+        <v>4.420891464391413</v>
       </c>
       <c r="K34" t="n">
-        <v>8.815372295503684</v>
+        <v>5.796209220684053</v>
       </c>
       <c r="L34" t="n">
-        <v>7.341330276319228</v>
+        <v>4.826901283238374</v>
       </c>
       <c r="M34" t="n">
-        <v>7.621248479952654</v>
+        <v>5.010921585557746</v>
       </c>
       <c r="N34" t="n">
-        <v>7.225267776724214</v>
+        <v>4.75070580950812</v>
       </c>
       <c r="O34" t="n">
-        <v>8.178426019322691</v>
+        <v>5.377204767125466</v>
       </c>
       <c r="P34" t="n">
-        <v>6.685466295447526</v>
+        <v>4.395844102727237</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.401242820948683</v>
+        <v>5.523705684535813</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8.076598506627731</v>
+        <v>5.310351683433785</v>
       </c>
       <c r="B35" t="n">
-        <v>8.05141647893317</v>
+        <v>5.29378220167122</v>
       </c>
       <c r="C35" t="n">
-        <v>8.051973199648364</v>
+        <v>5.294147177614051</v>
       </c>
       <c r="D35" t="n">
-        <v>7.839456541225412</v>
+        <v>5.154355710950415</v>
       </c>
       <c r="E35" t="n">
-        <v>8.074188030126637</v>
+        <v>5.308732723998659</v>
       </c>
       <c r="F35" t="n">
-        <v>7.655065888517622</v>
+        <v>5.033158490448139</v>
       </c>
       <c r="G35" t="n">
-        <v>8.103233623987265</v>
+        <v>5.32788757036793</v>
       </c>
       <c r="H35" t="n">
-        <v>7.33628685102348</v>
+        <v>4.823622890382245</v>
       </c>
       <c r="I35" t="n">
-        <v>8.429386106065285</v>
+        <v>5.54230596629156</v>
       </c>
       <c r="J35" t="n">
-        <v>7.057885454847844</v>
+        <v>4.640521418549299</v>
       </c>
       <c r="K35" t="n">
-        <v>8.80981048816469</v>
+        <v>5.79229389510279</v>
       </c>
       <c r="L35" t="n">
-        <v>7.531153680836495</v>
+        <v>4.951677611211152</v>
       </c>
       <c r="M35" t="n">
-        <v>7.88342451817469</v>
+        <v>5.183345025818142</v>
       </c>
       <c r="N35" t="n">
-        <v>7.342904861775588</v>
+        <v>4.827972423724288</v>
       </c>
       <c r="O35" t="n">
-        <v>8.393734921022336</v>
+        <v>5.518885019796749</v>
       </c>
       <c r="P35" t="n">
-        <v>6.814493205955346</v>
+        <v>4.480510000624862</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.436172051000153</v>
+        <v>5.546816330472225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.90740292756259</v>
+        <v>5.199208698072586</v>
       </c>
       <c r="B36" t="n">
-        <v>7.907141036634491</v>
+        <v>5.19902514499628</v>
       </c>
       <c r="C36" t="n">
-        <v>7.908505029385782</v>
+        <v>5.199924448559694</v>
       </c>
       <c r="D36" t="n">
-        <v>7.825829573263582</v>
+        <v>5.145457114616647</v>
       </c>
       <c r="E36" t="n">
-        <v>8.060863451690034</v>
+        <v>5.300018035776163</v>
       </c>
       <c r="F36" t="n">
-        <v>7.661936610515812</v>
+        <v>5.037748737495669</v>
       </c>
       <c r="G36" t="n">
-        <v>8.125591549508725</v>
+        <v>5.342533117661428</v>
       </c>
       <c r="H36" t="n">
-        <v>7.371005488369883</v>
+        <v>4.846569155130397</v>
       </c>
       <c r="I36" t="n">
-        <v>8.419814397629267</v>
+        <v>5.536000545333705</v>
       </c>
       <c r="J36" t="n">
-        <v>7.105408128662424</v>
+        <v>4.671865325297235</v>
       </c>
       <c r="K36" t="n">
-        <v>8.745350221068342</v>
+        <v>5.750046864615228</v>
       </c>
       <c r="L36" t="n">
-        <v>7.497186157471505</v>
+        <v>4.929360823453893</v>
       </c>
       <c r="M36" t="n">
-        <v>7.864631549163137</v>
+        <v>5.170935133691966</v>
       </c>
       <c r="N36" t="n">
-        <v>7.320596614533272</v>
+        <v>4.813342142934236</v>
       </c>
       <c r="O36" t="n">
-        <v>8.398129288801435</v>
+        <v>5.521872283982526</v>
       </c>
       <c r="P36" t="n">
-        <v>6.853599191324013</v>
+        <v>4.506242224734292</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.423336155635569</v>
+        <v>5.538464487982776</v>
       </c>
     </row>
   </sheetData>
@@ -2418,1857 +2418,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.753734240645904</v>
+        <v>2.468117505211913</v>
       </c>
       <c r="B2" t="n">
-        <v>3.720269979847898</v>
+        <v>2.446121491544487</v>
       </c>
       <c r="C2" t="n">
-        <v>3.711149695774538</v>
+        <v>2.440126548662512</v>
       </c>
       <c r="D2" t="n">
-        <v>3.677387095311019</v>
+        <v>2.417922662023756</v>
       </c>
       <c r="E2" t="n">
-        <v>3.703002188004207</v>
+        <v>2.434753804554672</v>
       </c>
       <c r="F2" t="n">
-        <v>3.823234423159582</v>
+        <v>2.513794528485165</v>
       </c>
       <c r="G2" t="n">
-        <v>3.867150561904535</v>
+        <v>2.542635438738007</v>
       </c>
       <c r="H2" t="n">
-        <v>4.086352998732124</v>
+        <v>2.686776616261169</v>
       </c>
       <c r="I2" t="n">
-        <v>4.210969072031345</v>
+        <v>2.768514895846943</v>
       </c>
       <c r="J2" t="n">
-        <v>4.327808064728638</v>
+        <v>2.845014812058691</v>
       </c>
       <c r="K2" t="n">
-        <v>4.262113130401163</v>
+        <v>2.80215818653821</v>
       </c>
       <c r="L2" t="n">
-        <v>4.513435814583382</v>
+        <v>2.967674421577037</v>
       </c>
       <c r="M2" t="n">
-        <v>4.533135952170617</v>
+        <v>2.980614380904231</v>
       </c>
       <c r="N2" t="n">
-        <v>4.959863190339087</v>
+        <v>3.261241472060168</v>
       </c>
       <c r="O2" t="n">
-        <v>4.918687456666501</v>
+        <v>3.234166150682519</v>
       </c>
       <c r="P2" t="n">
-        <v>5.399980884662155</v>
+        <v>3.550604908571396</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.442052447303225</v>
+        <v>3.578244735541556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.832813151352437</v>
+        <v>2.519852312555741</v>
       </c>
       <c r="B3" t="n">
-        <v>3.791139554925818</v>
+        <v>2.492449293906464</v>
       </c>
       <c r="C3" t="n">
-        <v>3.781407742035816</v>
+        <v>2.486047480955925</v>
       </c>
       <c r="D3" t="n">
-        <v>3.727844837454831</v>
+        <v>2.450922984395503</v>
       </c>
       <c r="E3" t="n">
-        <v>3.761022908166461</v>
+        <v>2.472744320860718</v>
       </c>
       <c r="F3" t="n">
-        <v>3.885900332412485</v>
+        <v>2.555020478416715</v>
       </c>
       <c r="G3" t="n">
-        <v>3.975005345814821</v>
+        <v>2.613587046052295</v>
       </c>
       <c r="H3" t="n">
-        <v>4.144528693526056</v>
+        <v>2.725051338055772</v>
       </c>
       <c r="I3" t="n">
-        <v>4.423414992904646</v>
+        <v>2.908321629014025</v>
       </c>
       <c r="J3" t="n">
-        <v>4.290006674168807</v>
+        <v>2.820673614937599</v>
       </c>
       <c r="K3" t="n">
-        <v>4.572482769196875</v>
+        <v>3.006308971307494</v>
       </c>
       <c r="L3" t="n">
-        <v>4.541575859812216</v>
+        <v>2.986137304801777</v>
       </c>
       <c r="M3" t="n">
-        <v>4.59039016888455</v>
+        <v>3.018207613085737</v>
       </c>
       <c r="N3" t="n">
-        <v>4.969550454772246</v>
+        <v>3.267332806934827</v>
       </c>
       <c r="O3" t="n">
-        <v>4.923129342799565</v>
+        <v>3.236783113401008</v>
       </c>
       <c r="P3" t="n">
-        <v>5.399976564811795</v>
+        <v>3.550242417873312</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.457110365696932</v>
+        <v>3.58772594425099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.908580626767089</v>
+        <v>2.569883484625566</v>
       </c>
       <c r="B4" t="n">
-        <v>3.863399581838485</v>
+        <v>2.540170253466561</v>
       </c>
       <c r="C4" t="n">
-        <v>3.842444797712207</v>
+        <v>2.526397382114191</v>
       </c>
       <c r="D4" t="n">
-        <v>3.756194935407438</v>
+        <v>2.469673090905992</v>
       </c>
       <c r="E4" t="n">
-        <v>3.82341126703371</v>
+        <v>2.513857014638802</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074525788426689</v>
+        <v>2.679005788490051</v>
       </c>
       <c r="G4" t="n">
-        <v>3.900686370224135</v>
+        <v>2.564634115167662</v>
       </c>
       <c r="H4" t="n">
-        <v>4.535701943284685</v>
+        <v>2.982192866353479</v>
       </c>
       <c r="I4" t="n">
-        <v>4.041794012255416</v>
+        <v>2.65735948426201</v>
       </c>
       <c r="J4" t="n">
-        <v>4.235358677175423</v>
+        <v>2.784722774498833</v>
       </c>
       <c r="K4" t="n">
-        <v>4.71862546681383</v>
+        <v>3.10244285357222</v>
       </c>
       <c r="L4" t="n">
-        <v>4.571009700223985</v>
+        <v>3.005388365646249</v>
       </c>
       <c r="M4" t="n">
-        <v>4.651911317791952</v>
+        <v>3.058624793369651</v>
       </c>
       <c r="N4" t="n">
-        <v>4.991314400869154</v>
+        <v>3.281685450383154</v>
       </c>
       <c r="O4" t="n">
-        <v>4.911021882202</v>
+        <v>3.228935065525253</v>
       </c>
       <c r="P4" t="n">
-        <v>5.415206197257327</v>
+        <v>3.560403518538505</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.491971018123932</v>
+        <v>3.610859667460051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.893742750751114</v>
+        <v>2.560054519169048</v>
       </c>
       <c r="B5" t="n">
-        <v>3.852769240073524</v>
+        <v>2.533117306392334</v>
       </c>
       <c r="C5" t="n">
-        <v>3.832071217053041</v>
+        <v>2.519512011542897</v>
       </c>
       <c r="D5" t="n">
-        <v>3.788510386000229</v>
+        <v>2.490911104925613</v>
       </c>
       <c r="E5" t="n">
-        <v>3.858708764328404</v>
+        <v>2.537053934071428</v>
       </c>
       <c r="F5" t="n">
-        <v>4.003411061840818</v>
+        <v>2.632248571339305</v>
       </c>
       <c r="G5" t="n">
-        <v>4.127116726676588</v>
+        <v>2.713528323269276</v>
       </c>
       <c r="H5" t="n">
-        <v>4.562668069178084</v>
+        <v>2.999949585035134</v>
       </c>
       <c r="I5" t="n">
-        <v>4.199344894692848</v>
+        <v>2.761246620067144</v>
       </c>
       <c r="J5" t="n">
-        <v>4.264843545819573</v>
+        <v>2.804071824993325</v>
       </c>
       <c r="K5" t="n">
-        <v>4.712374643342355</v>
+        <v>3.098448000159056</v>
       </c>
       <c r="L5" t="n">
-        <v>4.626036494095844</v>
+        <v>3.041598736643585</v>
       </c>
       <c r="M5" t="n">
-        <v>4.682988321284551</v>
+        <v>3.079013386238277</v>
       </c>
       <c r="N5" t="n">
-        <v>5.064443527676201</v>
+        <v>3.32985339896273</v>
       </c>
       <c r="O5" t="n">
-        <v>4.974800152922703</v>
+        <v>3.270868245104778</v>
       </c>
       <c r="P5" t="n">
-        <v>5.434358253830087</v>
+        <v>3.573070100943541</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.529861505597446</v>
+        <v>3.635832116746857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.961448845411995</v>
+        <v>2.604558506921762</v>
       </c>
       <c r="B6" t="n">
-        <v>3.907019540843105</v>
+        <v>2.568769917461472</v>
       </c>
       <c r="C6" t="n">
-        <v>3.922538603262783</v>
+        <v>2.578969894455206</v>
       </c>
       <c r="D6" t="n">
-        <v>3.869494350715691</v>
+        <v>2.54412392282392</v>
       </c>
       <c r="E6" t="n">
-        <v>3.925070575555263</v>
+        <v>2.580661281022955</v>
       </c>
       <c r="F6" t="n">
-        <v>4.061883206365732</v>
+        <v>2.670664597049517</v>
       </c>
       <c r="G6" t="n">
-        <v>4.152738569135965</v>
+        <v>2.730416093876925</v>
       </c>
       <c r="H6" t="n">
-        <v>4.556779573155586</v>
+        <v>2.996130828964036</v>
       </c>
       <c r="I6" t="n">
-        <v>4.156327284822853</v>
+        <v>2.732815775197541</v>
       </c>
       <c r="J6" t="n">
-        <v>4.258069750463844</v>
+        <v>2.799618088889394</v>
       </c>
       <c r="K6" t="n">
-        <v>4.720025638311889</v>
+        <v>3.103421684967536</v>
       </c>
       <c r="L6" t="n">
-        <v>4.681291160074215</v>
+        <v>3.077974553934071</v>
       </c>
       <c r="M6" t="n">
-        <v>4.716980143807818</v>
+        <v>3.101447690568567</v>
       </c>
       <c r="N6" t="n">
-        <v>5.111426760177028</v>
+        <v>3.36073576025767</v>
       </c>
       <c r="O6" t="n">
-        <v>4.982666060447666</v>
+        <v>3.276102525576719</v>
       </c>
       <c r="P6" t="n">
-        <v>5.44503638393966</v>
+        <v>3.58014168735337</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.55863062903501</v>
+        <v>3.654808025494351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.008745537054597</v>
+        <v>2.635812234788882</v>
       </c>
       <c r="B7" t="n">
-        <v>3.962983202261874</v>
+        <v>2.60573065485489</v>
       </c>
       <c r="C7" t="n">
-        <v>3.970757042976031</v>
+        <v>2.610836945222366</v>
       </c>
       <c r="D7" t="n">
-        <v>3.946526732313993</v>
+        <v>2.594910786814285</v>
       </c>
       <c r="E7" t="n">
-        <v>3.97192502251722</v>
+        <v>2.611595122387653</v>
       </c>
       <c r="F7" t="n">
-        <v>4.134933495903702</v>
+        <v>2.718770769545385</v>
       </c>
       <c r="G7" t="n">
-        <v>4.162022467541725</v>
+        <v>2.736559618891268</v>
       </c>
       <c r="H7" t="n">
-        <v>4.558683547201925</v>
+        <v>2.997347178750163</v>
       </c>
       <c r="I7" t="n">
-        <v>4.187707217821974</v>
+        <v>2.753444726736689</v>
       </c>
       <c r="J7" t="n">
-        <v>4.302908717242035</v>
+        <v>2.829115636307864</v>
       </c>
       <c r="K7" t="n">
-        <v>4.772390324399163</v>
+        <v>3.137892384642039</v>
       </c>
       <c r="L7" t="n">
-        <v>4.760719168687997</v>
+        <v>3.130171794318304</v>
       </c>
       <c r="M7" t="n">
-        <v>4.764109171258307</v>
+        <v>3.132385437317867</v>
       </c>
       <c r="N7" t="n">
-        <v>5.161586702636621</v>
+        <v>3.393721703713382</v>
       </c>
       <c r="O7" t="n">
-        <v>4.980610351657418</v>
+        <v>3.274689841455587</v>
       </c>
       <c r="P7" t="n">
-        <v>5.422656319185103</v>
+        <v>3.565395310130142</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.579696919298716</v>
+        <v>3.668575571322264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.020390503672953</v>
+        <v>2.643163233715256</v>
       </c>
       <c r="B8" t="n">
-        <v>3.967885152458319</v>
+        <v>2.608640343901067</v>
       </c>
       <c r="C8" t="n">
-        <v>3.983337797178706</v>
+        <v>2.618789728412454</v>
       </c>
       <c r="D8" t="n">
-        <v>3.933971357232185</v>
+        <v>2.586391545339385</v>
       </c>
       <c r="E8" t="n">
-        <v>3.989978757135853</v>
+        <v>2.623195712313749</v>
       </c>
       <c r="F8" t="n">
-        <v>4.086146455886768</v>
+        <v>2.686491168150239</v>
       </c>
       <c r="G8" t="n">
-        <v>4.192661276213392</v>
+        <v>2.756551815222763</v>
       </c>
       <c r="H8" t="n">
-        <v>4.610716684774039</v>
+        <v>3.031495151642534</v>
       </c>
       <c r="I8" t="n">
-        <v>3.991993157357029</v>
+        <v>2.624633603917314</v>
       </c>
       <c r="J8" t="n">
-        <v>3.977152851425227</v>
+        <v>2.614825585523662</v>
       </c>
       <c r="K8" t="n">
-        <v>4.753140531211999</v>
+        <v>3.125226867341896</v>
       </c>
       <c r="L8" t="n">
-        <v>4.760030692536811</v>
+        <v>3.1296651594249</v>
       </c>
       <c r="M8" t="n">
-        <v>4.79044027914873</v>
+        <v>3.14966427893819</v>
       </c>
       <c r="N8" t="n">
-        <v>5.160614736305535</v>
+        <v>3.392999562596925</v>
       </c>
       <c r="O8" t="n">
-        <v>4.983194162154223</v>
+        <v>3.276469986764297</v>
       </c>
       <c r="P8" t="n">
-        <v>5.419758779555877</v>
+        <v>3.563603093632661</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.588167605874133</v>
+        <v>3.674185478785951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.992388963646299</v>
+        <v>2.624917631888388</v>
       </c>
       <c r="B9" t="n">
-        <v>3.946032649429024</v>
+        <v>2.594443915836832</v>
       </c>
       <c r="C9" t="n">
-        <v>3.938376794627834</v>
+        <v>2.589411295224354</v>
       </c>
       <c r="D9" t="n">
-        <v>3.924364550011988</v>
+        <v>2.580239677003391</v>
       </c>
       <c r="E9" t="n">
-        <v>3.955898377680197</v>
+        <v>2.600966618192559</v>
       </c>
       <c r="F9" t="n">
-        <v>4.157861641672732</v>
+        <v>2.733768511523015</v>
       </c>
       <c r="G9" t="n">
-        <v>4.177864438775841</v>
+        <v>2.7469108407796</v>
       </c>
       <c r="H9" t="n">
-        <v>4.597997425369186</v>
+        <v>3.023143309153085</v>
       </c>
       <c r="I9" t="n">
-        <v>4.358633166947097</v>
+        <v>2.865852169121615</v>
       </c>
       <c r="J9" t="n">
-        <v>4.54707556930228</v>
+        <v>2.989688364510137</v>
       </c>
       <c r="K9" t="n">
-        <v>4.771651629987537</v>
+        <v>3.137394980657695</v>
       </c>
       <c r="L9" t="n">
-        <v>4.779211908099503</v>
+        <v>3.142297303438442</v>
       </c>
       <c r="M9" t="n">
-        <v>4.791249711110007</v>
+        <v>3.15019825152381</v>
       </c>
       <c r="N9" t="n">
-        <v>5.151763362917109</v>
+        <v>3.387285629888832</v>
       </c>
       <c r="O9" t="n">
-        <v>4.988707911157958</v>
+        <v>3.280028147171933</v>
       </c>
       <c r="P9" t="n">
-        <v>5.398933320949762</v>
+        <v>3.549796493958725</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.598134580618128</v>
+        <v>3.680739069183533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.961457755103363</v>
+        <v>2.60458886241117</v>
       </c>
       <c r="B10" t="n">
-        <v>3.923956324152931</v>
+        <v>2.579931861689739</v>
       </c>
       <c r="C10" t="n">
-        <v>3.913370800835459</v>
+        <v>2.572973176398412</v>
       </c>
       <c r="D10" t="n">
-        <v>3.904861775588094</v>
+        <v>2.56738687875982</v>
       </c>
       <c r="E10" t="n">
-        <v>3.938701863367453</v>
+        <v>2.589637097461358</v>
       </c>
       <c r="F10" t="n">
-        <v>4.132804349657328</v>
+        <v>2.717321694340459</v>
       </c>
       <c r="G10" t="n">
-        <v>4.153013149624497</v>
+        <v>2.730614380904231</v>
       </c>
       <c r="H10" t="n">
-        <v>4.591146142697617</v>
+        <v>3.018717443293816</v>
       </c>
       <c r="I10" t="n">
-        <v>4.401657526583279</v>
+        <v>2.894152716159487</v>
       </c>
       <c r="J10" t="n">
-        <v>4.763999555055413</v>
+        <v>3.132288157737774</v>
       </c>
       <c r="K10" t="n">
-        <v>4.522185401497692</v>
+        <v>2.973315927152506</v>
       </c>
       <c r="L10" t="n">
-        <v>4.772343886007788</v>
+        <v>3.137776643243827</v>
       </c>
       <c r="M10" t="n">
-        <v>4.781120741977498</v>
+        <v>3.143541700986713</v>
       </c>
       <c r="N10" t="n">
-        <v>5.117789899757873</v>
+        <v>3.364980203250416</v>
       </c>
       <c r="O10" t="n">
-        <v>5.004296091183401</v>
+        <v>3.290267355529172</v>
       </c>
       <c r="P10" t="n">
-        <v>5.383466096734409</v>
+        <v>3.539621191894978</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.601970067756853</v>
+        <v>3.683206562182244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.896383799265193</v>
+        <v>2.561862712239901</v>
       </c>
       <c r="B11" t="n">
-        <v>3.860310888830811</v>
+        <v>2.538138920920932</v>
       </c>
       <c r="C11" t="n">
-        <v>3.843872778246962</v>
+        <v>2.52734053249564</v>
       </c>
       <c r="D11" t="n">
-        <v>3.833652282284941</v>
+        <v>2.520620785734979</v>
       </c>
       <c r="E11" t="n">
-        <v>3.884433743215135</v>
+        <v>2.553988391776822</v>
       </c>
       <c r="F11" t="n">
-        <v>4.06974209413386</v>
+        <v>2.675859468640472</v>
       </c>
       <c r="G11" t="n">
-        <v>4.143162270858937</v>
+        <v>2.72413108742949</v>
       </c>
       <c r="H11" t="n">
-        <v>4.343311197700111</v>
+        <v>2.855764560693937</v>
       </c>
       <c r="I11" t="n">
-        <v>4.618574492579577</v>
+        <v>3.036715585750885</v>
       </c>
       <c r="J11" t="n">
-        <v>4.452107438998313</v>
+        <v>2.927244282516942</v>
       </c>
       <c r="K11" t="n">
-        <v>4.80620341311377</v>
+        <v>3.160046566385858</v>
       </c>
       <c r="L11" t="n">
-        <v>4.707677886038027</v>
+        <v>3.095327952896801</v>
       </c>
       <c r="M11" t="n">
-        <v>4.746767671967843</v>
+        <v>3.121035679593726</v>
       </c>
       <c r="N11" t="n">
-        <v>5.069932977521659</v>
+        <v>3.333488601957521</v>
       </c>
       <c r="O11" t="n">
-        <v>4.992632495210366</v>
+        <v>3.282639784365964</v>
       </c>
       <c r="P11" t="n">
-        <v>5.385016383032492</v>
+        <v>3.540667834968388</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.584388816771387</v>
+        <v>3.671704849493578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.915200257463082</v>
+        <v>2.574255917722777</v>
       </c>
       <c r="B12" t="n">
-        <v>3.874641722410736</v>
+        <v>2.547591371798295</v>
       </c>
       <c r="C12" t="n">
-        <v>3.854845468152983</v>
+        <v>2.534580050443368</v>
       </c>
       <c r="D12" t="n">
-        <v>3.823511433563942</v>
+        <v>2.513990507785206</v>
       </c>
       <c r="E12" t="n">
-        <v>3.883646180496307</v>
+        <v>2.553523295974188</v>
       </c>
       <c r="F12" t="n">
-        <v>4.039918927208362</v>
+        <v>2.656290296468396</v>
       </c>
       <c r="G12" t="n">
-        <v>4.169538197196849</v>
+        <v>2.741485196462147</v>
       </c>
       <c r="H12" t="n">
-        <v>4.263563790150309</v>
+        <v>2.803434892268191</v>
       </c>
       <c r="I12" t="n">
-        <v>4.620855373569859</v>
+        <v>3.038202117144496</v>
       </c>
       <c r="J12" t="n">
-        <v>4.386419524427674</v>
+        <v>2.884098481018411</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7892004820953</v>
+        <v>3.148985807122286</v>
       </c>
       <c r="L12" t="n">
-        <v>4.66919017925219</v>
+        <v>3.070025321093621</v>
       </c>
       <c r="M12" t="n">
-        <v>4.733704444478043</v>
+        <v>3.112436732769443</v>
       </c>
       <c r="N12" t="n">
-        <v>5.03018819428095</v>
+        <v>3.30736832463261</v>
       </c>
       <c r="O12" t="n">
-        <v>5.025575674058651</v>
+        <v>3.304367569118207</v>
       </c>
       <c r="P12" t="n">
-        <v>5.362129275841885</v>
+        <v>3.525669737955794</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.570976221383691</v>
+        <v>3.662881165537182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.813750731674655</v>
+        <v>2.507510942177586</v>
       </c>
       <c r="B13" t="n">
-        <v>3.777935932299305</v>
+        <v>2.483964668340538</v>
       </c>
       <c r="C13" t="n">
-        <v>3.762034833113381</v>
+        <v>2.473508356102909</v>
       </c>
       <c r="D13" t="n">
-        <v>3.757446342058711</v>
+        <v>2.470473872266941</v>
       </c>
       <c r="E13" t="n">
-        <v>3.811016806377827</v>
+        <v>2.505698666204648</v>
       </c>
       <c r="F13" t="n">
-        <v>3.99918327829124</v>
+        <v>2.629385391873392</v>
       </c>
       <c r="G13" t="n">
-        <v>4.086144295961588</v>
+        <v>2.686572293639478</v>
       </c>
       <c r="H13" t="n">
-        <v>4.52405130686273</v>
+        <v>2.974479021694056</v>
       </c>
       <c r="I13" t="n">
-        <v>4.322462249907663</v>
+        <v>2.841998079970915</v>
       </c>
       <c r="J13" t="n">
-        <v>4.616691577803745</v>
+        <v>3.035294735825584</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3660476501094</v>
+        <v>2.870657389839752</v>
       </c>
       <c r="L13" t="n">
-        <v>4.658907315450593</v>
+        <v>3.063155749578219</v>
       </c>
       <c r="M13" t="n">
-        <v>4.708308584190644</v>
+        <v>3.095644999119513</v>
       </c>
       <c r="N13" t="n">
-        <v>4.965487635508306</v>
+        <v>3.264798567362914</v>
       </c>
       <c r="O13" t="n">
-        <v>5.020221219536955</v>
+        <v>3.30080479325604</v>
       </c>
       <c r="P13" t="n">
-        <v>5.31690692234421</v>
+        <v>3.495875203790069</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.565972754703777</v>
+        <v>3.659583245758042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.751629933539102</v>
+        <v>2.466679613608348</v>
       </c>
       <c r="B14" t="n">
-        <v>3.713430846755468</v>
+        <v>2.441560889916439</v>
       </c>
       <c r="C14" t="n">
-        <v>3.697783538778217</v>
+        <v>2.431269668936997</v>
       </c>
       <c r="D14" t="n">
-        <v>3.691506256223284</v>
+        <v>2.427130138776067</v>
       </c>
       <c r="E14" t="n">
-        <v>3.744229219899823</v>
+        <v>2.461805161072262</v>
       </c>
       <c r="F14" t="n">
-        <v>3.928341512250016</v>
+        <v>2.582870131050506</v>
       </c>
       <c r="G14" t="n">
-        <v>4.028319589009437</v>
+        <v>2.64862225131931</v>
       </c>
       <c r="H14" t="n">
-        <v>4.436074584376398</v>
+        <v>2.916689980629292</v>
       </c>
       <c r="I14" t="n">
-        <v>4.237363357733289</v>
+        <v>2.786045634774112</v>
       </c>
       <c r="J14" t="n">
-        <v>4.303457068247156</v>
+        <v>2.829422386516624</v>
       </c>
       <c r="K14" t="n">
-        <v>4.476509463712177</v>
+        <v>2.943077954316941</v>
       </c>
       <c r="L14" t="n">
-        <v>4.609504426766657</v>
+        <v>3.030757033952704</v>
       </c>
       <c r="M14" t="n">
-        <v>4.665352532188285</v>
+        <v>3.067477945228046</v>
       </c>
       <c r="N14" t="n">
-        <v>4.954646971028923</v>
+        <v>3.257654908855424</v>
       </c>
       <c r="O14" t="n">
-        <v>5.060571861790708</v>
+        <v>3.327285076034288</v>
       </c>
       <c r="P14" t="n">
-        <v>5.333422250253252</v>
+        <v>3.506749569697624</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.601792953892077</v>
+        <v>3.683133069944728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.646790405180365</v>
+        <v>2.397765196916593</v>
       </c>
       <c r="B15" t="n">
-        <v>3.607557524207361</v>
+        <v>2.371978474940212</v>
       </c>
       <c r="C15" t="n">
-        <v>3.59599274481132</v>
+        <v>2.364376643811883</v>
       </c>
       <c r="D15" t="n">
-        <v>3.60491782564652</v>
+        <v>2.370262590959958</v>
       </c>
       <c r="E15" t="n">
-        <v>3.648487296400053</v>
+        <v>2.398911249779878</v>
       </c>
       <c r="F15" t="n">
-        <v>3.849074148071511</v>
+        <v>2.530795377728799</v>
       </c>
       <c r="G15" t="n">
-        <v>3.942832450283922</v>
+        <v>2.59242429944501</v>
       </c>
       <c r="H15" t="n">
-        <v>4.343562289002309</v>
+        <v>2.855885982651571</v>
       </c>
       <c r="I15" t="n">
-        <v>4.145833558325539</v>
+        <v>2.726003896863763</v>
       </c>
       <c r="J15" t="n">
-        <v>4.213896040641152</v>
+        <v>2.770720195524855</v>
       </c>
       <c r="K15" t="n">
-        <v>4.348813067115355</v>
+        <v>2.859307809633093</v>
       </c>
       <c r="L15" t="n">
-        <v>4.524559159270723</v>
+        <v>2.974903998545777</v>
       </c>
       <c r="M15" t="n">
-        <v>4.578270828698494</v>
+        <v>3.010204059895818</v>
       </c>
       <c r="N15" t="n">
-        <v>4.933512643122042</v>
+        <v>3.243780497503394</v>
       </c>
       <c r="O15" t="n">
-        <v>5.056528481853388</v>
+        <v>3.324647521287897</v>
       </c>
       <c r="P15" t="n">
-        <v>5.32963860131885</v>
+        <v>3.504274975999636</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.605589562377559</v>
+        <v>3.685648137628593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.603445566645572</v>
+        <v>2.369169260788802</v>
       </c>
       <c r="B16" t="n">
-        <v>3.56823176645161</v>
+        <v>2.34602346639097</v>
       </c>
       <c r="C16" t="n">
-        <v>3.553770527388931</v>
+        <v>2.336506754185152</v>
       </c>
       <c r="D16" t="n">
-        <v>3.577779985701295</v>
+        <v>2.352272969342021</v>
       </c>
       <c r="E16" t="n">
-        <v>3.625125275660451</v>
+        <v>2.383424979692</v>
       </c>
       <c r="F16" t="n">
-        <v>3.831019873471583</v>
+        <v>2.518795906020825</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9325903550701</v>
+        <v>2.585613841251087</v>
       </c>
       <c r="H16" t="n">
-        <v>4.119305087271777</v>
+        <v>2.708395050244548</v>
       </c>
       <c r="I16" t="n">
-        <v>4.404369852628305</v>
+        <v>2.895789782377769</v>
       </c>
       <c r="J16" t="n">
-        <v>4.184598545506383</v>
+        <v>2.751454223211902</v>
       </c>
       <c r="K16" t="n">
-        <v>4.571145235529041</v>
+        <v>3.005605647044121</v>
       </c>
       <c r="L16" t="n">
-        <v>4.510118979478551</v>
+        <v>2.965297284976625</v>
       </c>
       <c r="M16" t="n">
-        <v>4.562446676847114</v>
+        <v>2.999717037133817</v>
       </c>
       <c r="N16" t="n">
-        <v>4.946350698411807</v>
+        <v>3.252012338175064</v>
       </c>
       <c r="O16" t="n">
-        <v>5.032801163767687</v>
+        <v>3.308889294417714</v>
       </c>
       <c r="P16" t="n">
-        <v>5.355859553025083</v>
+        <v>3.52119452223655</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.57141468619527</v>
+        <v>3.66294471679571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.558272351445746</v>
+        <v>2.339511060049194</v>
       </c>
       <c r="B17" t="n">
-        <v>3.518814568263355</v>
+        <v>2.313572383108288</v>
       </c>
       <c r="C17" t="n">
-        <v>3.502977186870247</v>
+        <v>2.303159030101285</v>
       </c>
       <c r="D17" t="n">
-        <v>3.50748792061843</v>
+        <v>2.306159253063242</v>
       </c>
       <c r="E17" t="n">
-        <v>3.552922486765059</v>
+        <v>2.336025681809144</v>
       </c>
       <c r="F17" t="n">
-        <v>3.748390855740757</v>
+        <v>2.464536977601554</v>
       </c>
       <c r="G17" t="n">
-        <v>3.853830303318293</v>
+        <v>2.533883471844307</v>
       </c>
       <c r="H17" t="n">
-        <v>4.037288138338888</v>
+        <v>2.654514766614216</v>
       </c>
       <c r="I17" t="n">
-        <v>4.34411603982038</v>
+        <v>2.856226816216861</v>
       </c>
       <c r="J17" t="n">
-        <v>4.174859712859546</v>
+        <v>2.745026670226484</v>
       </c>
       <c r="K17" t="n">
-        <v>4.576270737981637</v>
+        <v>3.008934809900079</v>
       </c>
       <c r="L17" t="n">
-        <v>4.441871553569384</v>
+        <v>2.920463292225018</v>
       </c>
       <c r="M17" t="n">
-        <v>4.489523282913479</v>
+        <v>2.951780216315703</v>
       </c>
       <c r="N17" t="n">
-        <v>4.921572036744648</v>
+        <v>3.235855762075449</v>
       </c>
       <c r="O17" t="n">
-        <v>4.949317895628096</v>
+        <v>3.254053079147234</v>
       </c>
       <c r="P17" t="n">
-        <v>5.360687525784106</v>
+        <v>3.524562738938531</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.489036219785347</v>
+        <v>3.608890288515613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.557736420010411</v>
+        <v>2.339027502428439</v>
       </c>
       <c r="B18" t="n">
-        <v>3.52038753377583</v>
+        <v>2.314470799084294</v>
       </c>
       <c r="C18" t="n">
-        <v>3.500890159164887</v>
+        <v>2.301655101994444</v>
       </c>
       <c r="D18" t="n">
-        <v>3.490211489074019</v>
+        <v>2.294662333346588</v>
       </c>
       <c r="E18" t="n">
-        <v>3.549008702338551</v>
+        <v>2.333316232482575</v>
       </c>
       <c r="F18" t="n">
-        <v>3.721258955589778</v>
+        <v>2.446610552207181</v>
       </c>
       <c r="G18" t="n">
-        <v>3.851070728909951</v>
+        <v>2.531965217934662</v>
       </c>
       <c r="H18" t="n">
-        <v>4.034349830121885</v>
+        <v>2.652560299138259</v>
       </c>
       <c r="I18" t="n">
-        <v>4.343370865633214</v>
+        <v>2.855755329784877</v>
       </c>
       <c r="J18" t="n">
-        <v>4.196099337118962</v>
+        <v>2.758992858116667</v>
       </c>
       <c r="K18" t="n">
-        <v>4.556323828942565</v>
+        <v>2.995870588335539</v>
       </c>
       <c r="L18" t="n">
-        <v>4.412288408329536</v>
+        <v>2.901064181800624</v>
       </c>
       <c r="M18" t="n">
-        <v>4.474498843360066</v>
+        <v>2.941962079425582</v>
       </c>
       <c r="N18" t="n">
-        <v>4.879158665943812</v>
+        <v>3.208060074756162</v>
       </c>
       <c r="O18" t="n">
-        <v>4.926269874011564</v>
+        <v>3.239000306750209</v>
       </c>
       <c r="P18" t="n">
-        <v>5.37305903723495</v>
+        <v>3.532864876533041</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.467483946356098</v>
+        <v>3.594868182618624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.503794448560302</v>
+        <v>2.303773240588733</v>
       </c>
       <c r="B19" t="n">
-        <v>3.465451996742833</v>
+        <v>2.278569663540465</v>
       </c>
       <c r="C19" t="n">
-        <v>3.449158601146056</v>
+        <v>2.267858081163833</v>
       </c>
       <c r="D19" t="n">
-        <v>3.44322960652643</v>
+        <v>2.263976306386653</v>
       </c>
       <c r="E19" t="n">
-        <v>3.496317057577126</v>
+        <v>2.298880326234527</v>
       </c>
       <c r="F19" t="n">
-        <v>3.681293319999395</v>
+        <v>2.420471102994223</v>
       </c>
       <c r="G19" t="n">
-        <v>3.797881491385138</v>
+        <v>2.497143743715881</v>
       </c>
       <c r="H19" t="n">
-        <v>4.038750407685877</v>
+        <v>2.655523065911531</v>
       </c>
       <c r="I19" t="n">
-        <v>4.313511519960948</v>
+        <v>2.836195743556825</v>
       </c>
       <c r="J19" t="n">
-        <v>4.205577088809644</v>
+        <v>2.765260822885838</v>
       </c>
       <c r="K19" t="n">
-        <v>4.534546923294577</v>
+        <v>2.98146788495731</v>
       </c>
       <c r="L19" t="n">
-        <v>4.395801159447837</v>
+        <v>2.890299876731861</v>
       </c>
       <c r="M19" t="n">
-        <v>4.452534024221401</v>
+        <v>2.927597364788484</v>
       </c>
       <c r="N19" t="n">
-        <v>4.876828106674385</v>
+        <v>3.206414487698749</v>
       </c>
       <c r="O19" t="n">
-        <v>4.892167355322812</v>
+        <v>3.216513102210306</v>
       </c>
       <c r="P19" t="n">
-        <v>5.387073711766624</v>
+        <v>3.54187637398531</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.436591616466406</v>
+        <v>3.574389055834219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.541539141084153</v>
+        <v>2.328638291798976</v>
       </c>
       <c r="B20" t="n">
-        <v>3.501997930791677</v>
+        <v>2.302649199893205</v>
       </c>
       <c r="C20" t="n">
-        <v>3.485120545424306</v>
+        <v>2.291547966643755</v>
       </c>
       <c r="D20" t="n">
-        <v>3.477625065067746</v>
+        <v>2.286640140821068</v>
       </c>
       <c r="E20" t="n">
-        <v>3.53114558111707</v>
+        <v>2.321838662171451</v>
       </c>
       <c r="F20" t="n">
-        <v>3.726391747789857</v>
+        <v>2.450183801600782</v>
       </c>
       <c r="G20" t="n">
-        <v>3.839234878903795</v>
+        <v>2.524394452365669</v>
       </c>
       <c r="H20" t="n">
-        <v>4.078496540879824</v>
+        <v>2.6816800893552</v>
       </c>
       <c r="I20" t="n">
-        <v>4.340979828458742</v>
+        <v>2.854263472866808</v>
       </c>
       <c r="J20" t="n">
-        <v>4.230025011933587</v>
+        <v>2.781296154545299</v>
       </c>
       <c r="K20" t="n">
-        <v>4.581073331619793</v>
+        <v>3.012129769539704</v>
       </c>
       <c r="L20" t="n">
-        <v>4.399959825391648</v>
+        <v>2.892992106862684</v>
       </c>
       <c r="M20" t="n">
-        <v>4.458595314258314</v>
+        <v>2.931543578411602</v>
       </c>
       <c r="N20" t="n">
-        <v>4.86770836258232</v>
+        <v>3.200549310096058</v>
       </c>
       <c r="O20" t="n">
-        <v>4.885010443238246</v>
+        <v>3.211890191946103</v>
       </c>
       <c r="P20" t="n">
-        <v>5.377841651565189</v>
+        <v>3.535986698970115</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.435021890841702</v>
+        <v>3.573496497935117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.574034405448195</v>
+        <v>2.349800683371298</v>
       </c>
       <c r="B21" t="n">
-        <v>3.531178789966716</v>
+        <v>2.321613925039338</v>
       </c>
       <c r="C21" t="n">
-        <v>3.51839203289998</v>
+        <v>2.313204921920711</v>
       </c>
       <c r="D21" t="n">
-        <v>3.493749176528525</v>
+        <v>2.297016392674351</v>
       </c>
       <c r="E21" t="n">
-        <v>3.538325442406675</v>
+        <v>2.326330387016514</v>
       </c>
       <c r="F21" t="n">
-        <v>3.725904414671076</v>
+        <v>2.449703971847148</v>
       </c>
       <c r="G21" t="n">
-        <v>3.805061352674743</v>
+        <v>2.501771979504542</v>
       </c>
       <c r="H21" t="n">
-        <v>4.100265346808387</v>
+        <v>2.695875629832026</v>
       </c>
       <c r="I21" t="n">
-        <v>4.284761295868711</v>
+        <v>2.817167999704611</v>
       </c>
       <c r="J21" t="n">
-        <v>4.260176217495826</v>
+        <v>2.800953730423372</v>
       </c>
       <c r="K21" t="n">
-        <v>4.544811427732143</v>
+        <v>2.988017214935327</v>
       </c>
       <c r="L21" t="n">
-        <v>4.409347400206057</v>
+        <v>2.899140957401485</v>
       </c>
       <c r="M21" t="n">
-        <v>4.448742545558222</v>
+        <v>2.925032947244645</v>
       </c>
       <c r="N21" t="n">
-        <v>4.876384782031151</v>
+        <v>3.20616241287442</v>
       </c>
       <c r="O21" t="n">
-        <v>4.853833543206063</v>
+        <v>3.191302779497725</v>
       </c>
       <c r="P21" t="n">
-        <v>5.412158002846781</v>
+        <v>3.558456506796789</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.447581855764517</v>
+        <v>3.581665497418186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.672458146049821</v>
+        <v>2.414626517419435</v>
       </c>
       <c r="B22" t="n">
-        <v>3.624647932195629</v>
+        <v>2.383189769028454</v>
       </c>
       <c r="C22" t="n">
-        <v>3.612832331488037</v>
+        <v>2.375418586222371</v>
       </c>
       <c r="D22" t="n">
-        <v>3.549993088239423</v>
+        <v>2.33408896608138</v>
       </c>
       <c r="E22" t="n">
-        <v>3.596206847394806</v>
+        <v>2.36449185265765</v>
       </c>
       <c r="F22" t="n">
-        <v>3.749156279226487</v>
+        <v>2.465068464942428</v>
       </c>
       <c r="G22" t="n">
-        <v>3.848965071849911</v>
+        <v>2.530717447554235</v>
       </c>
       <c r="H22" t="n">
-        <v>4.147194041198413</v>
+        <v>2.726808051056868</v>
       </c>
       <c r="I22" t="n">
-        <v>4.349414336287391</v>
+        <v>2.859721780400934</v>
       </c>
       <c r="J22" t="n">
-        <v>4.293369947665012</v>
+        <v>2.822919921153835</v>
       </c>
       <c r="K22" t="n">
-        <v>4.630826668164215</v>
+        <v>3.044612983486614</v>
       </c>
       <c r="L22" t="n">
-        <v>4.436821378507449</v>
+        <v>2.917273303074887</v>
       </c>
       <c r="M22" t="n">
-        <v>4.494588847442325</v>
+        <v>2.955270387527764</v>
       </c>
       <c r="N22" t="n">
-        <v>4.873246410744332</v>
+        <v>3.204058830713649</v>
       </c>
       <c r="O22" t="n">
-        <v>4.897802600117932</v>
+        <v>3.220201205414709</v>
       </c>
       <c r="P22" t="n">
-        <v>5.378019305411261</v>
+        <v>3.535889774424986</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.50951825028781</v>
+        <v>3.622280077141997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.6702196535912</v>
+        <v>2.413177619731991</v>
       </c>
       <c r="B23" t="n">
-        <v>3.623610358137194</v>
+        <v>2.382528516408296</v>
       </c>
       <c r="C23" t="n">
-        <v>3.610894878601405</v>
+        <v>2.374165667834968</v>
       </c>
       <c r="D23" t="n">
-        <v>3.58028090906931</v>
+        <v>2.354027729650816</v>
       </c>
       <c r="E23" t="n">
-        <v>3.627992306346508</v>
+        <v>2.385408205000028</v>
       </c>
       <c r="F23" t="n">
-        <v>3.812289272299608</v>
+        <v>2.506583058299581</v>
       </c>
       <c r="G23" t="n">
-        <v>3.898540214566967</v>
+        <v>2.563317645521731</v>
       </c>
       <c r="H23" t="n">
-        <v>4.228739586460725</v>
+        <v>2.780351939058959</v>
       </c>
       <c r="I23" t="n">
-        <v>4.403169474209413</v>
+        <v>2.89508042252001</v>
       </c>
       <c r="J23" t="n">
-        <v>4.449803608802991</v>
+        <v>2.925660294025755</v>
       </c>
       <c r="K23" t="n">
-        <v>4.681176684039665</v>
+        <v>3.077912777850363</v>
       </c>
       <c r="L23" t="n">
-        <v>4.493315301557954</v>
+        <v>2.954375876936361</v>
       </c>
       <c r="M23" t="n">
-        <v>4.551395959643957</v>
+        <v>2.992560952402592</v>
       </c>
       <c r="N23" t="n">
-        <v>4.939375760023673</v>
+        <v>3.247643632944972</v>
       </c>
       <c r="O23" t="n">
-        <v>4.966572457930058</v>
+        <v>3.265491240577372</v>
       </c>
       <c r="P23" t="n">
-        <v>5.468719963540463</v>
+        <v>3.595710325552861</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.622722628888135</v>
+        <v>3.696891029828618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.772016117361694</v>
+        <v>2.480148219996705</v>
       </c>
       <c r="B24" t="n">
-        <v>3.70972657507144</v>
+        <v>2.439191919120195</v>
       </c>
       <c r="C24" t="n">
-        <v>3.724903289350057</v>
+        <v>2.449155797862974</v>
       </c>
       <c r="D24" t="n">
-        <v>3.65318405370438</v>
+        <v>2.402035734979181</v>
       </c>
       <c r="E24" t="n">
-        <v>3.706216966644275</v>
+        <v>2.436866972659467</v>
       </c>
       <c r="F24" t="n">
-        <v>3.873762092881103</v>
+        <v>2.547053493828072</v>
       </c>
       <c r="G24" t="n">
-        <v>3.972903468623847</v>
+        <v>2.612215190952005</v>
       </c>
       <c r="H24" t="n">
-        <v>4.279316124489448</v>
+        <v>2.813648183073069</v>
       </c>
       <c r="I24" t="n">
-        <v>4.475409251823517</v>
+        <v>2.94253652599708</v>
       </c>
       <c r="J24" t="n">
-        <v>4.59354365964763</v>
+        <v>3.020177347065139</v>
       </c>
       <c r="K24" t="n">
-        <v>4.755765920268522</v>
+        <v>3.126750677406711</v>
       </c>
       <c r="L24" t="n">
-        <v>4.589570477278667</v>
+        <v>3.017609734206625</v>
       </c>
       <c r="M24" t="n">
-        <v>4.649083435749786</v>
+        <v>3.056724646243162</v>
       </c>
       <c r="N24" t="n">
-        <v>5.085712850906845</v>
+        <v>3.34376757423071</v>
       </c>
       <c r="O24" t="n">
-        <v>5.107986539346277</v>
+        <v>3.358407085929823</v>
       </c>
       <c r="P24" t="n">
-        <v>5.602474410286428</v>
+        <v>3.683547395747533</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.708862065018068</v>
+        <v>3.753430347820653</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.840995487916298</v>
+        <v>2.525580624179869</v>
       </c>
       <c r="B25" t="n">
-        <v>3.790916002669667</v>
+        <v>2.492642965479241</v>
       </c>
       <c r="C25" t="n">
-        <v>3.778515062238244</v>
+        <v>2.484495268094002</v>
       </c>
       <c r="D25" t="n">
-        <v>3.720849109786837</v>
+        <v>2.44655498923534</v>
       </c>
       <c r="E25" t="n">
-        <v>3.767114977137192</v>
+        <v>2.476964976510887</v>
       </c>
       <c r="F25" t="n">
-        <v>3.943665371431534</v>
+        <v>2.593035669652747</v>
       </c>
       <c r="G25" t="n">
-        <v>4.037911006762726</v>
+        <v>2.654990158430802</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33810361809067</v>
+        <v>2.852327467208971</v>
       </c>
       <c r="I25" t="n">
-        <v>4.579124539125965</v>
+        <v>3.010764660103727</v>
       </c>
       <c r="J25" t="n">
-        <v>4.607390939977839</v>
+        <v>3.029413226614557</v>
       </c>
       <c r="K25" t="n">
-        <v>4.827576952734358</v>
+        <v>3.174138614170724</v>
       </c>
       <c r="L25" t="n">
-        <v>4.65504320930323</v>
+        <v>3.060705298257772</v>
       </c>
       <c r="M25" t="n">
-        <v>4.70877026819791</v>
+        <v>3.096016365691693</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1026628637584</v>
+        <v>3.354881588738859</v>
       </c>
       <c r="O25" t="n">
-        <v>5.060051859803576</v>
+        <v>3.32681962519669</v>
       </c>
       <c r="P25" t="n">
-        <v>5.608589158471551</v>
+        <v>3.687398104965377</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.671063914346007</v>
+        <v>3.728428430631848</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.827833443849505</v>
+        <v>2.516770431552099</v>
       </c>
       <c r="B26" t="n">
-        <v>3.781595385535845</v>
+        <v>2.486359024136697</v>
       </c>
       <c r="C26" t="n">
-        <v>3.766307975091743</v>
+        <v>2.476308694380223</v>
       </c>
       <c r="D26" t="n">
-        <v>3.746730143267837</v>
+        <v>2.463445955157664</v>
       </c>
       <c r="E26" t="n">
-        <v>3.792904213798034</v>
+        <v>2.493817421139634</v>
       </c>
       <c r="F26" t="n">
-        <v>3.999964901215822</v>
+        <v>2.629956288095252</v>
       </c>
       <c r="G26" t="n">
-        <v>4.092260394099949</v>
+        <v>2.690680225688626</v>
       </c>
       <c r="H26" t="n">
-        <v>4.337273396849533</v>
+        <v>2.851763494168906</v>
       </c>
       <c r="I26" t="n">
-        <v>4.652663511735954</v>
+        <v>3.059171902248933</v>
       </c>
       <c r="J26" t="n">
-        <v>4.567428004293931</v>
+        <v>3.00314738495447</v>
       </c>
       <c r="K26" t="n">
-        <v>4.886644426637061</v>
+        <v>3.212998611103222</v>
       </c>
       <c r="L26" t="n">
-        <v>4.715211705066537</v>
+        <v>3.100252997915235</v>
       </c>
       <c r="M26" t="n">
-        <v>4.757945284775335</v>
+        <v>3.128373542226438</v>
       </c>
       <c r="N26" t="n">
-        <v>5.137842105149478</v>
+        <v>3.377956731178887</v>
       </c>
       <c r="O26" t="n">
-        <v>5.03492491020111</v>
+        <v>3.310370855321832</v>
       </c>
       <c r="P26" t="n">
-        <v>5.617941094520486</v>
+        <v>3.693598790608899</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.623822030804853</v>
+        <v>3.697449854861707</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.882044325984548</v>
+        <v>2.552319904964241</v>
       </c>
       <c r="B27" t="n">
-        <v>3.843961875160645</v>
+        <v>2.527285679593726</v>
       </c>
       <c r="C27" t="n">
-        <v>3.825118687888652</v>
+        <v>2.514900639915019</v>
       </c>
       <c r="D27" t="n">
-        <v>3.816662310817553</v>
+        <v>2.509358366611944</v>
       </c>
       <c r="E27" t="n">
-        <v>3.866960218498031</v>
+        <v>2.542426678179267</v>
       </c>
       <c r="F27" t="n">
-        <v>4.083296164620857</v>
+        <v>2.684638950743869</v>
       </c>
       <c r="G27" t="n">
-        <v>4.126380192190142</v>
+        <v>2.713004291662643</v>
       </c>
       <c r="H27" t="n">
-        <v>4.424402078711993</v>
+        <v>2.908915069956089</v>
       </c>
       <c r="I27" t="n">
-        <v>4.623124374971651</v>
+        <v>3.039677997489193</v>
       </c>
       <c r="J27" t="n">
-        <v>4.632335915883874</v>
+        <v>3.045549210686268</v>
       </c>
       <c r="K27" t="n">
-        <v>4.855072260296903</v>
+        <v>3.192170839984322</v>
       </c>
       <c r="L27" t="n">
-        <v>4.762265675117014</v>
+        <v>3.131154176063259</v>
       </c>
       <c r="M27" t="n">
-        <v>4.783103013311619</v>
+        <v>3.144868821681559</v>
       </c>
       <c r="N27" t="n">
-        <v>5.178600433280991</v>
+        <v>3.40485595521447</v>
       </c>
       <c r="O27" t="n">
-        <v>5.015456424589452</v>
+        <v>3.297593857043041</v>
       </c>
       <c r="P27" t="n">
-        <v>5.595287799230634</v>
+        <v>3.678835371707406</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.585050293857821</v>
+        <v>3.672115624946745</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.88958327483536</v>
+        <v>2.557377022989224</v>
       </c>
       <c r="B28" t="n">
-        <v>3.853796284496705</v>
+        <v>2.533844773033248</v>
       </c>
       <c r="C28" t="n">
-        <v>3.84011423844278</v>
+        <v>2.524847121944569</v>
       </c>
       <c r="D28" t="n">
-        <v>3.843461042509488</v>
+        <v>2.527018870818398</v>
       </c>
       <c r="E28" t="n">
-        <v>3.88696625548891</v>
+        <v>2.555633623799272</v>
       </c>
       <c r="F28" t="n">
-        <v>4.085757669354334</v>
+        <v>2.686339390703196</v>
       </c>
       <c r="G28" t="n">
-        <v>4.134114074288466</v>
+        <v>2.718104546435733</v>
       </c>
       <c r="H28" t="n">
-        <v>4.548089114193084</v>
+        <v>2.990296894438164</v>
       </c>
       <c r="I28" t="n">
-        <v>4.284043120746297</v>
+        <v>2.816885391873392</v>
       </c>
       <c r="J28" t="n">
-        <v>4.722972316238965</v>
+        <v>3.105354850345662</v>
       </c>
       <c r="K28" t="n">
-        <v>4.402635702699259</v>
+        <v>2.894925627275774</v>
       </c>
       <c r="L28" t="n">
-        <v>4.803946831281764</v>
+        <v>3.158490448139333</v>
       </c>
       <c r="M28" t="n">
-        <v>4.811527088701648</v>
+        <v>3.163463422877885</v>
       </c>
       <c r="N28" t="n">
-        <v>5.233576468911117</v>
+        <v>3.441056740267781</v>
       </c>
       <c r="O28" t="n">
-        <v>5.016849576330676</v>
+        <v>3.298549611165708</v>
       </c>
       <c r="P28" t="n">
-        <v>5.637079111579575</v>
+        <v>3.706376143922653</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.503597895368904</v>
+        <v>3.618629252608797</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.882805699610565</v>
+        <v>2.552923286885292</v>
       </c>
       <c r="B29" t="n">
-        <v>3.853423967393769</v>
+        <v>2.533616663068979</v>
       </c>
       <c r="C29" t="n">
-        <v>3.846004354409163</v>
+        <v>2.528735109833617</v>
       </c>
       <c r="D29" t="n">
-        <v>3.901426684579646</v>
+        <v>2.565193295235715</v>
       </c>
       <c r="E29" t="n">
-        <v>3.923199540367922</v>
+        <v>2.579520553684127</v>
       </c>
       <c r="F29" t="n">
-        <v>4.138842420498554</v>
+        <v>2.721217848033674</v>
       </c>
       <c r="G29" t="n">
-        <v>4.173752211223404</v>
+        <v>2.744205474355114</v>
       </c>
       <c r="H29" t="n">
-        <v>4.503783378943753</v>
+        <v>2.961083730025733</v>
       </c>
       <c r="I29" t="n">
-        <v>4.078349665967571</v>
+        <v>2.681109370650822</v>
       </c>
       <c r="J29" t="n">
-        <v>4.575035260778566</v>
+        <v>3.008044737245724</v>
       </c>
       <c r="K29" t="n">
-        <v>3.905709006240024</v>
+        <v>2.567017819914905</v>
       </c>
       <c r="L29" t="n">
-        <v>4.843223990720961</v>
+        <v>3.184368946653866</v>
       </c>
       <c r="M29" t="n">
-        <v>4.838279921983503</v>
+        <v>3.181109370650822</v>
       </c>
       <c r="N29" t="n">
-        <v>5.291155754364669</v>
+        <v>3.479027019580888</v>
       </c>
       <c r="O29" t="n">
-        <v>5.063944584959577</v>
+        <v>3.329574341481149</v>
       </c>
       <c r="P29" t="n">
-        <v>5.622739908289577</v>
+        <v>3.697035884093866</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.560259212620875</v>
+        <v>3.655925320525566</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.987562340840513</v>
+        <v>2.621775217423412</v>
       </c>
       <c r="B30" t="n">
-        <v>3.956142719216206</v>
+        <v>2.601117153017229</v>
       </c>
       <c r="C30" t="n">
-        <v>3.931559260787207</v>
+        <v>2.584954186288265</v>
       </c>
       <c r="D30" t="n">
-        <v>3.92870410968964</v>
+        <v>2.583085459756077</v>
       </c>
       <c r="E30" t="n">
-        <v>3.988673082364427</v>
+        <v>2.622520080777555</v>
       </c>
       <c r="F30" t="n">
-        <v>4.202928480557434</v>
+        <v>2.763380557717324</v>
       </c>
       <c r="G30" t="n">
-        <v>4.203520300056806</v>
+        <v>2.763827369219321</v>
       </c>
       <c r="H30" t="n">
-        <v>4.431984496057057</v>
+        <v>2.91391751259664</v>
       </c>
       <c r="I30" t="n">
-        <v>4.568926992368985</v>
+        <v>3.004132606979135</v>
       </c>
       <c r="J30" t="n">
-        <v>4.593508560863452</v>
+        <v>3.02008042252001</v>
       </c>
       <c r="K30" t="n">
-        <v>4.694214532408598</v>
+        <v>3.086552908730452</v>
       </c>
       <c r="L30" t="n">
-        <v>4.881773795355729</v>
+        <v>3.209697140974443</v>
       </c>
       <c r="M30" t="n">
-        <v>4.875752463934649</v>
+        <v>3.205762643505132</v>
       </c>
       <c r="N30" t="n">
-        <v>5.279743249693831</v>
+        <v>3.471429626389607</v>
       </c>
       <c r="O30" t="n">
-        <v>4.979694543381017</v>
+        <v>3.274175395792978</v>
       </c>
       <c r="P30" t="n">
-        <v>5.606294777948892</v>
+        <v>3.68618175517925</v>
       </c>
       <c r="Q30" t="n">
-        <v>5.600272906546517</v>
+        <v>3.682195422605218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.041730024471953</v>
+        <v>2.657412561989104</v>
       </c>
       <c r="B31" t="n">
-        <v>3.999434909574732</v>
+        <v>2.629599832991553</v>
       </c>
       <c r="C31" t="n">
-        <v>4.009822799738217</v>
+        <v>2.636444197024523</v>
       </c>
       <c r="D31" t="n">
-        <v>4.013184183299891</v>
+        <v>2.63863973324093</v>
       </c>
       <c r="E31" t="n">
-        <v>4.031457960296255</v>
+        <v>2.650702578689949</v>
       </c>
       <c r="F31" t="n">
-        <v>4.252797373098995</v>
+        <v>2.796182593061765</v>
       </c>
       <c r="G31" t="n">
-        <v>4.241593841189341</v>
+        <v>2.788918222666568</v>
       </c>
       <c r="H31" t="n">
-        <v>4.428551024992494</v>
+        <v>2.91160801015684</v>
       </c>
       <c r="I31" t="n">
-        <v>4.623656796528568</v>
+        <v>3.040125341543635</v>
       </c>
       <c r="J31" t="n">
-        <v>4.556547921180011</v>
+        <v>2.995798516237879</v>
       </c>
       <c r="K31" t="n">
-        <v>4.697607234885384</v>
+        <v>3.088760871170593</v>
       </c>
       <c r="L31" t="n">
-        <v>4.932941882893177</v>
+        <v>3.243362266315987</v>
       </c>
       <c r="M31" t="n">
-        <v>4.919056803872314</v>
+        <v>3.234271241031817</v>
       </c>
       <c r="N31" t="n">
-        <v>5.307992371144263</v>
+        <v>3.490005055697885</v>
       </c>
       <c r="O31" t="n">
-        <v>5.118051250704675</v>
+        <v>3.365169081851181</v>
       </c>
       <c r="P31" t="n">
-        <v>5.590717937530644</v>
+        <v>3.675931895773096</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.654365532777945</v>
+        <v>3.71779477842978</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.07363589925245</v>
+        <v>2.678510514715489</v>
       </c>
       <c r="B32" t="n">
-        <v>4.037088885241015</v>
+        <v>2.654478375530422</v>
       </c>
       <c r="C32" t="n">
-        <v>4.036300242559598</v>
+        <v>2.653965527525151</v>
       </c>
       <c r="D32" t="n">
-        <v>4.06727113972772</v>
+        <v>2.674332995813428</v>
       </c>
       <c r="E32" t="n">
-        <v>4.065032377278451</v>
+        <v>2.672843446622623</v>
       </c>
       <c r="F32" t="n">
-        <v>4.288614602390173</v>
+        <v>2.819839105255086</v>
       </c>
       <c r="G32" t="n">
-        <v>4.256306171554217</v>
+        <v>2.798620263123512</v>
       </c>
       <c r="H32" t="n">
-        <v>4.265973186688814</v>
+        <v>2.804792190934963</v>
       </c>
       <c r="I32" t="n">
-        <v>4.459492493180036</v>
+        <v>2.932140392185822</v>
       </c>
       <c r="J32" t="n">
-        <v>4.255994602346974</v>
+        <v>2.798141853509734</v>
       </c>
       <c r="K32" t="n">
-        <v>4.36379916799682</v>
+        <v>2.869137662677021</v>
       </c>
       <c r="L32" t="n">
-        <v>4.968007188231</v>
+        <v>3.266476107567073</v>
       </c>
       <c r="M32" t="n">
-        <v>4.946117966473642</v>
+        <v>3.252079084748266</v>
       </c>
       <c r="N32" t="n">
-        <v>5.368357960080263</v>
+        <v>3.52974979976028</v>
       </c>
       <c r="O32" t="n">
-        <v>5.211276321388227</v>
+        <v>3.426481844932089</v>
       </c>
       <c r="P32" t="n">
-        <v>5.601620159877662</v>
+        <v>3.683116383301428</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.693151849219943</v>
+        <v>3.743305815756736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.179988455199912</v>
+        <v>2.748373762348116</v>
       </c>
       <c r="B33" t="n">
-        <v>4.12579809235408</v>
+        <v>2.712745471174001</v>
       </c>
       <c r="C33" t="n">
-        <v>4.138376956622222</v>
+        <v>2.721008554922489</v>
       </c>
       <c r="D33" t="n">
-        <v>4.102071314249675</v>
+        <v>2.697173637659837</v>
       </c>
       <c r="E33" t="n">
-        <v>4.132737931958037</v>
+        <v>2.717316191298519</v>
       </c>
       <c r="F33" t="n">
-        <v>4.297284272072815</v>
+        <v>2.825550197683468</v>
       </c>
       <c r="G33" t="n">
-        <v>4.323562191805676</v>
+        <v>2.842800103954237</v>
       </c>
       <c r="H33" t="n">
-        <v>4.38308217003363</v>
+        <v>2.88202631945194</v>
       </c>
       <c r="I33" t="n">
-        <v>4.496722853520354</v>
+        <v>2.956640112418271</v>
       </c>
       <c r="J33" t="n">
-        <v>4.423589676853593</v>
+        <v>2.908561810167065</v>
       </c>
       <c r="K33" t="n">
-        <v>4.44212615475</v>
+        <v>2.920691224671806</v>
       </c>
       <c r="L33" t="n">
-        <v>5.054295659198365</v>
+        <v>3.323214955208789</v>
       </c>
       <c r="M33" t="n">
-        <v>5.065312897561228</v>
+        <v>3.330451632876806</v>
       </c>
       <c r="N33" t="n">
-        <v>5.368458396601142</v>
+        <v>3.529794889200689</v>
       </c>
       <c r="O33" t="n">
-        <v>5.268614775184187</v>
+        <v>3.46417448690347</v>
       </c>
       <c r="P33" t="n">
-        <v>5.677835279785908</v>
+        <v>3.733197615301155</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.756095308858501</v>
+        <v>3.78464218156204</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.211228803034263</v>
+        <v>2.768826971580161</v>
       </c>
       <c r="B34" t="n">
-        <v>4.163983139624043</v>
+        <v>2.737766915285818</v>
       </c>
       <c r="C34" t="n">
-        <v>4.172991647569328</v>
+        <v>2.743689963587614</v>
       </c>
       <c r="D34" t="n">
-        <v>4.161820784528024</v>
+        <v>2.736355118752095</v>
       </c>
       <c r="E34" t="n">
-        <v>4.197251927193242</v>
+        <v>2.759656951016536</v>
       </c>
       <c r="F34" t="n">
-        <v>4.40172610420775</v>
+        <v>2.89411046699879</v>
       </c>
       <c r="G34" t="n">
-        <v>4.391715120988209</v>
+        <v>2.887555101426388</v>
       </c>
       <c r="H34" t="n">
-        <v>4.530277831175928</v>
+        <v>2.978685830980635</v>
       </c>
       <c r="I34" t="n">
-        <v>4.556251471449029</v>
+        <v>2.995712952811593</v>
       </c>
       <c r="J34" t="n">
-        <v>4.61161845353677</v>
+        <v>3.031985099892637</v>
       </c>
       <c r="K34" t="n">
-        <v>4.465536503815508</v>
+        <v>2.935898792313067</v>
       </c>
       <c r="L34" t="n">
-        <v>5.123415964870977</v>
+        <v>3.368687123307903</v>
       </c>
       <c r="M34" t="n">
-        <v>5.102024605867653</v>
+        <v>3.354639454893518</v>
       </c>
       <c r="N34" t="n">
-        <v>5.400197957142765</v>
+        <v>3.550667394725032</v>
       </c>
       <c r="O34" t="n">
-        <v>5.230197805948002</v>
+        <v>3.438924045239975</v>
       </c>
       <c r="P34" t="n">
-        <v>5.679761393065344</v>
+        <v>3.734591837604167</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.771803904712741</v>
+        <v>3.79503014956913</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.121006838323121</v>
+        <v>2.709522463772232</v>
       </c>
       <c r="B35" t="n">
-        <v>4.087688642465425</v>
+        <v>2.687613256153466</v>
       </c>
       <c r="C35" t="n">
-        <v>4.075813643815378</v>
+        <v>2.679798049011866</v>
       </c>
       <c r="D35" t="n">
-        <v>4.089065864758445</v>
+        <v>2.688541495066434</v>
       </c>
       <c r="E35" t="n">
-        <v>4.124474328209271</v>
+        <v>2.711836226631599</v>
       </c>
       <c r="F35" t="n">
-        <v>4.374498357376901</v>
+        <v>2.876257711359415</v>
       </c>
       <c r="G35" t="n">
-        <v>4.366956438628966</v>
+        <v>2.871300713194235</v>
       </c>
       <c r="H35" t="n">
-        <v>4.635357651210962</v>
+        <v>3.047766404035469</v>
       </c>
       <c r="I35" t="n">
-        <v>4.685820523177077</v>
+        <v>3.080922764273826</v>
       </c>
       <c r="J35" t="n">
-        <v>4.917917983321058</v>
+        <v>3.233478802992519</v>
       </c>
       <c r="K35" t="n">
-        <v>4.687882711742866</v>
+        <v>3.082147989934049</v>
       </c>
       <c r="L35" t="n">
-        <v>5.104963184075304</v>
+        <v>3.356468239992275</v>
       </c>
       <c r="M35" t="n">
-        <v>5.08166461113787</v>
+        <v>3.341138185288487</v>
       </c>
       <c r="N35" t="n">
-        <v>5.369215450376799</v>
+        <v>3.530141758360363</v>
       </c>
       <c r="O35" t="n">
-        <v>5.190995703908817</v>
+        <v>3.412934420781759</v>
       </c>
       <c r="P35" t="n">
-        <v>5.733816760587414</v>
+        <v>3.769814501332091</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.764243086619479</v>
+        <v>3.789735513153335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.049904531307035</v>
+        <v>2.662963001096348</v>
       </c>
       <c r="B36" t="n">
-        <v>4.015471004084419</v>
+        <v>2.640321533864655</v>
       </c>
       <c r="C36" t="n">
-        <v>4.010170547692228</v>
+        <v>2.63683278279245</v>
       </c>
       <c r="D36" t="n">
-        <v>4.046740510908702</v>
+        <v>2.660870602536938</v>
       </c>
       <c r="E36" t="n">
-        <v>4.074551167547556</v>
+        <v>2.679170879748237</v>
       </c>
       <c r="F36" t="n">
-        <v>4.33509943215567</v>
+        <v>2.850433178159385</v>
       </c>
       <c r="G36" t="n">
-        <v>4.35295391367643</v>
+        <v>2.862210575497475</v>
       </c>
       <c r="H36" t="n">
-        <v>4.644385058501573</v>
+        <v>3.053748743176228</v>
       </c>
       <c r="I36" t="n">
-        <v>4.745110469373341</v>
+        <v>3.119956018268679</v>
       </c>
       <c r="J36" t="n">
-        <v>4.956714559407662</v>
+        <v>3.259096705843592</v>
       </c>
       <c r="K36" t="n">
-        <v>4.808278021249344</v>
+        <v>3.161377592465306</v>
       </c>
       <c r="L36" t="n">
-        <v>5.090972808701906</v>
+        <v>3.347384670442345</v>
       </c>
       <c r="M36" t="n">
-        <v>5.078581857924442</v>
+        <v>3.339258275154937</v>
       </c>
       <c r="N36" t="n">
-        <v>5.318751498448094</v>
+        <v>3.497171791478025</v>
       </c>
       <c r="O36" t="n">
-        <v>5.206996969624972</v>
+        <v>3.423699080885485</v>
       </c>
       <c r="P36" t="n">
-        <v>5.752856501050804</v>
+        <v>3.782533983946739</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.780839951704073</v>
+        <v>3.800924085003891</v>
       </c>
     </row>
   </sheetData>
@@ -4345,1857 +4345,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.182088172465706</v>
+        <v>8.09537304233721</v>
       </c>
       <c r="B2" t="n">
-        <v>9.186686653174334</v>
+        <v>8.126031731604929</v>
       </c>
       <c r="C2" t="n">
-        <v>9.153025299203636</v>
+        <v>8.109886161589193</v>
       </c>
       <c r="D2" t="n">
-        <v>9.132611846325643</v>
+        <v>8.229584069439158</v>
       </c>
       <c r="E2" t="n">
-        <v>9.056646197775709</v>
+        <v>8.178801288350877</v>
       </c>
       <c r="F2" t="n">
-        <v>9.077431157784694</v>
+        <v>8.405336317520549</v>
       </c>
       <c r="G2" t="n">
-        <v>8.997756917700372</v>
+        <v>8.084935724470146</v>
       </c>
       <c r="H2" t="n">
-        <v>9.202194915968111</v>
+        <v>8.469557171990298</v>
       </c>
       <c r="I2" t="n">
-        <v>9.086575201035036</v>
+        <v>7.978019785388465</v>
       </c>
       <c r="J2" t="n">
-        <v>9.279277245836203</v>
+        <v>8.405115485773038</v>
       </c>
       <c r="K2" t="n">
-        <v>9.229976953598328</v>
+        <v>7.758380245286556</v>
       </c>
       <c r="L2" t="n">
-        <v>9.126140710485789</v>
+        <v>8.292192355103131</v>
       </c>
       <c r="M2" t="n">
-        <v>9.081355741837102</v>
+        <v>8.041594476224018</v>
       </c>
       <c r="N2" t="n">
-        <v>9.46631920670268</v>
+        <v>8.299946318713467</v>
       </c>
       <c r="O2" t="n">
-        <v>9.451990263057288</v>
+        <v>7.782952925204074</v>
       </c>
       <c r="P2" t="n">
-        <v>9.692202022121954</v>
+        <v>8.29605939592931</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.663126189308802</v>
+        <v>7.723488829179898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.168408286336961</v>
+        <v>8.075572742403672</v>
       </c>
       <c r="B3" t="n">
-        <v>9.173058605249913</v>
+        <v>8.110562148160351</v>
       </c>
       <c r="C3" t="n">
-        <v>9.13797386058547</v>
+        <v>8.087239901385489</v>
       </c>
       <c r="D3" t="n">
-        <v>9.119423343175393</v>
+        <v>8.225215719244032</v>
       </c>
       <c r="E3" t="n">
-        <v>9.03796392492964</v>
+        <v>8.145081487624902</v>
       </c>
       <c r="F3" t="n">
-        <v>9.072517327999758</v>
+        <v>8.380750856344333</v>
       </c>
       <c r="G3" t="n">
-        <v>8.983593748312558</v>
+        <v>8.067491436556672</v>
       </c>
       <c r="H3" t="n">
-        <v>9.206834435255162</v>
+        <v>8.464530586972206</v>
       </c>
       <c r="I3" t="n">
-        <v>9.078924746046797</v>
+        <v>7.956010457909895</v>
       </c>
       <c r="J3" t="n">
-        <v>9.275389380511859</v>
+        <v>8.396103988320769</v>
       </c>
       <c r="K3" t="n">
-        <v>9.218884657835453</v>
+        <v>7.744912348968127</v>
       </c>
       <c r="L3" t="n">
-        <v>9.128241237723525</v>
+        <v>8.278426939485</v>
       </c>
       <c r="M3" t="n">
-        <v>9.077070450279603</v>
+        <v>8.030165190667978</v>
       </c>
       <c r="N3" t="n">
-        <v>9.472116445886314</v>
+        <v>8.303003169752158</v>
       </c>
       <c r="O3" t="n">
-        <v>9.445068782817364</v>
+        <v>7.758902856753333</v>
       </c>
       <c r="P3" t="n">
-        <v>9.685051589812929</v>
+        <v>8.301406932554718</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.672342590052681</v>
+        <v>7.668609654678793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.162256819423774</v>
+        <v>8.055612676736406</v>
       </c>
       <c r="B4" t="n">
-        <v>9.1702031841617</v>
+        <v>8.089877811166843</v>
       </c>
       <c r="C4" t="n">
-        <v>9.128594385490487</v>
+        <v>8.065321462857662</v>
       </c>
       <c r="D4" t="n">
-        <v>9.126319984275744</v>
+        <v>8.207505155107675</v>
       </c>
       <c r="E4" t="n">
-        <v>9.027040643312116</v>
+        <v>8.126977544748607</v>
       </c>
       <c r="F4" t="n">
-        <v>9.071110136744863</v>
+        <v>8.361254466339846</v>
       </c>
       <c r="G4" t="n">
-        <v>8.985359487147365</v>
+        <v>8.04626531620834</v>
       </c>
       <c r="H4" t="n">
-        <v>9.199208819406495</v>
+        <v>8.441701838797085</v>
       </c>
       <c r="I4" t="n">
-        <v>9.090089399303208</v>
+        <v>7.930959900931044</v>
       </c>
       <c r="J4" t="n">
-        <v>9.258075420267442</v>
+        <v>8.369144053306369</v>
       </c>
       <c r="K4" t="n">
-        <v>9.212358443903502</v>
+        <v>7.718689466538665</v>
       </c>
       <c r="L4" t="n">
-        <v>9.127808172724897</v>
+        <v>8.266885462880385</v>
       </c>
       <c r="M4" t="n">
-        <v>9.078421483479811</v>
+        <v>8.014844721908213</v>
       </c>
       <c r="N4" t="n">
-        <v>9.470978165316353</v>
+        <v>8.279190974727191</v>
       </c>
       <c r="O4" t="n">
-        <v>9.441428228926149</v>
+        <v>7.749529933707872</v>
       </c>
       <c r="P4" t="n">
-        <v>9.683444605478867</v>
+        <v>8.297747942217349</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.667875864780044</v>
+        <v>7.606436641880492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.164787171772369</v>
+        <v>8.040310669794762</v>
       </c>
       <c r="B5" t="n">
-        <v>9.16929385566084</v>
+        <v>8.076605184078527</v>
       </c>
       <c r="C5" t="n">
-        <v>9.134736132740361</v>
+        <v>8.04924263941513</v>
       </c>
       <c r="D5" t="n">
-        <v>9.111649772451882</v>
+        <v>8.191098989428479</v>
       </c>
       <c r="E5" t="n">
-        <v>9.038136718944056</v>
+        <v>8.107123279500565</v>
       </c>
       <c r="F5" t="n">
-        <v>9.059318025223606</v>
+        <v>8.340729895080068</v>
       </c>
       <c r="G5" t="n">
-        <v>8.993458666591788</v>
+        <v>8.026230693198666</v>
       </c>
       <c r="H5" t="n">
-        <v>9.188634905686866</v>
+        <v>8.422676935224581</v>
       </c>
       <c r="I5" t="n">
-        <v>9.096768967922952</v>
+        <v>7.905241878220167</v>
       </c>
       <c r="J5" t="n">
-        <v>9.257184451130613</v>
+        <v>8.333177591329195</v>
       </c>
       <c r="K5" t="n">
-        <v>9.214768920404596</v>
+        <v>7.681415765824618</v>
       </c>
       <c r="L5" t="n">
-        <v>9.118124148179508</v>
+        <v>8.254488352012906</v>
       </c>
       <c r="M5" t="n">
-        <v>9.080677525330522</v>
+        <v>8.001171615380683</v>
       </c>
       <c r="N5" t="n">
-        <v>9.460640763403955</v>
+        <v>8.281213253881242</v>
       </c>
       <c r="O5" t="n">
-        <v>9.438645165331472</v>
+        <v>7.724646243162026</v>
       </c>
       <c r="P5" t="n">
-        <v>9.682861425680214</v>
+        <v>8.31397161992513</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.662446892839633</v>
+        <v>7.535406926874159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.165523706258815</v>
+        <v>7.987808099341623</v>
       </c>
       <c r="B6" t="n">
-        <v>9.1708684411172</v>
+        <v>8.019727162730986</v>
       </c>
       <c r="C6" t="n">
-        <v>9.136327997598164</v>
+        <v>8.000233613006209</v>
       </c>
       <c r="D6" t="n">
-        <v>9.115262247315753</v>
+        <v>8.126923579434102</v>
       </c>
       <c r="E6" t="n">
-        <v>9.041329628341675</v>
+        <v>8.054425439817313</v>
       </c>
       <c r="F6" t="n">
-        <v>9.066521375699546</v>
+        <v>8.281576809684218</v>
       </c>
       <c r="G6" t="n">
-        <v>8.991511494041847</v>
+        <v>7.987393418503855</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199753120551904</v>
+        <v>8.379264679985685</v>
       </c>
       <c r="I6" t="n">
-        <v>9.091766581205627</v>
+        <v>7.879509654110737</v>
       </c>
       <c r="J6" t="n">
-        <v>9.270922655239222</v>
+        <v>8.293487522651231</v>
       </c>
       <c r="K6" t="n">
-        <v>9.220587758840034</v>
+        <v>7.625314560977965</v>
       </c>
       <c r="L6" t="n">
-        <v>9.123253970482462</v>
+        <v>8.224870625259175</v>
       </c>
       <c r="M6" t="n">
-        <v>9.080924836763655</v>
+        <v>7.980995688455399</v>
       </c>
       <c r="N6" t="n">
-        <v>9.46441199276857</v>
+        <v>8.259667602065452</v>
       </c>
       <c r="O6" t="n">
-        <v>9.439266143820777</v>
+        <v>7.670135594953391</v>
       </c>
       <c r="P6" t="n">
-        <v>9.683251292175239</v>
+        <v>8.321281789830662</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.65905149045637</v>
+        <v>7.481242792790234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.169737720285369</v>
+        <v>7.952573009389964</v>
       </c>
       <c r="B7" t="n">
-        <v>9.174610511491881</v>
+        <v>7.987207380182801</v>
       </c>
       <c r="C7" t="n">
-        <v>9.139914553359871</v>
+        <v>7.962669493691739</v>
       </c>
       <c r="D7" t="n">
-        <v>9.11984020873517</v>
+        <v>8.097807872119246</v>
       </c>
       <c r="E7" t="n">
-        <v>9.043743884711834</v>
+        <v>8.0107973233204</v>
       </c>
       <c r="F7" t="n">
-        <v>9.075448346469278</v>
+        <v>8.241450758070656</v>
       </c>
       <c r="G7" t="n">
-        <v>8.992236148939801</v>
+        <v>7.939590090832145</v>
       </c>
       <c r="H7" t="n">
-        <v>9.212467520125102</v>
+        <v>8.328812081413778</v>
       </c>
       <c r="I7" t="n">
-        <v>9.07907594080941</v>
+        <v>7.819856679485795</v>
       </c>
       <c r="J7" t="n">
-        <v>9.278860380276427</v>
+        <v>8.240364351081295</v>
       </c>
       <c r="K7" t="n">
-        <v>9.216505500249472</v>
+        <v>7.573316140173485</v>
       </c>
       <c r="L7" t="n">
-        <v>9.12581024193322</v>
+        <v>8.197087719198587</v>
       </c>
       <c r="M7" t="n">
-        <v>9.079905352078605</v>
+        <v>7.94674901584308</v>
       </c>
       <c r="N7" t="n">
-        <v>9.455840329690979</v>
+        <v>8.241790171496088</v>
       </c>
       <c r="O7" t="n">
-        <v>9.432363022944886</v>
+        <v>7.635105005140907</v>
       </c>
       <c r="P7" t="n">
-        <v>9.679972525751708</v>
+        <v>8.322984537517256</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.641793688266638</v>
+        <v>7.443769562426508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.169837076843658</v>
+        <v>7.903826708854288</v>
       </c>
       <c r="B8" t="n">
-        <v>9.173432272306087</v>
+        <v>7.941478876839791</v>
       </c>
       <c r="C8" t="n">
-        <v>9.140714805639133</v>
+        <v>7.917971301813803</v>
       </c>
       <c r="D8" t="n">
-        <v>9.115427481592038</v>
+        <v>8.061320218815149</v>
       </c>
       <c r="E8" t="n">
-        <v>9.045317930186899</v>
+        <v>7.968484966399491</v>
       </c>
       <c r="F8" t="n">
-        <v>9.075642739735496</v>
+        <v>8.19763589318276</v>
       </c>
       <c r="G8" t="n">
-        <v>8.992357644731186</v>
+        <v>7.88978436596436</v>
       </c>
       <c r="H8" t="n">
-        <v>9.215655569691066</v>
+        <v>8.273452189571628</v>
       </c>
       <c r="I8" t="n">
-        <v>9.075405147965675</v>
+        <v>7.756011452007794</v>
       </c>
       <c r="J8" t="n">
-        <v>9.281566766527208</v>
+        <v>8.185397127909157</v>
       </c>
       <c r="K8" t="n">
-        <v>9.215069150004643</v>
+        <v>7.517468430291015</v>
       </c>
       <c r="L8" t="n">
-        <v>9.12818291974366</v>
+        <v>8.150049136838996</v>
       </c>
       <c r="M8" t="n">
-        <v>9.082380626335103</v>
+        <v>7.894477928186368</v>
       </c>
       <c r="N8" t="n">
-        <v>9.457554230321461</v>
+        <v>8.210051465868359</v>
       </c>
       <c r="O8" t="n">
-        <v>9.433859851094757</v>
+        <v>7.59979890819648</v>
       </c>
       <c r="P8" t="n">
-        <v>9.683310690117695</v>
+        <v>8.32779242099762</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.640039829020322</v>
+        <v>7.418737467265776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.169695601744355</v>
+        <v>7.835181408665125</v>
       </c>
       <c r="B9" t="n">
-        <v>9.173470070996741</v>
+        <v>7.871552610501082</v>
       </c>
       <c r="C9" t="n">
-        <v>9.140076547748386</v>
+        <v>7.847353427365527</v>
       </c>
       <c r="D9" t="n">
-        <v>9.115734190967625</v>
+        <v>7.989907066047865</v>
       </c>
       <c r="E9" t="n">
-        <v>9.044551696729226</v>
+        <v>7.897975732650151</v>
       </c>
       <c r="F9" t="n">
-        <v>9.076115763349957</v>
+        <v>8.131003641238589</v>
       </c>
       <c r="G9" t="n">
-        <v>8.99177068506347</v>
+        <v>7.829613040292208</v>
       </c>
       <c r="H9" t="n">
-        <v>9.218721583484347</v>
+        <v>8.208019955805248</v>
       </c>
       <c r="I9" t="n">
-        <v>9.079378330334638</v>
+        <v>7.702199512608002</v>
       </c>
       <c r="J9" t="n">
-        <v>9.28847204732828</v>
+        <v>8.12256943063753</v>
       </c>
       <c r="K9" t="n">
-        <v>9.223312504454846</v>
+        <v>7.466348365987082</v>
       </c>
       <c r="L9" t="n">
-        <v>9.125740044364862</v>
+        <v>8.09678466135345</v>
       </c>
       <c r="M9" t="n">
-        <v>9.079291933327429</v>
+        <v>7.842642823465255</v>
       </c>
       <c r="N9" t="n">
-        <v>9.455709654217578</v>
+        <v>8.187922846641937</v>
       </c>
       <c r="O9" t="n">
-        <v>9.433950567952326</v>
+        <v>7.547229591170138</v>
       </c>
       <c r="P9" t="n">
-        <v>9.683009380555058</v>
+        <v>8.331065843364254</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.635183237252662</v>
+        <v>7.390046381767677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.171552057436731</v>
+        <v>7.777974624941065</v>
       </c>
       <c r="B10" t="n">
-        <v>9.174230364660168</v>
+        <v>7.815302290969615</v>
       </c>
       <c r="C10" t="n">
-        <v>9.143267837202119</v>
+        <v>7.788286260430927</v>
       </c>
       <c r="D10" t="n">
-        <v>9.111066592653231</v>
+        <v>7.927709910872022</v>
       </c>
       <c r="E10" t="n">
-        <v>9.047628510148408</v>
+        <v>7.8310182686791</v>
       </c>
       <c r="F10" t="n">
-        <v>9.067311908315496</v>
+        <v>8.060406358818216</v>
       </c>
       <c r="G10" t="n">
-        <v>8.995937720717354</v>
+        <v>7.767983230988587</v>
       </c>
       <c r="H10" t="n">
-        <v>9.211772024217082</v>
+        <v>8.148386863138281</v>
       </c>
       <c r="I10" t="n">
-        <v>9.084266241017412</v>
+        <v>7.637225984014906</v>
       </c>
       <c r="J10" t="n">
-        <v>9.285714902835766</v>
+        <v>8.091283749623663</v>
       </c>
       <c r="K10" t="n">
-        <v>9.226455195592024</v>
+        <v>7.403010128437448</v>
       </c>
       <c r="L10" t="n">
-        <v>9.117578767071508</v>
+        <v>8.026671646623759</v>
       </c>
       <c r="M10" t="n">
-        <v>9.080445333373651</v>
+        <v>7.777728230676157</v>
       </c>
       <c r="N10" t="n">
-        <v>9.446326939234824</v>
+        <v>8.1464817455223</v>
       </c>
       <c r="O10" t="n">
-        <v>9.433817732553745</v>
+        <v>7.50055243440374</v>
       </c>
       <c r="P10" t="n">
-        <v>9.691207376576475</v>
+        <v>8.337008418589063</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.633799805174748</v>
+        <v>7.363572134583814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.173319956196718</v>
+        <v>7.771144462306648</v>
       </c>
       <c r="B11" t="n">
-        <v>9.176253134591418</v>
+        <v>7.810713109026977</v>
       </c>
       <c r="C11" t="n">
-        <v>9.144363999231066</v>
+        <v>7.767389612529042</v>
       </c>
       <c r="D11" t="n">
-        <v>9.115952343410823</v>
+        <v>7.91620748811343</v>
       </c>
       <c r="E11" t="n">
-        <v>9.048472500912569</v>
+        <v>7.774466879498293</v>
       </c>
       <c r="F11" t="n">
-        <v>9.07039520151022</v>
+        <v>8.027811308857697</v>
       </c>
       <c r="G11" t="n">
-        <v>8.9980809064774</v>
+        <v>7.728263339373662</v>
       </c>
       <c r="H11" t="n">
-        <v>9.213505364174186</v>
+        <v>8.117084850516079</v>
       </c>
       <c r="I11" t="n">
-        <v>9.085348363532686</v>
+        <v>7.598240304705207</v>
       </c>
       <c r="J11" t="n">
-        <v>9.289447253547138</v>
+        <v>8.034035071773868</v>
       </c>
       <c r="K11" t="n">
-        <v>9.227731711373519</v>
+        <v>7.366549457790604</v>
       </c>
       <c r="L11" t="n">
-        <v>9.119039956455909</v>
+        <v>7.979217673356472</v>
       </c>
       <c r="M11" t="n">
-        <v>9.080700204544915</v>
+        <v>7.729450576292753</v>
       </c>
       <c r="N11" t="n">
-        <v>9.446070988100972</v>
+        <v>8.151180988303729</v>
       </c>
       <c r="O11" t="n">
-        <v>9.432699971272996</v>
+        <v>7.424006896199137</v>
       </c>
       <c r="P11" t="n">
-        <v>9.682719950580912</v>
+        <v>8.316255914882497</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.633793325399209</v>
+        <v>7.347060168485393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.173555388041358</v>
+        <v>7.685309789308051</v>
       </c>
       <c r="B12" t="n">
-        <v>9.177664645696673</v>
+        <v>7.727718715739126</v>
       </c>
       <c r="C12" t="n">
-        <v>9.14406484959361</v>
+        <v>7.697505950385994</v>
       </c>
       <c r="D12" t="n">
-        <v>9.125402016074164</v>
+        <v>7.843622009895535</v>
       </c>
       <c r="E12" t="n">
-        <v>9.047560472505232</v>
+        <v>7.742829713870222</v>
       </c>
       <c r="F12" t="n">
-        <v>9.087483449573307</v>
+        <v>7.971165480376508</v>
       </c>
       <c r="G12" t="n">
-        <v>8.989933668697716</v>
+        <v>7.669520674396015</v>
       </c>
       <c r="H12" t="n">
-        <v>9.222617008546823</v>
+        <v>8.061273354199921</v>
       </c>
       <c r="I12" t="n">
-        <v>9.078797310461166</v>
+        <v>7.540300728815774</v>
       </c>
       <c r="J12" t="n">
-        <v>9.288494726542673</v>
+        <v>7.992615272752061</v>
       </c>
       <c r="K12" t="n">
-        <v>9.229385134098955</v>
+        <v>7.309559245394486</v>
       </c>
       <c r="L12" t="n">
-        <v>9.133710168279771</v>
+        <v>7.906271479615312</v>
       </c>
       <c r="M12" t="n">
-        <v>9.077880422222174</v>
+        <v>7.646092627201927</v>
       </c>
       <c r="N12" t="n">
-        <v>9.452697638553801</v>
+        <v>8.071557296962604</v>
       </c>
       <c r="O12" t="n">
-        <v>9.425930765758274</v>
+        <v>7.381125063196223</v>
       </c>
       <c r="P12" t="n">
-        <v>9.681530911769217</v>
+        <v>8.290258124620113</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.642113357193306</v>
+        <v>7.343042592834542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.16940401184503</v>
+        <v>7.632774555638239</v>
       </c>
       <c r="B13" t="n">
-        <v>9.17379513973636</v>
+        <v>7.671120461943092</v>
       </c>
       <c r="C13" t="n">
-        <v>9.14022882247359</v>
+        <v>7.64839041348792</v>
       </c>
       <c r="D13" t="n">
-        <v>9.121583268355584</v>
+        <v>7.785643380160078</v>
       </c>
       <c r="E13" t="n">
-        <v>9.045064138978226</v>
+        <v>7.697345474582337</v>
       </c>
       <c r="F13" t="n">
-        <v>9.075388948526824</v>
+        <v>7.9256421872426</v>
       </c>
       <c r="G13" t="n">
-        <v>8.994581287704193</v>
+        <v>7.610755287180681</v>
       </c>
       <c r="H13" t="n">
-        <v>9.209066717928891</v>
+        <v>8.025018603832105</v>
       </c>
       <c r="I13" t="n">
-        <v>9.086624879314181</v>
+        <v>7.474739972392481</v>
       </c>
       <c r="J13" t="n">
-        <v>9.276517941418509</v>
+        <v>7.952176790370316</v>
       </c>
       <c r="K13" t="n">
-        <v>9.228785754861452</v>
+        <v>7.239556291503587</v>
       </c>
       <c r="L13" t="n">
-        <v>9.12616446966277</v>
+        <v>7.87048821567948</v>
       </c>
       <c r="M13" t="n">
-        <v>9.081460498208342</v>
+        <v>7.607601866631826</v>
       </c>
       <c r="N13" t="n">
-        <v>9.449989092377841</v>
+        <v>8.008449832139469</v>
       </c>
       <c r="O13" t="n">
-        <v>9.429073456895454</v>
+        <v>7.32870699106448</v>
       </c>
       <c r="P13" t="n">
-        <v>9.689653310409327</v>
+        <v>8.216920682348798</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.645482840474406</v>
+        <v>7.33894903970143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.179620457947337</v>
+        <v>7.578824862672476</v>
       </c>
       <c r="B14" t="n">
-        <v>9.181269560822413</v>
+        <v>7.615367191361005</v>
       </c>
       <c r="C14" t="n">
-        <v>9.151733663945882</v>
+        <v>7.589335317742091</v>
       </c>
       <c r="D14" t="n">
-        <v>9.116413487436795</v>
+        <v>7.734901073057674</v>
       </c>
       <c r="E14" t="n">
-        <v>9.052419764179369</v>
+        <v>7.635222876748903</v>
       </c>
       <c r="F14" t="n">
-        <v>9.076879296901156</v>
+        <v>7.878889052993939</v>
       </c>
       <c r="G14" t="n">
-        <v>8.990103762805656</v>
+        <v>7.571340015564733</v>
       </c>
       <c r="H14" t="n">
-        <v>9.206925152112731</v>
+        <v>7.992652906458228</v>
       </c>
       <c r="I14" t="n">
-        <v>9.084861300404555</v>
+        <v>7.45396474644823</v>
       </c>
       <c r="J14" t="n">
-        <v>9.263040008294112</v>
+        <v>7.915809848953925</v>
       </c>
       <c r="K14" t="n">
-        <v>9.21436069454554</v>
+        <v>7.218247092973716</v>
       </c>
       <c r="L14" t="n">
-        <v>9.132987673306996</v>
+        <v>7.819860939905362</v>
       </c>
       <c r="M14" t="n">
-        <v>9.083490827877723</v>
+        <v>7.564552457125978</v>
       </c>
       <c r="N14" t="n">
-        <v>9.451049615641315</v>
+        <v>7.957944688392913</v>
       </c>
       <c r="O14" t="n">
-        <v>9.430873754533144</v>
+        <v>7.286381142814944</v>
       </c>
       <c r="P14" t="n">
-        <v>9.68608079416129</v>
+        <v>8.135878981362085</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.644299201475661</v>
+        <v>7.318268963127489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.176104099753985</v>
+        <v>7.551737115071092</v>
       </c>
       <c r="B15" t="n">
-        <v>9.172487305039754</v>
+        <v>7.590550957458291</v>
       </c>
       <c r="C15" t="n">
-        <v>9.147517489994147</v>
+        <v>7.564068899505223</v>
       </c>
       <c r="D15" t="n">
-        <v>9.136842059791048</v>
+        <v>7.706680053851703</v>
       </c>
       <c r="E15" t="n">
-        <v>9.054101805913444</v>
+        <v>7.612867035145621</v>
       </c>
       <c r="F15" t="n">
-        <v>9.115656433661139</v>
+        <v>7.841722572838973</v>
       </c>
       <c r="G15" t="n">
-        <v>9.018446301020132</v>
+        <v>7.540289367696931</v>
       </c>
       <c r="H15" t="n">
-        <v>9.232747057641923</v>
+        <v>7.951914774566999</v>
       </c>
       <c r="I15" t="n">
-        <v>9.101113657422907</v>
+        <v>7.42767369730571</v>
       </c>
       <c r="J15" t="n">
-        <v>9.268664453463332</v>
+        <v>7.89147859281182</v>
       </c>
       <c r="K15" t="n">
-        <v>9.240869456282034</v>
+        <v>7.193342100330041</v>
       </c>
       <c r="L15" t="n">
-        <v>9.172615820587975</v>
+        <v>7.771792756150626</v>
       </c>
       <c r="M15" t="n">
-        <v>9.123198892390368</v>
+        <v>7.521159373775129</v>
       </c>
       <c r="N15" t="n">
-        <v>9.433464584786783</v>
+        <v>7.896897846499924</v>
       </c>
       <c r="O15" t="n">
-        <v>9.422254573101588</v>
+        <v>7.249480938882861</v>
       </c>
       <c r="P15" t="n">
-        <v>9.633857043192023</v>
+        <v>8.043856759013627</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.633215545413506</v>
+        <v>7.280859639057255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.177095505411692</v>
+        <v>7.498272399865939</v>
       </c>
       <c r="B16" t="n">
-        <v>9.17831910302627</v>
+        <v>7.530561409687626</v>
       </c>
       <c r="C16" t="n">
-        <v>9.148614731985685</v>
+        <v>7.509051971438147</v>
       </c>
       <c r="D16" t="n">
-        <v>9.115307605744537</v>
+        <v>7.635648918705514</v>
       </c>
       <c r="E16" t="n">
-        <v>9.050907276571939</v>
+        <v>7.566056385232818</v>
       </c>
       <c r="F16" t="n">
-        <v>9.07940856928716</v>
+        <v>7.798480734382722</v>
       </c>
       <c r="G16" t="n">
-        <v>8.996298968203741</v>
+        <v>7.500812319997273</v>
       </c>
       <c r="H16" t="n">
-        <v>9.211791463543703</v>
+        <v>7.919005163628514</v>
       </c>
       <c r="I16" t="n">
-        <v>9.089555897783701</v>
+        <v>7.377312697754475</v>
       </c>
       <c r="J16" t="n">
-        <v>9.268729251218737</v>
+        <v>7.87915887956646</v>
       </c>
       <c r="K16" t="n">
-        <v>9.215775445538567</v>
+        <v>7.135795193110617</v>
       </c>
       <c r="L16" t="n">
-        <v>9.132817039217761</v>
+        <v>7.732104817682445</v>
       </c>
       <c r="M16" t="n">
-        <v>9.086804153104136</v>
+        <v>7.486777077806622</v>
       </c>
       <c r="N16" t="n">
-        <v>9.446237302339847</v>
+        <v>7.85100176665398</v>
       </c>
       <c r="O16" t="n">
-        <v>9.43455966685314</v>
+        <v>7.213020978305943</v>
       </c>
       <c r="P16" t="n">
-        <v>9.692999034513445</v>
+        <v>7.958356528950971</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.638078616956708</v>
+        <v>7.221206664432313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.174857822925015</v>
+        <v>7.479692000068167</v>
       </c>
       <c r="B17" t="n">
-        <v>9.175756351799974</v>
+        <v>7.509798254932146</v>
       </c>
       <c r="C17" t="n">
-        <v>9.147638445804237</v>
+        <v>7.488719829128772</v>
       </c>
       <c r="D17" t="n">
-        <v>9.110658366794175</v>
+        <v>7.607078545095121</v>
       </c>
       <c r="E17" t="n">
-        <v>9.052209171474301</v>
+        <v>7.533092808979828</v>
       </c>
       <c r="F17" t="n">
-        <v>9.075925689934101</v>
+        <v>7.754408114111078</v>
       </c>
       <c r="G17" t="n">
-        <v>8.993921970542941</v>
+        <v>7.457635807974369</v>
       </c>
       <c r="H17" t="n">
-        <v>9.210721220616918</v>
+        <v>7.878409045722822</v>
       </c>
       <c r="I17" t="n">
-        <v>9.094212696472194</v>
+        <v>7.323080396957493</v>
       </c>
       <c r="J17" t="n">
-        <v>9.270754181075167</v>
+        <v>7.854036605524912</v>
       </c>
       <c r="K17" t="n">
-        <v>9.221516526667516</v>
+        <v>7.067156993620732</v>
       </c>
       <c r="L17" t="n">
-        <v>9.129013410975444</v>
+        <v>7.688759309016752</v>
       </c>
       <c r="M17" t="n">
-        <v>9.082754293391277</v>
+        <v>7.449222189401212</v>
       </c>
       <c r="N17" t="n">
-        <v>9.45032388078077</v>
+        <v>7.769758405807804</v>
       </c>
       <c r="O17" t="n">
-        <v>9.435048889906454</v>
+        <v>7.147596555308767</v>
       </c>
       <c r="P17" t="n">
-        <v>9.691204136688706</v>
+        <v>7.875614210487448</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.643315355556084</v>
+        <v>7.098654275473049</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.171678413059771</v>
+        <v>7.450895824220769</v>
       </c>
       <c r="B18" t="n">
-        <v>9.172720576959215</v>
+        <v>7.481840671669346</v>
       </c>
       <c r="C18" t="n">
-        <v>9.144644789504492</v>
+        <v>7.449598526462886</v>
       </c>
       <c r="D18" t="n">
-        <v>9.106371995274083</v>
+        <v>7.573008679894796</v>
       </c>
       <c r="E18" t="n">
-        <v>9.050818179658256</v>
+        <v>7.484041888445174</v>
       </c>
       <c r="F18" t="n">
-        <v>9.063011497281733</v>
+        <v>7.703883088406546</v>
       </c>
       <c r="G18" t="n">
-        <v>9.001834316459277</v>
+        <v>7.413850766023438</v>
       </c>
       <c r="H18" t="n">
-        <v>9.195617943794426</v>
+        <v>7.805673742750186</v>
       </c>
       <c r="I18" t="n">
-        <v>9.101321010240206</v>
+        <v>7.270726941189168</v>
       </c>
       <c r="J18" t="n">
-        <v>9.261140354098133</v>
+        <v>7.825937718346503</v>
       </c>
       <c r="K18" t="n">
-        <v>9.217720458163329</v>
+        <v>7.035948710228983</v>
       </c>
       <c r="L18" t="n">
-        <v>9.115115372403499</v>
+        <v>7.646540681326297</v>
       </c>
       <c r="M18" t="n">
-        <v>9.083407670758286</v>
+        <v>7.410130709672289</v>
       </c>
       <c r="N18" t="n">
-        <v>9.443600033694834</v>
+        <v>7.751649492442016</v>
       </c>
       <c r="O18" t="n">
-        <v>9.438178621492552</v>
+        <v>7.094632439402632</v>
       </c>
       <c r="P18" t="n">
-        <v>9.70116679158234</v>
+        <v>7.86903044211794</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.639045183474844</v>
+        <v>7.023002005237476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.171972162884277</v>
+        <v>7.391087344281665</v>
       </c>
       <c r="B19" t="n">
-        <v>9.172481905226803</v>
+        <v>7.420898210055726</v>
       </c>
       <c r="C19" t="n">
-        <v>9.146633000632859</v>
+        <v>7.396532870557093</v>
       </c>
       <c r="D19" t="n">
-        <v>9.102588886320978</v>
+        <v>7.524754457819006</v>
       </c>
       <c r="E19" t="n">
-        <v>9.054089926324952</v>
+        <v>7.45432688211135</v>
       </c>
       <c r="F19" t="n">
-        <v>9.060899090455507</v>
+        <v>7.670435244462874</v>
       </c>
       <c r="G19" t="n">
-        <v>8.999718129763984</v>
+        <v>7.373361868676827</v>
       </c>
       <c r="H19" t="n">
-        <v>9.196468954315423</v>
+        <v>7.764057254358409</v>
       </c>
       <c r="I19" t="n">
-        <v>9.096697690392006</v>
+        <v>7.221045478558729</v>
       </c>
       <c r="J19" t="n">
-        <v>9.266391132211179</v>
+        <v>7.80495444191344</v>
       </c>
       <c r="K19" t="n">
-        <v>9.217355430807876</v>
+        <v>6.992640835269457</v>
       </c>
       <c r="L19" t="n">
-        <v>9.115498759122984</v>
+        <v>7.598317702327325</v>
       </c>
       <c r="M19" t="n">
-        <v>9.083846135569864</v>
+        <v>7.358135839217447</v>
       </c>
       <c r="N19" t="n">
-        <v>9.442275999559376</v>
+        <v>7.700863161004095</v>
       </c>
       <c r="O19" t="n">
-        <v>9.433347948827052</v>
+        <v>7.06836979305722</v>
       </c>
       <c r="P19" t="n">
-        <v>9.701571777553626</v>
+        <v>7.852747828606161</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.639414530680657</v>
+        <v>7.020828481188827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.172524023767817</v>
+        <v>7.32748851106857</v>
       </c>
       <c r="B20" t="n">
-        <v>9.173409593091696</v>
+        <v>7.353866898812195</v>
       </c>
       <c r="C20" t="n">
-        <v>9.147048786230044</v>
+        <v>7.337502627258733</v>
       </c>
       <c r="D20" t="n">
-        <v>9.102367493990009</v>
+        <v>7.463695544737246</v>
       </c>
       <c r="E20" t="n">
-        <v>9.053454908321976</v>
+        <v>7.411234158339913</v>
       </c>
       <c r="F20" t="n">
-        <v>9.053804816201167</v>
+        <v>7.632403899135987</v>
       </c>
       <c r="G20" t="n">
-        <v>9.000855870352652</v>
+        <v>7.336638472156738</v>
       </c>
       <c r="H20" t="n">
-        <v>9.187013881839134</v>
+        <v>7.739233919756417</v>
       </c>
       <c r="I20" t="n">
-        <v>9.099945137900423</v>
+        <v>7.19557669039247</v>
       </c>
       <c r="J20" t="n">
-        <v>9.263299199315735</v>
+        <v>7.79552897369333</v>
       </c>
       <c r="K20" t="n">
-        <v>9.219061771700229</v>
+        <v>6.958759138599969</v>
       </c>
       <c r="L20" t="n">
-        <v>9.109751198218493</v>
+        <v>7.568617607461983</v>
       </c>
       <c r="M20" t="n">
-        <v>9.08267221623443</v>
+        <v>7.328447105470946</v>
       </c>
       <c r="N20" t="n">
-        <v>9.444819311459051</v>
+        <v>7.661901624071938</v>
       </c>
       <c r="O20" t="n">
-        <v>9.434472189883342</v>
+        <v>7.034725259743579</v>
       </c>
       <c r="P20" t="n">
-        <v>9.708574254987807</v>
+        <v>7.828969716937724</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.651464753260948</v>
+        <v>7.013373457018047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.170846841865398</v>
+        <v>7.311266963570572</v>
       </c>
       <c r="B21" t="n">
-        <v>9.171590936089974</v>
+        <v>7.341096291162754</v>
       </c>
       <c r="C21" t="n">
-        <v>9.144916940077195</v>
+        <v>7.321354927033214</v>
       </c>
       <c r="D21" t="n">
-        <v>9.101675237969756</v>
+        <v>7.452656797641431</v>
       </c>
       <c r="E21" t="n">
-        <v>9.052675715313221</v>
+        <v>7.381714421236203</v>
       </c>
       <c r="F21" t="n">
-        <v>9.050479071404967</v>
+        <v>7.611411391793864</v>
       </c>
       <c r="G21" t="n">
-        <v>9.005814518585076</v>
+        <v>7.314928084117724</v>
       </c>
       <c r="H21" t="n">
-        <v>9.18213137096931</v>
+        <v>7.729848925522186</v>
       </c>
       <c r="I21" t="n">
-        <v>9.101642839092055</v>
+        <v>7.182707383023081</v>
       </c>
       <c r="J21" t="n">
-        <v>9.258557083582625</v>
+        <v>7.784354603241328</v>
       </c>
       <c r="K21" t="n">
-        <v>9.218133003872746</v>
+        <v>6.95797025091031</v>
       </c>
       <c r="L21" t="n">
-        <v>9.106789940796451</v>
+        <v>7.556772220928317</v>
       </c>
       <c r="M21" t="n">
-        <v>9.08560755455431</v>
+        <v>7.315516732087776</v>
       </c>
       <c r="N21" t="n">
-        <v>9.438167821866651</v>
+        <v>7.644084549446429</v>
       </c>
       <c r="O21" t="n">
-        <v>9.432823087008266</v>
+        <v>7.014688506524123</v>
       </c>
       <c r="P21" t="n">
-        <v>9.702815894457416</v>
+        <v>7.771691926220894</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.639506327500815</v>
+        <v>6.984296093479286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.167218167562675</v>
+        <v>7.407094450661501</v>
       </c>
       <c r="B22" t="n">
-        <v>9.167962261787252</v>
+        <v>7.443201506484359</v>
       </c>
       <c r="C22" t="n">
-        <v>9.141337944053618</v>
+        <v>7.389026011281591</v>
       </c>
       <c r="D22" t="n">
-        <v>9.098810097218232</v>
+        <v>7.507588517317186</v>
       </c>
       <c r="E22" t="n">
-        <v>9.05086461804963</v>
+        <v>7.361934003260641</v>
       </c>
       <c r="F22" t="n">
-        <v>9.049350510498316</v>
+        <v>7.60105999238805</v>
       </c>
       <c r="G22" t="n">
-        <v>9.007572157700457</v>
+        <v>7.299344179414788</v>
       </c>
       <c r="H22" t="n">
-        <v>9.183924108868869</v>
+        <v>7.724713699805156</v>
       </c>
       <c r="I22" t="n">
-        <v>9.102742241008771</v>
+        <v>7.169024335516561</v>
       </c>
       <c r="J22" t="n">
-        <v>9.262099360878139</v>
+        <v>7.778057703122603</v>
       </c>
       <c r="K22" t="n">
-        <v>9.215892081498296</v>
+        <v>6.942271314879089</v>
       </c>
       <c r="L22" t="n">
-        <v>9.107882862937627</v>
+        <v>7.540321320843677</v>
       </c>
       <c r="M22" t="n">
-        <v>9.090143397432714</v>
+        <v>7.309362556024517</v>
       </c>
       <c r="N22" t="n">
-        <v>9.434191399609917</v>
+        <v>7.631820221655429</v>
       </c>
       <c r="O22" t="n">
-        <v>9.429673916095547</v>
+        <v>6.985228415294338</v>
       </c>
       <c r="P22" t="n">
-        <v>9.705123774512451</v>
+        <v>7.718433841364698</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.626108311608085</v>
+        <v>6.976380233925437</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.166005369573998</v>
+        <v>7.27660987054005</v>
       </c>
       <c r="B23" t="n">
-        <v>9.168409366299551</v>
+        <v>7.307112344423679</v>
       </c>
       <c r="C23" t="n">
-        <v>9.139088381978448</v>
+        <v>7.282303921290168</v>
       </c>
       <c r="D23" t="n">
-        <v>9.10407383488236</v>
+        <v>7.407574457932617</v>
       </c>
       <c r="E23" t="n">
-        <v>9.04753563336566</v>
+        <v>7.329565465607053</v>
       </c>
       <c r="F23" t="n">
-        <v>9.055515476943878</v>
+        <v>7.576606604218384</v>
       </c>
       <c r="G23" t="n">
-        <v>9.00399964145242</v>
+        <v>7.265196916592346</v>
       </c>
       <c r="H23" t="n">
-        <v>9.189472956656781</v>
+        <v>7.720736598140185</v>
       </c>
       <c r="I23" t="n">
-        <v>9.109404530227073</v>
+        <v>7.145714870000398</v>
       </c>
       <c r="J23" t="n">
-        <v>9.258984748768302</v>
+        <v>7.769399110424395</v>
       </c>
       <c r="K23" t="n">
-        <v>9.216505500249472</v>
+        <v>6.930308056737427</v>
       </c>
       <c r="L23" t="n">
-        <v>9.109648601772435</v>
+        <v>7.523071592090389</v>
       </c>
       <c r="M23" t="n">
-        <v>9.084989815952776</v>
+        <v>7.272536909434841</v>
       </c>
       <c r="N23" t="n">
-        <v>9.431491493134677</v>
+        <v>7.628453070058339</v>
       </c>
       <c r="O23" t="n">
-        <v>9.427481592037651</v>
+        <v>6.96128485733275</v>
       </c>
       <c r="P23" t="n">
-        <v>9.701027476408218</v>
+        <v>7.687967581047381</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.619890966976904</v>
+        <v>6.921231942921739</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.16806701815849</v>
+        <v>7.251934940552946</v>
       </c>
       <c r="B24" t="n">
-        <v>9.169372692929917</v>
+        <v>7.286756059736763</v>
       </c>
       <c r="C24" t="n">
-        <v>9.141907084338598</v>
+        <v>7.258307818153932</v>
       </c>
       <c r="D24" t="n">
-        <v>9.101979787420163</v>
+        <v>7.39722731894637</v>
       </c>
       <c r="E24" t="n">
-        <v>9.051771786625311</v>
+        <v>7.306667840648947</v>
       </c>
       <c r="F24" t="n">
-        <v>9.055152609513607</v>
+        <v>7.566211890546981</v>
       </c>
       <c r="G24" t="n">
-        <v>9.005107683069859</v>
+        <v>7.243175517925005</v>
       </c>
       <c r="H24" t="n">
-        <v>9.189785065845319</v>
+        <v>7.719797885695783</v>
       </c>
       <c r="I24" t="n">
-        <v>9.101601800513631</v>
+        <v>7.117627343940831</v>
       </c>
       <c r="J24" t="n">
-        <v>9.262638262210597</v>
+        <v>7.765145791557552</v>
       </c>
       <c r="K24" t="n">
-        <v>9.215127467984509</v>
+        <v>6.902490357250382</v>
       </c>
       <c r="L24" t="n">
-        <v>9.107723028474293</v>
+        <v>7.502368793278762</v>
       </c>
       <c r="M24" t="n">
-        <v>9.082991885161098</v>
+        <v>7.244749032884759</v>
       </c>
       <c r="N24" t="n">
-        <v>9.436694752893759</v>
+        <v>7.5981657473628</v>
       </c>
       <c r="O24" t="n">
-        <v>9.424789245300543</v>
+        <v>6.94385477081783</v>
       </c>
       <c r="P24" t="n">
-        <v>9.701653854710473</v>
+        <v>7.684550724555354</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.635310672838292</v>
+        <v>6.922598827532536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.16693521736407</v>
+        <v>7.245070694562</v>
       </c>
       <c r="B25" t="n">
-        <v>9.168340248693784</v>
+        <v>7.278588835428513</v>
       </c>
       <c r="C25" t="n">
-        <v>9.141153270450712</v>
+        <v>7.256520572145945</v>
       </c>
       <c r="D25" t="n">
-        <v>9.101978707457574</v>
+        <v>7.384578133254563</v>
       </c>
       <c r="E25" t="n">
-        <v>9.051316582393586</v>
+        <v>7.315099921040224</v>
       </c>
       <c r="F25" t="n">
-        <v>9.058221323213363</v>
+        <v>7.564176120064304</v>
       </c>
       <c r="G25" t="n">
-        <v>9.002135626021914</v>
+        <v>7.239404336539063</v>
       </c>
       <c r="H25" t="n">
-        <v>9.195028284220234</v>
+        <v>7.706018978749027</v>
       </c>
       <c r="I25" t="n">
-        <v>9.096788407249573</v>
+        <v>7.101677753225138</v>
       </c>
       <c r="J25" t="n">
-        <v>9.271276882968774</v>
+        <v>7.748845426297581</v>
       </c>
       <c r="K25" t="n">
-        <v>9.220327487855821</v>
+        <v>6.892252569032999</v>
       </c>
       <c r="L25" t="n">
-        <v>9.111419740420192</v>
+        <v>7.473245275194701</v>
       </c>
       <c r="M25" t="n">
-        <v>9.0832316368561</v>
+        <v>7.208026346434597</v>
       </c>
       <c r="N25" t="n">
-        <v>9.435751945552607</v>
+        <v>7.558876158124052</v>
       </c>
       <c r="O25" t="n">
-        <v>9.425782810883431</v>
+        <v>6.899294332505865</v>
       </c>
       <c r="P25" t="n">
-        <v>9.702191676080341</v>
+        <v>7.720160021358903</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.63684529967882</v>
+        <v>6.899370309988128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.161592642430866</v>
+        <v>7.273268281460358</v>
       </c>
       <c r="B26" t="n">
-        <v>9.164837930014105</v>
+        <v>7.303781406392901</v>
       </c>
       <c r="C26" t="n">
-        <v>9.133337581186188</v>
+        <v>7.271804827339396</v>
       </c>
       <c r="D26" t="n">
-        <v>9.108081576054206</v>
+        <v>7.387075449190236</v>
       </c>
       <c r="E26" t="n">
-        <v>9.043630488639874</v>
+        <v>7.301460897869222</v>
       </c>
       <c r="F26" t="n">
-        <v>9.059187889731501</v>
+        <v>7.556192803867325</v>
       </c>
       <c r="G26" t="n">
-        <v>9.001507087794479</v>
+        <v>7.224708019245735</v>
       </c>
       <c r="H26" t="n">
-        <v>9.192209581860084</v>
+        <v>7.687871721607144</v>
       </c>
       <c r="I26" t="n">
-        <v>9.089146591962054</v>
+        <v>7.073373655837627</v>
       </c>
       <c r="J26" t="n">
-        <v>9.273106339596396</v>
+        <v>7.721999812541539</v>
       </c>
       <c r="K26" t="n">
-        <v>9.229533088973797</v>
+        <v>6.850256193229909</v>
       </c>
       <c r="L26" t="n">
-        <v>9.113771898941421</v>
+        <v>7.445465209413823</v>
       </c>
       <c r="M26" t="n">
-        <v>9.08481702193836</v>
+        <v>7.177675117445566</v>
       </c>
       <c r="N26" t="n">
-        <v>9.447930683681117</v>
+        <v>7.51770630371679</v>
       </c>
       <c r="O26" t="n">
-        <v>9.436467960749839</v>
+        <v>6.83713197075648</v>
       </c>
       <c r="P26" t="n">
-        <v>9.703264078932305</v>
+        <v>7.711882736211862</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.647118983798402</v>
+        <v>6.869462164633974</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.160791310189015</v>
+        <v>7.18297152903618</v>
       </c>
       <c r="B27" t="n">
-        <v>9.163951280727636</v>
+        <v>7.218252773533138</v>
       </c>
       <c r="C27" t="n">
-        <v>9.132834318619203</v>
+        <v>7.197507370525849</v>
       </c>
       <c r="D27" t="n">
-        <v>9.105045801213446</v>
+        <v>7.332211186157613</v>
       </c>
       <c r="E27" t="n">
-        <v>9.042956591983653</v>
+        <v>7.26469844750311</v>
       </c>
       <c r="F27" t="n">
-        <v>9.050396994248119</v>
+        <v>7.512827413243656</v>
       </c>
       <c r="G27" t="n">
-        <v>9.003755029925763</v>
+        <v>7.203355506450275</v>
       </c>
       <c r="H27" t="n">
-        <v>9.182712390842781</v>
+        <v>7.647338799925016</v>
       </c>
       <c r="I27" t="n">
-        <v>9.089755690862869</v>
+        <v>7.038138565885968</v>
       </c>
       <c r="J27" t="n">
-        <v>9.26728426127319</v>
+        <v>7.672253023477752</v>
       </c>
       <c r="K27" t="n">
-        <v>9.224496143453591</v>
+        <v>6.802143275069729</v>
       </c>
       <c r="L27" t="n">
-        <v>9.107810505444091</v>
+        <v>7.407055396815478</v>
       </c>
       <c r="M27" t="n">
-        <v>9.086424006272424</v>
+        <v>7.150306182152819</v>
       </c>
       <c r="N27" t="n">
-        <v>9.443724229392695</v>
+        <v>7.477181902873795</v>
       </c>
       <c r="O27" t="n">
-        <v>9.437283332505363</v>
+        <v>6.843242122484222</v>
       </c>
       <c r="P27" t="n">
-        <v>9.707994315076926</v>
+        <v>7.709825663631355</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.64720754073079</v>
+        <v>6.776516141309596</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.162467412128844</v>
+        <v>7.168750958594402</v>
       </c>
       <c r="B28" t="n">
-        <v>9.165310953628566</v>
+        <v>7.199171064366419</v>
       </c>
       <c r="C28" t="n">
-        <v>9.136360396475865</v>
+        <v>7.177416651991888</v>
       </c>
       <c r="D28" t="n">
-        <v>9.099590910170871</v>
+        <v>7.302792278983635</v>
       </c>
       <c r="E28" t="n">
-        <v>9.048107473557115</v>
+        <v>7.229116133356813</v>
       </c>
       <c r="F28" t="n">
-        <v>9.038223115951263</v>
+        <v>7.462014809218412</v>
       </c>
       <c r="G28" t="n">
-        <v>9.006287542199539</v>
+        <v>7.174456370463363</v>
       </c>
       <c r="H28" t="n">
-        <v>9.172656859166398</v>
+        <v>7.604245366083652</v>
       </c>
       <c r="I28" t="n">
-        <v>9.103895641054994</v>
+        <v>6.995569163651236</v>
       </c>
       <c r="J28" t="n">
-        <v>9.263617788279815</v>
+        <v>7.60752091866007</v>
       </c>
       <c r="K28" t="n">
-        <v>9.227822428231086</v>
+        <v>6.727323206789404</v>
       </c>
       <c r="L28" t="n">
-        <v>9.095132824598956</v>
+        <v>7.356848482438551</v>
       </c>
       <c r="M28" t="n">
-        <v>9.083734899423083</v>
+        <v>7.112169746476633</v>
       </c>
       <c r="N28" t="n">
-        <v>9.434902014994201</v>
+        <v>7.445296212771034</v>
       </c>
       <c r="O28" t="n">
-        <v>9.434724901129425</v>
+        <v>6.75191221831526</v>
       </c>
       <c r="P28" t="n">
-        <v>9.702828854008498</v>
+        <v>7.67866211464505</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.630376323764144</v>
+        <v>6.650458137117344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.163403739694457</v>
+        <v>7.154528257942842</v>
       </c>
       <c r="B29" t="n">
-        <v>9.164875728704757</v>
+        <v>7.19242753026318</v>
       </c>
       <c r="C29" t="n">
-        <v>9.138632637765427</v>
+        <v>7.156543436397617</v>
       </c>
       <c r="D29" t="n">
-        <v>9.093545279591515</v>
+        <v>7.288651236373758</v>
       </c>
       <c r="E29" t="n">
-        <v>9.051520695323115</v>
+        <v>7.177457125977766</v>
       </c>
       <c r="F29" t="n">
-        <v>9.028862540201608</v>
+        <v>7.41337430910196</v>
       </c>
       <c r="G29" t="n">
-        <v>9.007492780450086</v>
+        <v>7.118047705338022</v>
       </c>
       <c r="H29" t="n">
-        <v>9.165075521783926</v>
+        <v>7.562165202029096</v>
       </c>
       <c r="I29" t="n">
-        <v>9.100636313958084</v>
+        <v>6.931878021347543</v>
       </c>
       <c r="J29" t="n">
-        <v>9.264050853278443</v>
+        <v>7.54396966013213</v>
       </c>
       <c r="K29" t="n">
-        <v>9.228407767954918</v>
+        <v>6.671418691312721</v>
       </c>
       <c r="L29" t="n">
-        <v>9.087115182330084</v>
+        <v>7.309327762598061</v>
       </c>
       <c r="M29" t="n">
-        <v>9.082200272582558</v>
+        <v>7.054588755900681</v>
       </c>
       <c r="N29" t="n">
-        <v>9.428445998630608</v>
+        <v>7.430918716875238</v>
       </c>
       <c r="O29" t="n">
-        <v>9.426783936204449</v>
+        <v>6.666093166855072</v>
       </c>
       <c r="P29" t="n">
-        <v>9.684994351795654</v>
+        <v>7.677818551570959</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.624057462649494</v>
+        <v>6.508855282068178</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.162159622790666</v>
+        <v>7.058265497986242</v>
       </c>
       <c r="B30" t="n">
-        <v>9.164226671188111</v>
+        <v>7.095150080379915</v>
       </c>
       <c r="C30" t="n">
-        <v>9.136330157523343</v>
+        <v>7.068728378370702</v>
       </c>
       <c r="D30" t="n">
-        <v>9.089930644802465</v>
+        <v>7.193699975573595</v>
       </c>
       <c r="E30" t="n">
-        <v>9.047678728408847</v>
+        <v>7.112669635705724</v>
       </c>
       <c r="F30" t="n">
-        <v>9.025464437911872</v>
+        <v>7.350692176165508</v>
       </c>
       <c r="G30" t="n">
-        <v>9.001550286298082</v>
+        <v>7.058068098546345</v>
       </c>
       <c r="H30" t="n">
-        <v>9.151273599882501</v>
+        <v>7.534310578905811</v>
       </c>
       <c r="I30" t="n">
-        <v>9.094360651347037</v>
+        <v>6.870008918478292</v>
       </c>
       <c r="J30" t="n">
-        <v>9.257302167052933</v>
+        <v>7.486757905918575</v>
       </c>
       <c r="K30" t="n">
-        <v>9.221368571792674</v>
+        <v>6.572469026749754</v>
       </c>
       <c r="L30" t="n">
-        <v>9.092125128785538</v>
+        <v>7.263370616738336</v>
       </c>
       <c r="M30" t="n">
-        <v>9.083676581443219</v>
+        <v>7.004004794392152</v>
       </c>
       <c r="N30" t="n">
-        <v>9.43027653522082</v>
+        <v>7.407747714994973</v>
       </c>
       <c r="O30" t="n">
-        <v>9.428355281773038</v>
+        <v>6.610550787041507</v>
       </c>
       <c r="P30" t="n">
-        <v>9.668453644765746</v>
+        <v>7.696053147313948</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.639180178798606</v>
+        <v>6.354259567482206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.158557947552696</v>
+        <v>6.970695414084379</v>
       </c>
       <c r="B31" t="n">
-        <v>9.163444778272881</v>
+        <v>7.013691568345651</v>
       </c>
       <c r="C31" t="n">
-        <v>9.131717637301044</v>
+        <v>6.987110810672635</v>
       </c>
       <c r="D31" t="n">
-        <v>9.091875657427227</v>
+        <v>7.115589443248371</v>
       </c>
       <c r="E31" t="n">
-        <v>9.042773538324633</v>
+        <v>7.035324558762547</v>
       </c>
       <c r="F31" t="n">
-        <v>9.025698789793921</v>
+        <v>7.269935213219798</v>
       </c>
       <c r="G31" t="n">
-        <v>8.994709803252416</v>
+        <v>6.959677969086395</v>
       </c>
       <c r="H31" t="n">
-        <v>9.137711429676076</v>
+        <v>7.504175211174797</v>
       </c>
       <c r="I31" t="n">
-        <v>9.109218776661576</v>
+        <v>6.707170712171735</v>
       </c>
       <c r="J31" t="n">
-        <v>9.240113482468967</v>
+        <v>7.507287447667847</v>
       </c>
       <c r="K31" t="n">
-        <v>9.229245818924833</v>
+        <v>6.417123478320145</v>
       </c>
       <c r="L31" t="n">
-        <v>9.127285470831291</v>
+        <v>7.204470316236743</v>
       </c>
       <c r="M31" t="n">
-        <v>9.105892491884081</v>
+        <v>6.935093928050034</v>
       </c>
       <c r="N31" t="n">
-        <v>9.476019430686922</v>
+        <v>7.328567107288726</v>
       </c>
       <c r="O31" t="n">
-        <v>9.439510215366139</v>
+        <v>6.561764722589881</v>
       </c>
       <c r="P31" t="n">
-        <v>9.689083090161757</v>
+        <v>7.672945341657247</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.617346575114638</v>
+        <v>6.204373746726578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.158557947552696</v>
+        <v>6.854969637409893</v>
       </c>
       <c r="B32" t="n">
-        <v>9.163444778272881</v>
+        <v>6.901145484807344</v>
       </c>
       <c r="C32" t="n">
-        <v>9.131717637301044</v>
+        <v>6.874664136924205</v>
       </c>
       <c r="D32" t="n">
-        <v>9.091875657427227</v>
+        <v>7.019656155738217</v>
       </c>
       <c r="E32" t="n">
-        <v>9.042773538324633</v>
+        <v>6.926720073392827</v>
       </c>
       <c r="F32" t="n">
-        <v>9.025698789793921</v>
+        <v>7.181927016172553</v>
       </c>
       <c r="G32" t="n">
-        <v>8.994709803252416</v>
+        <v>6.836225211458824</v>
       </c>
       <c r="H32" t="n">
-        <v>9.137711429676076</v>
+        <v>7.445617874448276</v>
       </c>
       <c r="I32" t="n">
-        <v>9.109218776661576</v>
+        <v>6.533849743522742</v>
       </c>
       <c r="J32" t="n">
-        <v>9.240113482468967</v>
+        <v>7.519315322172927</v>
       </c>
       <c r="K32" t="n">
-        <v>9.229245818924833</v>
+        <v>6.246058401831412</v>
       </c>
       <c r="L32" t="n">
-        <v>9.127285470831291</v>
+        <v>7.142937786513216</v>
       </c>
       <c r="M32" t="n">
-        <v>9.105892491884081</v>
+        <v>6.851443430149001</v>
       </c>
       <c r="N32" t="n">
-        <v>9.476019430686922</v>
+        <v>7.324239941149404</v>
       </c>
       <c r="O32" t="n">
-        <v>9.439510215366139</v>
+        <v>6.487591528013679</v>
       </c>
       <c r="P32" t="n">
-        <v>9.689083090161757</v>
+        <v>7.640437630297832</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.617346575114638</v>
+        <v>6.12462863342782</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.96520360534711</v>
+        <v>6.552073688216816</v>
       </c>
       <c r="B33" t="n">
-        <v>10.03507286507595</v>
+        <v>6.598016632677986</v>
       </c>
       <c r="C33" t="n">
-        <v>9.988680912093205</v>
+        <v>6.56749498690631</v>
       </c>
       <c r="D33" t="n">
-        <v>10.22743148177347</v>
+        <v>6.724507779526128</v>
       </c>
       <c r="E33" t="n">
-        <v>10.06268210869175</v>
+        <v>6.616172410659002</v>
       </c>
       <c r="F33" t="n">
-        <v>10.44334732244875</v>
+        <v>6.866503303245303</v>
       </c>
       <c r="G33" t="n">
-        <v>9.91338268042395</v>
+        <v>6.518072699799476</v>
       </c>
       <c r="H33" t="n">
-        <v>10.75817045697537</v>
+        <v>7.073566794857958</v>
       </c>
       <c r="I33" t="n">
-        <v>9.402508537104275</v>
+        <v>6.182254358409216</v>
       </c>
       <c r="J33" t="n">
-        <v>10.94159994297797</v>
+        <v>7.194378802424462</v>
       </c>
       <c r="K33" t="n">
-        <v>8.967806855170537</v>
+        <v>5.896319494543823</v>
       </c>
       <c r="L33" t="n">
-        <v>10.45072022705133</v>
+        <v>6.871321127704657</v>
       </c>
       <c r="M33" t="n">
-        <v>10.01621347836511</v>
+        <v>6.585652895097109</v>
       </c>
       <c r="N33" t="n">
-        <v>10.7991237183544</v>
+        <v>7.100395366935736</v>
       </c>
       <c r="O33" t="n">
-        <v>9.526086496363765</v>
+        <v>6.263445174080744</v>
       </c>
       <c r="P33" t="n">
-        <v>11.29337291756214</v>
+        <v>7.425307034236732</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.235279569915699</v>
+        <v>6.072084878918876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.829642381187915</v>
+        <v>6.462938610194332</v>
       </c>
       <c r="B34" t="n">
-        <v>9.899321567500902</v>
+        <v>6.508748061509097</v>
       </c>
       <c r="C34" t="n">
-        <v>9.853752546011807</v>
+        <v>6.478807252938269</v>
       </c>
       <c r="D34" t="n">
-        <v>10.09171690292648</v>
+        <v>6.635256250035503</v>
       </c>
       <c r="E34" t="n">
-        <v>9.941268394462815</v>
+        <v>6.536353450087764</v>
       </c>
       <c r="F34" t="n">
-        <v>10.34513336458025</v>
+        <v>6.801867767937787</v>
       </c>
       <c r="G34" t="n">
-        <v>9.798415262895293</v>
+        <v>6.442460193479854</v>
       </c>
       <c r="H34" t="n">
-        <v>10.81298179831051</v>
+        <v>7.109434557115184</v>
       </c>
       <c r="I34" t="n">
-        <v>9.307635983489533</v>
+        <v>6.119669505052857</v>
       </c>
       <c r="J34" t="n">
-        <v>11.2499130630115</v>
+        <v>7.396508728179551</v>
       </c>
       <c r="K34" t="n">
-        <v>8.876384242049856</v>
+        <v>5.836108759990684</v>
       </c>
       <c r="L34" t="n">
-        <v>10.34883331641392</v>
+        <v>6.804289106391197</v>
       </c>
       <c r="M34" t="n">
-        <v>9.92329025722549</v>
+        <v>6.524549957679833</v>
       </c>
       <c r="N34" t="n">
-        <v>10.66022864967958</v>
+        <v>7.009064752696846</v>
       </c>
       <c r="O34" t="n">
-        <v>9.420443475837997</v>
+        <v>6.19414944983782</v>
       </c>
       <c r="P34" t="n">
-        <v>11.12424321621499</v>
+        <v>7.314044047057754</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.199464770540349</v>
+        <v>6.048867012423384</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.52400108860229</v>
+        <v>6.262011542896745</v>
       </c>
       <c r="B35" t="n">
-        <v>9.579496046256958</v>
+        <v>6.298484994802288</v>
       </c>
       <c r="C35" t="n">
-        <v>9.544631613960892</v>
+        <v>6.275563937536568</v>
       </c>
       <c r="D35" t="n">
-        <v>9.770119163072192</v>
+        <v>6.423830798857072</v>
       </c>
       <c r="E35" t="n">
-        <v>9.634305227666914</v>
+        <v>6.334506842233823</v>
       </c>
       <c r="F35" t="n">
-        <v>10.01512487607429</v>
+        <v>6.584896670624123</v>
       </c>
       <c r="G35" t="n">
-        <v>9.495109929392045</v>
+        <v>6.243005811212289</v>
       </c>
       <c r="H35" t="n">
-        <v>10.38988701431382</v>
+        <v>6.831345610915763</v>
       </c>
       <c r="I35" t="n">
-        <v>9.168240892135497</v>
+        <v>6.028102437528048</v>
       </c>
       <c r="J35" t="n">
-        <v>10.67289121104845</v>
+        <v>7.017408074347162</v>
       </c>
       <c r="K35" t="n">
-        <v>8.803870693919162</v>
+        <v>5.788444606024801</v>
       </c>
       <c r="L35" t="n">
-        <v>9.970164953486011</v>
+        <v>6.555350660933088</v>
       </c>
       <c r="M35" t="n">
-        <v>9.562645389963691</v>
+        <v>6.287412164349945</v>
       </c>
       <c r="N35" t="n">
-        <v>10.28892563161612</v>
+        <v>6.764993836593027</v>
       </c>
       <c r="O35" t="n">
-        <v>9.175545759094906</v>
+        <v>6.032893279330149</v>
       </c>
       <c r="P35" t="n">
-        <v>10.66995155287821</v>
+        <v>7.015542010577201</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.200767205424004</v>
+        <v>6.049479092701049</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9.485060877491204</v>
+        <v>6.236419202563068</v>
       </c>
       <c r="B36" t="n">
-        <v>9.549204175567358</v>
+        <v>6.278605877106777</v>
       </c>
       <c r="C36" t="n">
-        <v>9.519058099827422</v>
+        <v>6.258762262907651</v>
       </c>
       <c r="D36" t="n">
-        <v>9.732315072605886</v>
+        <v>6.398981191667755</v>
       </c>
       <c r="E36" t="n">
-        <v>9.628004725916295</v>
+        <v>6.330409738751072</v>
       </c>
       <c r="F36" t="n">
-        <v>9.972978256033212</v>
+        <v>6.557200393094712</v>
       </c>
       <c r="G36" t="n">
-        <v>9.478045440505941</v>
+        <v>6.23179948761354</v>
       </c>
       <c r="H36" t="n">
-        <v>10.26994528909519</v>
+        <v>6.752512227404154</v>
       </c>
       <c r="I36" t="n">
-        <v>9.234642391987542</v>
+        <v>6.071830673884764</v>
       </c>
       <c r="J36" t="n">
-        <v>10.53625758403729</v>
+        <v>6.927646714648459</v>
       </c>
       <c r="K36" t="n">
-        <v>8.924095909317701</v>
+        <v>5.867643675549168</v>
       </c>
       <c r="L36" t="n">
-        <v>9.927476192224701</v>
+        <v>6.527253903964462</v>
       </c>
       <c r="M36" t="n">
-        <v>9.52377321649578</v>
+        <v>6.261825504575691</v>
       </c>
       <c r="N36" t="n">
-        <v>10.24290194587659</v>
+        <v>6.734732076414885</v>
       </c>
       <c r="O36" t="n">
-        <v>9.116145656714451</v>
+        <v>5.993840853447248</v>
       </c>
       <c r="P36" t="n">
-        <v>10.59452480566073</v>
+        <v>6.96585202710763</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.175793070528037</v>
+        <v>6.033019671777277</v>
       </c>
     </row>
   </sheetData>
@@ -6272,1857 +6272,1857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.564586892710036</v>
+        <v>2.395644573077557</v>
       </c>
       <c r="B2" t="n">
-        <v>3.533373813931085</v>
+        <v>2.36549322877317</v>
       </c>
       <c r="C2" t="n">
-        <v>3.536689839063975</v>
+        <v>2.359352189003573</v>
       </c>
       <c r="D2" t="n">
-        <v>3.532764985020919</v>
+        <v>2.400552576417726</v>
       </c>
       <c r="E2" t="n">
-        <v>3.545602230338741</v>
+        <v>2.393545783888797</v>
       </c>
       <c r="F2" t="n">
-        <v>3.668150175277928</v>
+        <v>2.660098401490579</v>
       </c>
       <c r="G2" t="n">
-        <v>3.708864224943248</v>
+        <v>2.622733989343271</v>
       </c>
       <c r="H2" t="n">
-        <v>3.824861116810914</v>
+        <v>2.981887536284573</v>
       </c>
       <c r="I2" t="n">
-        <v>3.963065009428073</v>
+        <v>2.882067681025227</v>
       </c>
       <c r="J2" t="n">
-        <v>3.785420883020612</v>
+        <v>3.237805259061913</v>
       </c>
       <c r="K2" t="n">
-        <v>3.815061806259031</v>
+        <v>2.965574212248422</v>
       </c>
       <c r="L2" t="n">
-        <v>4.052249130090134</v>
+        <v>3.154106476405796</v>
       </c>
       <c r="M2" t="n">
-        <v>4.089521608971466</v>
+        <v>3.110156343196678</v>
       </c>
       <c r="N2" t="n">
-        <v>3.855429457923578</v>
+        <v>3.477845463221218</v>
       </c>
       <c r="O2" t="n">
-        <v>3.841079724998326</v>
+        <v>3.348821141906055</v>
       </c>
       <c r="P2" t="n">
-        <v>4.094331222366457</v>
+        <v>3.797208999142236</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.10429954706369</v>
+        <v>3.721564894710831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.559905524872618</v>
+        <v>2.392348073438272</v>
       </c>
       <c r="B3" t="n">
-        <v>3.528049328371265</v>
+        <v>2.361005586830191</v>
       </c>
       <c r="C3" t="n">
-        <v>3.531214698722836</v>
+        <v>2.355988055203676</v>
       </c>
       <c r="D3" t="n">
-        <v>3.52762787297048</v>
+        <v>2.39803839632127</v>
       </c>
       <c r="E3" t="n">
-        <v>3.539861689191087</v>
+        <v>2.392078069348269</v>
       </c>
       <c r="F3" t="n">
-        <v>3.665765347888349</v>
+        <v>2.662777672845222</v>
       </c>
       <c r="G3" t="n">
-        <v>3.701452711678067</v>
+        <v>2.629731905998103</v>
       </c>
       <c r="H3" t="n">
-        <v>3.821323699347055</v>
+        <v>2.985616113474855</v>
       </c>
       <c r="I3" t="n">
-        <v>3.94795660278328</v>
+        <v>2.895803628741358</v>
       </c>
       <c r="J3" t="n">
-        <v>3.767942498471853</v>
+        <v>3.235922153613688</v>
       </c>
       <c r="K3" t="n">
-        <v>3.785597726894741</v>
+        <v>2.987920290390198</v>
       </c>
       <c r="L3" t="n">
-        <v>4.053464088003992</v>
+        <v>3.156434085628753</v>
       </c>
       <c r="M3" t="n">
-        <v>4.087236138140175</v>
+        <v>3.11758473974517</v>
       </c>
       <c r="N3" t="n">
-        <v>3.854826028826361</v>
+        <v>3.477251134691744</v>
       </c>
       <c r="O3" t="n">
-        <v>3.828889917253266</v>
+        <v>3.358758215509063</v>
       </c>
       <c r="P3" t="n">
-        <v>4.09415653841751</v>
+        <v>3.78924449979834</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.117910315586668</v>
+        <v>3.727005805531729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.555483078066176</v>
+        <v>2.404751752452582</v>
       </c>
       <c r="B4" t="n">
-        <v>3.523036412018688</v>
+        <v>2.372666355182659</v>
       </c>
       <c r="C4" t="n">
-        <v>3.526108365606215</v>
+        <v>2.371144497810144</v>
       </c>
       <c r="D4" t="n">
-        <v>3.523626611574175</v>
+        <v>2.40833316765035</v>
       </c>
       <c r="E4" t="n">
-        <v>3.535845038327872</v>
+        <v>2.408003695203904</v>
       </c>
       <c r="F4" t="n">
-        <v>3.667566725488629</v>
+        <v>2.6754870369634</v>
       </c>
       <c r="G4" t="n">
-        <v>3.700268532698027</v>
+        <v>2.651343594317168</v>
       </c>
       <c r="H4" t="n">
-        <v>3.824236628443191</v>
+        <v>3.00357413698101</v>
       </c>
       <c r="I4" t="n">
-        <v>3.943776877568961</v>
+        <v>2.897316432722294</v>
       </c>
       <c r="J4" t="n">
-        <v>3.760261534540443</v>
+        <v>3.259201086122961</v>
       </c>
       <c r="K4" t="n">
-        <v>3.771669179379626</v>
+        <v>3.006424712705707</v>
       </c>
       <c r="L4" t="n">
-        <v>4.057695651422635</v>
+        <v>3.159627980163486</v>
       </c>
       <c r="M4" t="n">
-        <v>4.088099568230956</v>
+        <v>3.129471310334642</v>
       </c>
       <c r="N4" t="n">
-        <v>3.857523235395126</v>
+        <v>3.442542206556502</v>
       </c>
       <c r="O4" t="n">
-        <v>3.821429265690237</v>
+        <v>3.382873965428115</v>
       </c>
       <c r="P4" t="n">
-        <v>4.086557921633594</v>
+        <v>3.790082737347974</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.123931916998395</v>
+        <v>3.748722584200092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.558394927199722</v>
+        <v>2.462864407886889</v>
       </c>
       <c r="B5" t="n">
-        <v>3.526316528395456</v>
+        <v>2.431507719880254</v>
       </c>
       <c r="C5" t="n">
-        <v>3.529952492445662</v>
+        <v>2.424466843994797</v>
       </c>
       <c r="D5" t="n">
-        <v>3.525392350408982</v>
+        <v>2.461896937610416</v>
       </c>
       <c r="E5" t="n">
-        <v>3.539371116184535</v>
+        <v>2.449860897301166</v>
       </c>
       <c r="F5" t="n">
-        <v>3.666237021549573</v>
+        <v>2.719225569334068</v>
       </c>
       <c r="G5" t="n">
-        <v>3.703370995228725</v>
+        <v>2.688373208493573</v>
       </c>
       <c r="H5" t="n">
-        <v>3.82076481870668</v>
+        <v>3.031128755559847</v>
       </c>
       <c r="I5" t="n">
-        <v>3.949979102723882</v>
+        <v>2.925118333153449</v>
       </c>
       <c r="J5" t="n">
-        <v>3.759267698966908</v>
+        <v>3.259889143882889</v>
       </c>
       <c r="K5" t="n">
-        <v>3.778967296572847</v>
+        <v>3.038416203227694</v>
       </c>
       <c r="L5" t="n">
-        <v>4.060373418664778</v>
+        <v>3.18301129295213</v>
       </c>
       <c r="M5" t="n">
-        <v>4.091134533099773</v>
+        <v>3.15182040627361</v>
       </c>
       <c r="N5" t="n">
-        <v>3.859477697692552</v>
+        <v>3.47260124177029</v>
       </c>
       <c r="O5" t="n">
-        <v>3.819233431753924</v>
+        <v>3.407620612477917</v>
       </c>
       <c r="P5" t="n">
-        <v>4.080842219625512</v>
+        <v>3.777761603962758</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.124791837210759</v>
+        <v>3.764998807082522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.562856792640703</v>
+        <v>2.471421993137884</v>
       </c>
       <c r="B6" t="n">
-        <v>3.530750314809095</v>
+        <v>2.442452737745613</v>
       </c>
       <c r="C6" t="n">
-        <v>3.534500754893851</v>
+        <v>2.436691052834883</v>
       </c>
       <c r="D6" t="n">
-        <v>3.527314683819352</v>
+        <v>2.483327913132885</v>
       </c>
       <c r="E6" t="n">
-        <v>3.541157914289849</v>
+        <v>2.47604614602446</v>
       </c>
       <c r="F6" t="n">
-        <v>3.663946960877275</v>
+        <v>2.727664927942104</v>
       </c>
       <c r="G6" t="n">
-        <v>3.701406813267988</v>
+        <v>2.710353600622589</v>
       </c>
       <c r="H6" t="n">
-        <v>3.81862973266606</v>
+        <v>3.027162659978755</v>
       </c>
       <c r="I6" t="n">
-        <v>3.945460269256273</v>
+        <v>2.943219790784997</v>
       </c>
       <c r="J6" t="n">
-        <v>3.771650820015595</v>
+        <v>3.256605425502304</v>
       </c>
       <c r="K6" t="n">
-        <v>3.789123534760756</v>
+        <v>3.050090462908787</v>
       </c>
       <c r="L6" t="n">
-        <v>4.060100458120131</v>
+        <v>3.185648492663558</v>
       </c>
       <c r="M6" t="n">
-        <v>4.091405873700535</v>
+        <v>3.162200563511495</v>
       </c>
       <c r="N6" t="n">
-        <v>3.86038621622147</v>
+        <v>3.462673399076341</v>
       </c>
       <c r="O6" t="n">
-        <v>3.820735929707395</v>
+        <v>3.425027266685223</v>
       </c>
       <c r="P6" t="n">
-        <v>4.080307368152767</v>
+        <v>3.790668545038316</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.130769430146939</v>
+        <v>3.765629349178307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.563926765576841</v>
+        <v>2.529218667454371</v>
       </c>
       <c r="B7" t="n">
-        <v>3.53210080802801</v>
+        <v>2.501294457478172</v>
       </c>
       <c r="C7" t="n">
-        <v>3.536138518161731</v>
+        <v>2.495105487988457</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530399056976666</v>
+        <v>2.542427743284159</v>
       </c>
       <c r="E7" t="n">
-        <v>3.544994481391165</v>
+        <v>2.532208061849931</v>
       </c>
       <c r="F7" t="n">
-        <v>3.66602480890062</v>
+        <v>2.778609960008862</v>
       </c>
       <c r="G7" t="n">
-        <v>3.704359160998663</v>
+        <v>2.763908317191077</v>
       </c>
       <c r="H7" t="n">
-        <v>3.813598456949451</v>
+        <v>3.078542964911184</v>
       </c>
       <c r="I7" t="n">
-        <v>3.941747897852818</v>
+        <v>2.996716281619414</v>
       </c>
       <c r="J7" t="n">
-        <v>3.772712693232307</v>
+        <v>3.288114778543391</v>
       </c>
       <c r="K7" t="n">
-        <v>3.792909343620337</v>
+        <v>3.076688262260067</v>
       </c>
       <c r="L7" t="n">
-        <v>4.057211018210329</v>
+        <v>3.203808531064139</v>
       </c>
       <c r="M7" t="n">
-        <v>4.088081478857572</v>
+        <v>3.184732147421878</v>
       </c>
       <c r="N7" t="n">
-        <v>3.860189663030073</v>
+        <v>3.456560762103852</v>
       </c>
       <c r="O7" t="n">
-        <v>3.82016948932889</v>
+        <v>3.432952002113168</v>
       </c>
       <c r="P7" t="n">
-        <v>4.076250218692424</v>
+        <v>3.785030589812485</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.128479909455937</v>
+        <v>3.777087747601384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.563533389203398</v>
+        <v>2.521473224683167</v>
       </c>
       <c r="B8" t="n">
-        <v>3.53193071392007</v>
+        <v>2.494253759110197</v>
       </c>
       <c r="C8" t="n">
-        <v>3.53635451067975</v>
+        <v>2.488155323536262</v>
       </c>
       <c r="D8" t="n">
-        <v>3.531048654474609</v>
+        <v>2.544985415163685</v>
       </c>
       <c r="E8" t="n">
-        <v>3.546437311411533</v>
+        <v>2.533895898068042</v>
       </c>
       <c r="F8" t="n">
-        <v>3.667770838418157</v>
+        <v>2.794506117962497</v>
       </c>
       <c r="G8" t="n">
-        <v>3.706226686307586</v>
+        <v>2.775375769005731</v>
       </c>
       <c r="H8" t="n">
-        <v>3.814096589694133</v>
+        <v>3.10706185845182</v>
       </c>
       <c r="I8" t="n">
-        <v>3.943512826715683</v>
+        <v>3.01497466470498</v>
       </c>
       <c r="J8" t="n">
-        <v>3.775633452057221</v>
+        <v>3.308843494907379</v>
       </c>
       <c r="K8" t="n">
-        <v>3.800279008335151</v>
+        <v>3.103581805736229</v>
       </c>
       <c r="L8" t="n">
-        <v>4.060736286095049</v>
+        <v>3.229922062724737</v>
       </c>
       <c r="M8" t="n">
-        <v>4.090262193317623</v>
+        <v>3.212438010895313</v>
       </c>
       <c r="N8" t="n">
-        <v>3.864817032737986</v>
+        <v>3.453869242042956</v>
       </c>
       <c r="O8" t="n">
-        <v>3.815821829931811</v>
+        <v>3.432514244002749</v>
       </c>
       <c r="P8" t="n">
-        <v>4.072710641303385</v>
+        <v>3.780138918080652</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.137582374146559</v>
+        <v>3.784743011491772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.564053121199882</v>
+        <v>2.537373465538886</v>
       </c>
       <c r="B9" t="n">
-        <v>3.532600560716577</v>
+        <v>2.509637956645971</v>
       </c>
       <c r="C9" t="n">
-        <v>3.53739370468207</v>
+        <v>2.503191409289987</v>
       </c>
       <c r="D9" t="n">
-        <v>3.531555696910659</v>
+        <v>2.554176205272695</v>
       </c>
       <c r="E9" t="n">
-        <v>3.548059685212504</v>
+        <v>2.543740662580451</v>
       </c>
       <c r="F9" t="n">
-        <v>3.666275630212169</v>
+        <v>2.797756463056482</v>
       </c>
       <c r="G9" t="n">
-        <v>3.707038278194043</v>
+        <v>2.780907391259891</v>
       </c>
       <c r="H9" t="n">
-        <v>3.810728456366272</v>
+        <v>3.09739709666608</v>
       </c>
       <c r="I9" t="n">
-        <v>3.943907283051715</v>
+        <v>3.03646848141605</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775267884720473</v>
+        <v>3.302490499264368</v>
       </c>
       <c r="K9" t="n">
-        <v>3.801679719814506</v>
+        <v>3.127384059782207</v>
       </c>
       <c r="L9" t="n">
-        <v>4.058482674160167</v>
+        <v>3.229596140627929</v>
       </c>
       <c r="M9" t="n">
-        <v>4.089166301279324</v>
+        <v>3.211005089781242</v>
       </c>
       <c r="N9" t="n">
-        <v>3.860200192665326</v>
+        <v>3.486029374172769</v>
       </c>
       <c r="O9" t="n">
-        <v>3.813978333790518</v>
+        <v>3.432254358409216</v>
       </c>
       <c r="P9" t="n">
-        <v>4.073856751602125</v>
+        <v>3.784375905339158</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.137023493506185</v>
+        <v>3.794443631808861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.568780927428674</v>
+        <v>2.526437678582587</v>
       </c>
       <c r="B10" t="n">
-        <v>3.537298937964789</v>
+        <v>2.499762481609189</v>
       </c>
       <c r="C10" t="n">
-        <v>3.541616088418697</v>
+        <v>2.492908176597231</v>
       </c>
       <c r="D10" t="n">
-        <v>3.535448962047955</v>
+        <v>2.544762985758838</v>
       </c>
       <c r="E10" t="n">
-        <v>3.550769581341702</v>
+        <v>2.533837672333971</v>
       </c>
       <c r="F10" t="n">
-        <v>3.670399467362451</v>
+        <v>2.788411055220718</v>
       </c>
       <c r="G10" t="n">
-        <v>3.707852299996328</v>
+        <v>2.769622072381688</v>
       </c>
       <c r="H10" t="n">
-        <v>3.817558409776685</v>
+        <v>3.064188901323002</v>
       </c>
       <c r="I10" t="n">
-        <v>3.941945531006806</v>
+        <v>3.022744959923653</v>
       </c>
       <c r="J10" t="n">
-        <v>3.781418001680422</v>
+        <v>3.263336178346844</v>
       </c>
       <c r="K10" t="n">
-        <v>3.803220286449277</v>
+        <v>3.122247058890359</v>
       </c>
       <c r="L10" t="n">
-        <v>4.062672119037797</v>
+        <v>3.225918688472441</v>
       </c>
       <c r="M10" t="n">
-        <v>4.092328161752476</v>
+        <v>3.20629271070615</v>
       </c>
       <c r="N10" t="n">
-        <v>3.860101106097685</v>
+        <v>3.51167212947131</v>
       </c>
       <c r="O10" t="n">
-        <v>3.815401184502969</v>
+        <v>3.431988437221297</v>
       </c>
       <c r="P10" t="n">
-        <v>4.077572092902702</v>
+        <v>3.791421929231591</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.138395315986254</v>
+        <v>3.797989365992763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.569198332969746</v>
+        <v>2.683040760854129</v>
       </c>
       <c r="B11" t="n">
-        <v>3.53758998788282</v>
+        <v>2.655425786331438</v>
       </c>
       <c r="C11" t="n">
-        <v>3.54237692206342</v>
+        <v>2.644407631263527</v>
       </c>
       <c r="D11" t="n">
-        <v>3.535627155875321</v>
+        <v>2.641372259840149</v>
       </c>
       <c r="E11" t="n">
-        <v>3.552100365243348</v>
+        <v>2.62268410693085</v>
       </c>
       <c r="F11" t="n">
-        <v>3.669152920542833</v>
+        <v>2.807266074563023</v>
       </c>
       <c r="G11" t="n">
-        <v>3.711510133288983</v>
+        <v>2.769174728327246</v>
       </c>
       <c r="H11" t="n">
-        <v>3.814172727056735</v>
+        <v>3.061440930702856</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95181773903352</v>
+        <v>3.003385258380245</v>
       </c>
       <c r="J11" t="n">
-        <v>3.780030789733444</v>
+        <v>3.22391309596169</v>
       </c>
       <c r="K11" t="n">
-        <v>3.811388043518173</v>
+        <v>3.114373448497208</v>
       </c>
       <c r="L11" t="n">
-        <v>4.058233202801855</v>
+        <v>3.242610302262567</v>
       </c>
       <c r="M11" t="n">
-        <v>4.089845597748494</v>
+        <v>3.212271854532234</v>
       </c>
       <c r="N11" t="n">
-        <v>3.86055415040423</v>
+        <v>3.531669118774817</v>
       </c>
       <c r="O11" t="n">
-        <v>3.818318973430761</v>
+        <v>3.435161739728128</v>
       </c>
       <c r="P11" t="n">
-        <v>4.074127552221591</v>
+        <v>3.785541130090491</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.132296227258688</v>
+        <v>3.78927503280523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.569067117515049</v>
+        <v>2.470577364958901</v>
       </c>
       <c r="B12" t="n">
-        <v>3.537235760153268</v>
+        <v>2.444610107703407</v>
       </c>
       <c r="C12" t="n">
-        <v>3.542341013307299</v>
+        <v>2.435724115110856</v>
       </c>
       <c r="D12" t="n">
-        <v>3.534949479350035</v>
+        <v>2.498150977908304</v>
       </c>
       <c r="E12" t="n">
-        <v>3.551425928605833</v>
+        <v>2.481773747578662</v>
       </c>
       <c r="F12" t="n">
-        <v>3.66895690733273</v>
+        <v>2.751481205869154</v>
       </c>
       <c r="G12" t="n">
-        <v>3.709860220441964</v>
+        <v>2.724952638335823</v>
       </c>
       <c r="H12" t="n">
-        <v>3.81648276703695</v>
+        <v>3.029666721578741</v>
       </c>
       <c r="I12" t="n">
-        <v>3.949412662345376</v>
+        <v>2.969687469822028</v>
       </c>
       <c r="J12" t="n">
-        <v>3.783681063287968</v>
+        <v>3.211553618800379</v>
       </c>
       <c r="K12" t="n">
-        <v>3.808198374008324</v>
+        <v>3.095037534296377</v>
       </c>
       <c r="L12" t="n">
-        <v>4.056931577890142</v>
+        <v>3.214443248371099</v>
       </c>
       <c r="M12" t="n">
-        <v>4.088815313437543</v>
+        <v>3.194808394730713</v>
       </c>
       <c r="N12" t="n">
-        <v>3.858085355923271</v>
+        <v>3.498814893290691</v>
       </c>
       <c r="O12" t="n">
-        <v>3.815920646508805</v>
+        <v>3.434152020290958</v>
       </c>
       <c r="P12" t="n">
-        <v>4.072444430524927</v>
+        <v>3.775769857815598</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.130327185466295</v>
+        <v>3.797134441799829</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.566569704025452</v>
+        <v>2.425452243536943</v>
       </c>
       <c r="B13" t="n">
-        <v>3.534958119050756</v>
+        <v>2.398442603627605</v>
       </c>
       <c r="C13" t="n">
-        <v>3.539371116184535</v>
+        <v>2.390828701310505</v>
       </c>
       <c r="D13" t="n">
-        <v>3.533273377410207</v>
+        <v>2.455059851794205</v>
       </c>
       <c r="E13" t="n">
-        <v>3.548410403063638</v>
+        <v>2.443500268406433</v>
       </c>
       <c r="F13" t="n">
-        <v>3.667906913704509</v>
+        <v>2.719233557620754</v>
       </c>
       <c r="G13" t="n">
-        <v>3.707218901937237</v>
+        <v>2.696426466578429</v>
       </c>
       <c r="H13" t="n">
-        <v>3.814258584082647</v>
+        <v>3.006166602286993</v>
       </c>
       <c r="I13" t="n">
-        <v>3.941632341855678</v>
+        <v>2.966366117735275</v>
       </c>
       <c r="J13" t="n">
-        <v>3.773734607833185</v>
+        <v>3.178731701497964</v>
       </c>
       <c r="K13" t="n">
-        <v>3.79440833169539</v>
+        <v>3.087820738586336</v>
       </c>
       <c r="L13" t="n">
-        <v>4.054579689359561</v>
+        <v>3.200193565062287</v>
       </c>
       <c r="M13" t="n">
-        <v>4.086039539590349</v>
+        <v>3.177912280801413</v>
       </c>
       <c r="N13" t="n">
-        <v>3.849739135036363</v>
+        <v>3.49984946517533</v>
       </c>
       <c r="O13" t="n">
-        <v>3.810396367869817</v>
+        <v>3.425075551440306</v>
       </c>
       <c r="P13" t="n">
-        <v>4.069580099745345</v>
+        <v>3.780104124654196</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.124677091185561</v>
+        <v>3.791362283357665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.563860617868197</v>
+        <v>2.417822897198916</v>
       </c>
       <c r="B14" t="n">
-        <v>3.532678048032416</v>
+        <v>2.385331872482802</v>
       </c>
       <c r="C14" t="n">
-        <v>3.537320267225943</v>
+        <v>2.379669064809502</v>
       </c>
       <c r="D14" t="n">
-        <v>3.531896695098482</v>
+        <v>2.426340541016479</v>
       </c>
       <c r="E14" t="n">
-        <v>3.547299661539724</v>
+        <v>2.420937263901749</v>
       </c>
       <c r="F14" t="n">
-        <v>3.667530276751213</v>
+        <v>2.692597414493379</v>
       </c>
       <c r="G14" t="n">
-        <v>3.706344132239259</v>
+        <v>2.674343646862343</v>
       </c>
       <c r="H14" t="n">
-        <v>3.819388946366898</v>
+        <v>2.985009003686683</v>
       </c>
       <c r="I14" t="n">
-        <v>3.945578255169241</v>
+        <v>2.953048046171587</v>
       </c>
       <c r="J14" t="n">
-        <v>3.761936016536387</v>
+        <v>3.173739554871364</v>
       </c>
       <c r="K14" t="n">
-        <v>3.773261044237428</v>
+        <v>3.084608737268446</v>
       </c>
       <c r="L14" t="n">
-        <v>4.058475384412684</v>
+        <v>3.182617204142264</v>
       </c>
       <c r="M14" t="n">
-        <v>4.089712762349913</v>
+        <v>3.160402666454592</v>
       </c>
       <c r="N14" t="n">
-        <v>3.854600856626326</v>
+        <v>3.502528559012492</v>
       </c>
       <c r="O14" t="n">
-        <v>3.807311184740561</v>
+        <v>3.414309826231687</v>
       </c>
       <c r="P14" t="n">
-        <v>4.07256835623214</v>
+        <v>3.769108691823971</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.132895066514896</v>
+        <v>3.772790049364061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.560760045272032</v>
+        <v>2.392575295815132</v>
       </c>
       <c r="B15" t="n">
-        <v>3.531251957432195</v>
+        <v>2.364499840944336</v>
       </c>
       <c r="C15" t="n">
-        <v>3.534668149095315</v>
+        <v>2.357217718800948</v>
       </c>
       <c r="D15" t="n">
-        <v>3.534957309078814</v>
+        <v>2.417908815660166</v>
       </c>
       <c r="E15" t="n">
-        <v>3.547940619336946</v>
+        <v>2.406243964405615</v>
       </c>
       <c r="F15" t="n">
-        <v>3.672247553344752</v>
+        <v>2.683558401831412</v>
       </c>
       <c r="G15" t="n">
-        <v>3.697638823791144</v>
+        <v>2.657425343247803</v>
       </c>
       <c r="H15" t="n">
-        <v>3.843734813026077</v>
+        <v>2.975583002914127</v>
       </c>
       <c r="I15" t="n">
-        <v>3.894918830011728</v>
+        <v>2.946348536403865</v>
       </c>
       <c r="J15" t="n">
-        <v>3.769754405707386</v>
+        <v>3.168544328245446</v>
       </c>
       <c r="K15" t="n">
-        <v>3.730776395905646</v>
+        <v>3.06669402802788</v>
       </c>
       <c r="L15" t="n">
-        <v>4.053879873601178</v>
+        <v>3.173374578928533</v>
       </c>
       <c r="M15" t="n">
-        <v>4.082783722371857</v>
+        <v>3.143909872244218</v>
       </c>
       <c r="N15" t="n">
-        <v>3.826933565021308</v>
+        <v>3.515193011207744</v>
       </c>
       <c r="O15" t="n">
-        <v>3.797495944740474</v>
+        <v>3.403143621583854</v>
       </c>
       <c r="P15" t="n">
-        <v>4.126761958965742</v>
+        <v>3.778891325217708</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.093327127148315</v>
+        <v>3.759991393952476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.561951244008907</v>
+        <v>2.39420188850198</v>
       </c>
       <c r="B16" t="n">
-        <v>3.530635568783898</v>
+        <v>2.363350592766376</v>
       </c>
       <c r="C16" t="n">
-        <v>3.535867717542264</v>
+        <v>2.357977671141054</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530764084332119</v>
+        <v>2.405174066542073</v>
       </c>
       <c r="E16" t="n">
-        <v>3.547740556267131</v>
+        <v>2.399931265231</v>
       </c>
       <c r="F16" t="n">
-        <v>3.667741949418872</v>
+        <v>2.669999084009793</v>
       </c>
       <c r="G16" t="n">
-        <v>3.708249996220131</v>
+        <v>2.646004933565858</v>
       </c>
       <c r="H16" t="n">
-        <v>3.812686428542115</v>
+        <v>2.956250284027971</v>
       </c>
       <c r="I16" t="n">
-        <v>3.941812695608224</v>
+        <v>2.924584183050347</v>
       </c>
       <c r="J16" t="n">
-        <v>3.770557897874418</v>
+        <v>3.200787893591761</v>
       </c>
       <c r="K16" t="n">
-        <v>3.790092801185367</v>
+        <v>3.065257911599134</v>
       </c>
       <c r="L16" t="n">
-        <v>4.057894094548565</v>
+        <v>3.161221377081215</v>
       </c>
       <c r="M16" t="n">
-        <v>4.088329600262647</v>
+        <v>3.126816358875022</v>
       </c>
       <c r="N16" t="n">
-        <v>3.855925160752431</v>
+        <v>3.512645635342169</v>
       </c>
       <c r="O16" t="n">
-        <v>3.806452884472082</v>
+        <v>3.370418628826567</v>
       </c>
       <c r="P16" t="n">
-        <v>4.062229874357152</v>
+        <v>3.779397605076148</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.133307342233665</v>
+        <v>3.725289211481547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.562591931815482</v>
+        <v>2.439958972159578</v>
       </c>
       <c r="B17" t="n">
-        <v>3.531914514481219</v>
+        <v>2.412066715330126</v>
       </c>
       <c r="C17" t="n">
-        <v>3.536616941589144</v>
+        <v>2.403715405393123</v>
       </c>
       <c r="D17" t="n">
-        <v>3.533557677562049</v>
+        <v>2.443118960855265</v>
       </c>
       <c r="E17" t="n">
-        <v>3.549312441817015</v>
+        <v>2.432104888689438</v>
       </c>
       <c r="F17" t="n">
-        <v>3.66971261115515</v>
+        <v>2.688375516220837</v>
       </c>
       <c r="G17" t="n">
-        <v>3.710419371072986</v>
+        <v>2.65410683144076</v>
       </c>
       <c r="H17" t="n">
-        <v>3.814418148555334</v>
+        <v>2.975977979311403</v>
       </c>
       <c r="I17" t="n">
-        <v>3.945783448061359</v>
+        <v>2.919102443208607</v>
       </c>
       <c r="J17" t="n">
-        <v>3.773055041373367</v>
+        <v>3.237438862979226</v>
       </c>
       <c r="K17" t="n">
-        <v>3.793693936442041</v>
+        <v>3.08974538312533</v>
       </c>
       <c r="L17" t="n">
-        <v>4.057210478229035</v>
+        <v>3.164351010287493</v>
       </c>
       <c r="M17" t="n">
-        <v>4.088636579628882</v>
+        <v>3.128069987332352</v>
       </c>
       <c r="N17" t="n">
-        <v>3.853846772747792</v>
+        <v>3.506624597390351</v>
       </c>
       <c r="O17" t="n">
-        <v>3.808429216011957</v>
+        <v>3.3939247837127</v>
       </c>
       <c r="P17" t="n">
-        <v>4.063662714723562</v>
+        <v>3.792413186850641</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.131041040738348</v>
+        <v>3.762221013525412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.562369189531275</v>
+        <v>2.461067575934878</v>
       </c>
       <c r="B18" t="n">
-        <v>3.531469569894099</v>
+        <v>2.431890802606241</v>
       </c>
       <c r="C18" t="n">
-        <v>3.535559928204087</v>
+        <v>2.42447642993882</v>
       </c>
       <c r="D18" t="n">
-        <v>3.532667518397163</v>
+        <v>2.452282945824505</v>
       </c>
       <c r="E18" t="n">
-        <v>3.547494864777884</v>
+        <v>2.442184863865394</v>
       </c>
       <c r="F18" t="n">
-        <v>3.668571360688066</v>
+        <v>2.686111990808855</v>
       </c>
       <c r="G18" t="n">
-        <v>3.707390615989062</v>
+        <v>2.646433460767216</v>
       </c>
       <c r="H18" t="n">
-        <v>3.811020046265597</v>
+        <v>3.013776776736973</v>
       </c>
       <c r="I18" t="n">
-        <v>3.940198421526678</v>
+        <v>2.930027934150955</v>
       </c>
       <c r="J18" t="n">
-        <v>3.760515055758468</v>
+        <v>3.270573566084788</v>
       </c>
       <c r="K18" t="n">
-        <v>3.783759630566397</v>
+        <v>3.090379475570754</v>
       </c>
       <c r="L18" t="n">
-        <v>4.060404197598595</v>
+        <v>3.169597006913241</v>
       </c>
       <c r="M18" t="n">
-        <v>4.090160676834154</v>
+        <v>3.135412110384631</v>
       </c>
       <c r="N18" t="n">
-        <v>3.856317187172636</v>
+        <v>3.51532934463386</v>
       </c>
       <c r="O18" t="n">
-        <v>3.808643858576739</v>
+        <v>3.424403115218787</v>
       </c>
       <c r="P18" t="n">
-        <v>4.064421388443105</v>
+        <v>3.801635575071433</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.134621656705812</v>
+        <v>3.79442232971103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.561522228869992</v>
+        <v>2.437014312169462</v>
       </c>
       <c r="B19" t="n">
-        <v>3.53080971275155</v>
+        <v>2.40961076096774</v>
       </c>
       <c r="C19" t="n">
-        <v>3.534510204566514</v>
+        <v>2.403104035185385</v>
       </c>
       <c r="D19" t="n">
-        <v>3.531825417567536</v>
+        <v>2.443504351308517</v>
       </c>
       <c r="E19" t="n">
-        <v>3.545590080759602</v>
+        <v>2.436290040843222</v>
       </c>
       <c r="F19" t="n">
-        <v>3.666971396110839</v>
+        <v>2.703063667709996</v>
       </c>
       <c r="G19" t="n">
-        <v>3.706534475645764</v>
+        <v>2.654748379620425</v>
       </c>
       <c r="H19" t="n">
-        <v>3.807996421003976</v>
+        <v>3.023122007055255</v>
       </c>
       <c r="I19" t="n">
-        <v>3.939693269025161</v>
+        <v>2.94180763921631</v>
       </c>
       <c r="J19" t="n">
-        <v>3.763243311251698</v>
+        <v>3.27671141053971</v>
       </c>
       <c r="K19" t="n">
-        <v>3.791059097712855</v>
+        <v>3.101215497702213</v>
       </c>
       <c r="L19" t="n">
-        <v>4.061055415040423</v>
+        <v>3.19038039866166</v>
       </c>
       <c r="M19" t="n">
-        <v>4.091668034619281</v>
+        <v>3.147502826078312</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85658609785757</v>
+        <v>3.548925238157454</v>
       </c>
       <c r="O19" t="n">
-        <v>3.812452346650712</v>
+        <v>3.407633393736615</v>
       </c>
       <c r="P19" t="n">
-        <v>4.065324507159072</v>
+        <v>3.810277481126341</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.136314768056435</v>
+        <v>3.797804037741637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.559860976415777</v>
+        <v>2.408446601321298</v>
       </c>
       <c r="B20" t="n">
-        <v>3.529049643720342</v>
+        <v>2.379968891836468</v>
       </c>
       <c r="C20" t="n">
-        <v>3.532201244548889</v>
+        <v>2.375501841921392</v>
       </c>
       <c r="D20" t="n">
-        <v>3.530146075739936</v>
+        <v>2.417898342128733</v>
       </c>
       <c r="E20" t="n">
-        <v>3.542853725546947</v>
+        <v>2.418005740205295</v>
       </c>
       <c r="F20" t="n">
-        <v>3.665894943399161</v>
+        <v>2.694674369031862</v>
       </c>
       <c r="G20" t="n">
-        <v>3.706881143637184</v>
+        <v>2.646755477479422</v>
       </c>
       <c r="H20" t="n">
-        <v>3.811004926789336</v>
+        <v>3.012668357579854</v>
       </c>
       <c r="I20" t="n">
-        <v>3.949411852373434</v>
+        <v>2.942976946869728</v>
       </c>
       <c r="J20" t="n">
-        <v>3.762241375958737</v>
+        <v>3.276672356693687</v>
       </c>
       <c r="K20" t="n">
-        <v>3.793442845139845</v>
+        <v>3.112638392628906</v>
       </c>
       <c r="L20" t="n">
-        <v>4.05902643532428</v>
+        <v>3.190060157124273</v>
       </c>
       <c r="M20" t="n">
-        <v>4.091260618732167</v>
+        <v>3.144686688745108</v>
       </c>
       <c r="N20" t="n">
-        <v>3.856588527773398</v>
+        <v>3.568227779071683</v>
       </c>
       <c r="O20" t="n">
-        <v>3.819286619911486</v>
+        <v>3.401718866273951</v>
       </c>
       <c r="P20" t="n">
-        <v>4.065446002950458</v>
+        <v>3.798219783684297</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.129504253972643</v>
+        <v>3.803255954646414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.557917043753605</v>
+        <v>2.415189957907055</v>
       </c>
       <c r="B21" t="n">
-        <v>3.526975035584767</v>
+        <v>2.38527258164384</v>
       </c>
       <c r="C21" t="n">
-        <v>3.530656358063757</v>
+        <v>2.380230020052375</v>
       </c>
       <c r="D21" t="n">
-        <v>3.528499402780688</v>
+        <v>2.420862706559342</v>
       </c>
       <c r="E21" t="n">
-        <v>3.542533246648336</v>
+        <v>2.417136259578843</v>
       </c>
       <c r="F21" t="n">
-        <v>3.665238326144382</v>
+        <v>2.691041473764336</v>
       </c>
       <c r="G21" t="n">
-        <v>3.706165938411893</v>
+        <v>2.652224613579945</v>
       </c>
       <c r="H21" t="n">
-        <v>3.809925774171182</v>
+        <v>3.003141349360085</v>
       </c>
       <c r="I21" t="n">
-        <v>3.945296654923873</v>
+        <v>2.946472088571282</v>
       </c>
       <c r="J21" t="n">
-        <v>3.757454171787489</v>
+        <v>3.287443762461727</v>
       </c>
       <c r="K21" t="n">
-        <v>3.787646145937505</v>
+        <v>3.110722978998972</v>
       </c>
       <c r="L21" t="n">
-        <v>4.058741055209848</v>
+        <v>3.18998311453712</v>
       </c>
       <c r="M21" t="n">
-        <v>4.090344540465118</v>
+        <v>3.15131235124035</v>
       </c>
       <c r="N21" t="n">
-        <v>3.854361104931325</v>
+        <v>3.554852191843853</v>
       </c>
       <c r="O21" t="n">
-        <v>3.816125569410276</v>
+        <v>3.390760357079965</v>
       </c>
       <c r="P21" t="n">
-        <v>4.067082416265101</v>
+        <v>3.793725396077006</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.129778834461174</v>
+        <v>3.794416294116645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.555753608694995</v>
+        <v>2.570890186265543</v>
       </c>
       <c r="B22" t="n">
-        <v>3.525087800958575</v>
+        <v>2.541852941677696</v>
       </c>
       <c r="C22" t="n">
-        <v>3.528756433877131</v>
+        <v>2.537422282846415</v>
       </c>
       <c r="D22" t="n">
-        <v>3.527782577611512</v>
+        <v>2.527144553195598</v>
       </c>
       <c r="E22" t="n">
-        <v>3.541845580469093</v>
+        <v>2.520144328813501</v>
       </c>
       <c r="F22" t="n">
-        <v>3.665363601804834</v>
+        <v>2.708508128880532</v>
       </c>
       <c r="G22" t="n">
-        <v>3.705112164914607</v>
+        <v>2.66079870795676</v>
       </c>
       <c r="H22" t="n">
-        <v>3.806383766866316</v>
+        <v>3.002029024818364</v>
       </c>
       <c r="I22" t="n">
-        <v>3.937132137742748</v>
+        <v>2.94947142394583</v>
       </c>
       <c r="J22" t="n">
-        <v>3.755135492106553</v>
+        <v>3.291688205454473</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7840482505686</v>
+        <v>3.113756752765013</v>
       </c>
       <c r="L22" t="n">
-        <v>4.056262541065577</v>
+        <v>3.201015471003585</v>
       </c>
       <c r="M22" t="n">
-        <v>4.086540372241505</v>
+        <v>3.156507577866268</v>
       </c>
       <c r="N22" t="n">
-        <v>3.815616907030341</v>
+        <v>3.567742446276109</v>
       </c>
       <c r="O22" t="n">
-        <v>3.856188401633768</v>
+        <v>3.381904719976824</v>
       </c>
       <c r="P22" t="n">
-        <v>4.064337421351724</v>
+        <v>3.819084833474401</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.132304596968761</v>
+        <v>3.764065775197541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.555456888973366</v>
+        <v>2.430083674640279</v>
       </c>
       <c r="B23" t="n">
-        <v>3.524504621159923</v>
+        <v>2.394763376297298</v>
       </c>
       <c r="C23" t="n">
-        <v>3.528070117651124</v>
+        <v>2.392853998261749</v>
       </c>
       <c r="D23" t="n">
-        <v>3.527681601109338</v>
+        <v>2.42547869364175</v>
       </c>
       <c r="E23" t="n">
-        <v>3.541048298086954</v>
+        <v>2.429175140167804</v>
       </c>
       <c r="F23" t="n">
-        <v>3.669036014592455</v>
+        <v>2.702319691943262</v>
       </c>
       <c r="G23" t="n">
-        <v>3.701881456826336</v>
+        <v>2.669421264606139</v>
       </c>
       <c r="H23" t="n">
-        <v>3.810206834435255</v>
+        <v>3.020221016365692</v>
       </c>
       <c r="I23" t="n">
-        <v>3.922029940882848</v>
+        <v>2.964418573441113</v>
       </c>
       <c r="J23" t="n">
-        <v>3.755656844046922</v>
+        <v>3.32215269059697</v>
       </c>
       <c r="K23" t="n">
-        <v>3.770398333401731</v>
+        <v>3.140673373513823</v>
       </c>
       <c r="L23" t="n">
-        <v>4.06063152972381</v>
+        <v>3.216092740813115</v>
       </c>
       <c r="M23" t="n">
-        <v>4.087271776905648</v>
+        <v>3.171080698027142</v>
       </c>
       <c r="N23" t="n">
-        <v>3.856292618023712</v>
+        <v>3.60434868125813</v>
       </c>
       <c r="O23" t="n">
-        <v>3.808954887802686</v>
+        <v>3.391753389873835</v>
       </c>
       <c r="P23" t="n">
-        <v>4.061896705898108</v>
+        <v>3.91448095308426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.137788647001268</v>
+        <v>3.785068223518652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.556279010495076</v>
+        <v>2.444642060850152</v>
       </c>
       <c r="B24" t="n">
-        <v>3.525479017406837</v>
+        <v>2.411222087151143</v>
       </c>
       <c r="C24" t="n">
-        <v>3.529166819661367</v>
+        <v>2.409561233590284</v>
       </c>
       <c r="D24" t="n">
-        <v>3.528989435805943</v>
+        <v>2.447562045910281</v>
       </c>
       <c r="E24" t="n">
-        <v>3.543109136699505</v>
+        <v>2.45008847471299</v>
       </c>
       <c r="F24" t="n">
-        <v>3.667409860922417</v>
+        <v>2.713476665682036</v>
       </c>
       <c r="G24" t="n">
-        <v>3.706055782227704</v>
+        <v>2.690043825515937</v>
       </c>
       <c r="H24" t="n">
-        <v>3.806498782882161</v>
+        <v>3.027007154664592</v>
       </c>
       <c r="I24" t="n">
-        <v>3.933495903701896</v>
+        <v>2.975211458824465</v>
       </c>
       <c r="J24" t="n">
-        <v>3.756679298629095</v>
+        <v>3.3381019262777</v>
       </c>
       <c r="K24" t="n">
-        <v>3.783723181828981</v>
+        <v>3.170179619288908</v>
       </c>
       <c r="L24" t="n">
-        <v>4.05888685015951</v>
+        <v>3.226507691477457</v>
       </c>
       <c r="M24" t="n">
-        <v>4.08943278204843</v>
+        <v>3.186311342941053</v>
       </c>
       <c r="N24" t="n">
-        <v>3.850174089969523</v>
+        <v>3.610658717670516</v>
       </c>
       <c r="O24" t="n">
-        <v>3.814007222789803</v>
+        <v>3.428095123807793</v>
       </c>
       <c r="P24" t="n">
-        <v>4.069072517327999</v>
+        <v>3.953429353722755</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.127344058801803</v>
+        <v>3.797430895994637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.556709105596582</v>
+        <v>2.466303276546674</v>
       </c>
       <c r="B25" t="n">
-        <v>3.526199352454431</v>
+        <v>2.432890936099387</v>
       </c>
       <c r="C25" t="n">
-        <v>3.529892554521911</v>
+        <v>2.430888361385829</v>
       </c>
       <c r="D25" t="n">
-        <v>3.529354733152044</v>
+        <v>2.47155459869688</v>
       </c>
       <c r="E25" t="n">
-        <v>3.54331243965709</v>
+        <v>2.474029369912349</v>
       </c>
       <c r="F25" t="n">
-        <v>3.666168983906398</v>
+        <v>2.743384811036191</v>
       </c>
       <c r="G25" t="n">
-        <v>3.705055466878628</v>
+        <v>2.705377430569362</v>
       </c>
       <c r="H25" t="n">
-        <v>3.803008073800323</v>
+        <v>3.062623552167417</v>
       </c>
       <c r="I25" t="n">
-        <v>3.929727104253109</v>
+        <v>2.986333994171746</v>
       </c>
       <c r="J25" t="n">
-        <v>3.763157184235138</v>
+        <v>3.367689830094468</v>
       </c>
       <c r="K25" t="n">
-        <v>3.793560561062165</v>
+        <v>3.195305798715057</v>
       </c>
       <c r="L25" t="n">
-        <v>4.054278109806276</v>
+        <v>3.251333866359159</v>
       </c>
       <c r="M25" t="n">
-        <v>4.084947157430467</v>
+        <v>3.196089005845296</v>
       </c>
       <c r="N25" t="n">
-        <v>3.853818423729802</v>
+        <v>3.651469986764297</v>
       </c>
       <c r="O25" t="n">
-        <v>3.816854274167943</v>
+        <v>3.410701605894149</v>
       </c>
       <c r="P25" t="n">
-        <v>4.065897427313118</v>
+        <v>3.995159098267997</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.128728570842306</v>
+        <v>3.767749973017343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.556954527095181</v>
+        <v>2.552645827061049</v>
       </c>
       <c r="B26" t="n">
-        <v>3.526199352454431</v>
+        <v>2.518508682735076</v>
       </c>
       <c r="C26" t="n">
-        <v>3.529777808496714</v>
+        <v>2.51785506336664</v>
       </c>
       <c r="D26" t="n">
-        <v>3.528570680311634</v>
+        <v>2.530808158987497</v>
       </c>
       <c r="E26" t="n">
-        <v>3.542768948483625</v>
+        <v>2.536514813478831</v>
       </c>
       <c r="F26" t="n">
-        <v>3.664940796450811</v>
+        <v>2.77223477468061</v>
       </c>
       <c r="G26" t="n">
-        <v>3.708618803444649</v>
+        <v>2.724810446832804</v>
       </c>
       <c r="H26" t="n">
-        <v>3.810100998101426</v>
+        <v>3.088814126415169</v>
       </c>
       <c r="I26" t="n">
-        <v>3.954905892059899</v>
+        <v>3.010280037378081</v>
       </c>
       <c r="J26" t="n">
-        <v>3.763729834398537</v>
+        <v>3.37181107595476</v>
       </c>
       <c r="K26" t="n">
-        <v>3.803398480276643</v>
+        <v>3.196996475212879</v>
       </c>
       <c r="L26" t="n">
-        <v>4.043166914698075</v>
+        <v>3.261057563948898</v>
       </c>
       <c r="M26" t="n">
-        <v>4.077216515219913</v>
+        <v>3.191949653201847</v>
       </c>
       <c r="N26" t="n">
-        <v>3.846282174785466</v>
+        <v>3.672816819000335</v>
       </c>
       <c r="O26" t="n">
-        <v>3.816763827301022</v>
+        <v>3.360158118371497</v>
       </c>
       <c r="P26" t="n">
-        <v>4.075409737806682</v>
+        <v>3.953033844773033</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.116835752809522</v>
+        <v>3.692682800402184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.557747759617607</v>
+        <v>2.529726012417703</v>
       </c>
       <c r="B27" t="n">
-        <v>3.527053872853844</v>
+        <v>2.498373584830634</v>
       </c>
       <c r="C27" t="n">
-        <v>3.530445765358688</v>
+        <v>2.495741533126182</v>
       </c>
       <c r="D27" t="n">
-        <v>3.528866320070673</v>
+        <v>2.534845794113804</v>
       </c>
       <c r="E27" t="n">
-        <v>3.542447929603719</v>
+        <v>2.536990737847863</v>
       </c>
       <c r="F27" t="n">
-        <v>3.665147609286814</v>
+        <v>2.786155695612904</v>
       </c>
       <c r="G27" t="n">
-        <v>3.707015868970299</v>
+        <v>2.742333019955805</v>
       </c>
       <c r="H27" t="n">
-        <v>3.806368377399407</v>
+        <v>3.048319548509137</v>
       </c>
       <c r="I27" t="n">
-        <v>3.947660693033593</v>
+        <v>3.021490266361431</v>
       </c>
       <c r="J27" t="n">
-        <v>3.760488596675011</v>
+        <v>3.302886718284017</v>
       </c>
       <c r="K27" t="n">
-        <v>3.799628060883971</v>
+        <v>3.186768983009447</v>
       </c>
       <c r="L27" t="n">
-        <v>4.042784067959886</v>
+        <v>3.272030274541437</v>
       </c>
       <c r="M27" t="n">
-        <v>4.075202384989384</v>
+        <v>3.20324970603105</v>
       </c>
       <c r="N27" t="n">
-        <v>3.850209188753702</v>
+        <v>3.687284848811911</v>
       </c>
       <c r="O27" t="n">
-        <v>3.81732675780111</v>
+        <v>3.35297221070331</v>
       </c>
       <c r="P27" t="n">
-        <v>4.071240542227617</v>
+        <v>3.92749440464897</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.123013948796814</v>
+        <v>3.687552900209613</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.556331118690049</v>
+        <v>2.581927513221502</v>
       </c>
       <c r="B28" t="n">
-        <v>3.525472537631297</v>
+        <v>2.550811893955317</v>
       </c>
       <c r="C28" t="n">
-        <v>3.528160294527398</v>
+        <v>2.547469417288215</v>
       </c>
       <c r="D28" t="n">
-        <v>3.527984260625212</v>
+        <v>2.574509767721925</v>
       </c>
       <c r="E28" t="n">
-        <v>3.539755852857257</v>
+        <v>2.577084658797198</v>
       </c>
       <c r="F28" t="n">
-        <v>3.664858179312668</v>
+        <v>2.806432807502883</v>
       </c>
       <c r="G28" t="n">
-        <v>3.702505675203411</v>
+        <v>2.769358281403552</v>
       </c>
       <c r="H28" t="n">
-        <v>3.807602774639887</v>
+        <v>3.026667386204193</v>
       </c>
       <c r="I28" t="n">
-        <v>3.936459051058471</v>
+        <v>3.022252171393839</v>
       </c>
       <c r="J28" t="n">
-        <v>3.749257525719309</v>
+        <v>3.222839115196065</v>
       </c>
       <c r="K28" t="n">
-        <v>3.783998032308161</v>
+        <v>3.147490754889541</v>
       </c>
       <c r="L28" t="n">
-        <v>4.041384166452474</v>
+        <v>3.285481129181602</v>
       </c>
       <c r="M28" t="n">
-        <v>4.072687422107698</v>
+        <v>3.216024219065094</v>
       </c>
       <c r="N28" t="n">
-        <v>3.847912648305863</v>
+        <v>3.652411894523373</v>
       </c>
       <c r="O28" t="n">
-        <v>3.819267180584864</v>
+        <v>3.339421236203342</v>
       </c>
       <c r="P28" t="n">
-        <v>4.07752106467032</v>
+        <v>3.923466177949205</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.127548441721979</v>
+        <v>3.640812192184686</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.558362258331371</v>
+        <v>2.637415395168116</v>
       </c>
       <c r="B29" t="n">
-        <v>3.527553625542411</v>
+        <v>2.606379836286278</v>
       </c>
       <c r="C29" t="n">
-        <v>3.530311580006869</v>
+        <v>2.598338294355228</v>
       </c>
       <c r="D29" t="n">
-        <v>3.529396041721115</v>
+        <v>2.613832020177347</v>
       </c>
       <c r="E29" t="n">
-        <v>3.541160074215029</v>
+        <v>2.600487143473889</v>
       </c>
       <c r="F29" t="n">
-        <v>3.666294529557496</v>
+        <v>2.826898442958663</v>
       </c>
       <c r="G29" t="n">
-        <v>3.70122996939386</v>
+        <v>2.767515294906242</v>
       </c>
       <c r="H29" t="n">
-        <v>3.813138932867365</v>
+        <v>3.038765557632116</v>
       </c>
       <c r="I29" t="n">
-        <v>3.939886852319435</v>
+        <v>2.988441836752084</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75206083861255</v>
+        <v>3.183461122251319</v>
       </c>
       <c r="K29" t="n">
-        <v>3.787757922065579</v>
+        <v>3.085159751532331</v>
       </c>
       <c r="L29" t="n">
-        <v>4.043523572343454</v>
+        <v>3.291803591817722</v>
       </c>
       <c r="M29" t="n">
-        <v>4.073826242658955</v>
+        <v>3.215385156130176</v>
       </c>
       <c r="N29" t="n">
-        <v>3.852196859900773</v>
+        <v>3.650164168167281</v>
       </c>
       <c r="O29" t="n">
-        <v>3.824491769605101</v>
+        <v>3.341375348644334</v>
       </c>
       <c r="P29" t="n">
-        <v>4.096037833249456</v>
+        <v>3.924987147734309</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.132025156648574</v>
+        <v>3.610965822914241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.559725711101367</v>
+        <v>2.604912831815677</v>
       </c>
       <c r="B30" t="n">
-        <v>3.528925448022481</v>
+        <v>2.577421231942922</v>
       </c>
       <c r="C30" t="n">
-        <v>3.531443110810641</v>
+        <v>2.570209406722374</v>
       </c>
       <c r="D30" t="n">
-        <v>3.530913119169552</v>
+        <v>2.6078230534143</v>
       </c>
       <c r="E30" t="n">
-        <v>3.542844005883636</v>
+        <v>2.594332079823221</v>
       </c>
       <c r="F30" t="n">
-        <v>3.670327379859561</v>
+        <v>2.829638957844569</v>
       </c>
       <c r="G30" t="n">
-        <v>3.703126923683364</v>
+        <v>2.763777309289419</v>
       </c>
       <c r="H30" t="n">
-        <v>3.814793165564745</v>
+        <v>3.043376751742512</v>
       </c>
       <c r="I30" t="n">
-        <v>3.941322122601673</v>
+        <v>2.947226715386931</v>
       </c>
       <c r="J30" t="n">
-        <v>3.753563336566021</v>
+        <v>3.018150452456558</v>
       </c>
       <c r="K30" t="n">
-        <v>3.788011173292957</v>
+        <v>2.998226955390567</v>
       </c>
       <c r="L30" t="n">
-        <v>4.048217089760011</v>
+        <v>3.28052022563182</v>
       </c>
       <c r="M30" t="n">
-        <v>4.077031841617006</v>
+        <v>3.202085546384608</v>
       </c>
       <c r="N30" t="n">
-        <v>3.827021041991105</v>
+        <v>3.640862252114588</v>
       </c>
       <c r="O30" t="n">
-        <v>3.861054443074092</v>
+        <v>3.340252018018735</v>
       </c>
       <c r="P30" t="n">
-        <v>4.10830242840388</v>
+        <v>3.91927357006118</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.147483201181911</v>
+        <v>3.599836186867683</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.55769835132911</v>
+        <v>2.534362058975568</v>
       </c>
       <c r="B31" t="n">
-        <v>3.527471548385564</v>
+        <v>2.512885461460244</v>
       </c>
       <c r="C31" t="n">
-        <v>3.530008380509699</v>
+        <v>2.506725072285119</v>
       </c>
       <c r="D31" t="n">
-        <v>3.527138649917167</v>
+        <v>2.571797478115645</v>
       </c>
       <c r="E31" t="n">
-        <v>3.539093295808233</v>
+        <v>2.554592838802765</v>
       </c>
       <c r="F31" t="n">
-        <v>3.664489642078798</v>
+        <v>2.803630161498305</v>
       </c>
       <c r="G31" t="n">
-        <v>3.696756764345683</v>
+        <v>2.733198680406046</v>
       </c>
       <c r="H31" t="n">
-        <v>3.805129120327272</v>
+        <v>2.949257692897596</v>
       </c>
       <c r="I31" t="n">
-        <v>3.930308934098523</v>
+        <v>2.866822479677799</v>
       </c>
       <c r="J31" t="n">
-        <v>3.723347873229671</v>
+        <v>2.781918175801953</v>
       </c>
       <c r="K31" t="n">
-        <v>3.765870590242754</v>
+        <v>2.889145658064406</v>
       </c>
       <c r="L31" t="n">
-        <v>4.036568073281941</v>
+        <v>3.261665028772033</v>
       </c>
       <c r="M31" t="n">
-        <v>4.067489832152214</v>
+        <v>3.187954089718755</v>
       </c>
       <c r="N31" t="n">
-        <v>3.864554601828593</v>
+        <v>3.623340211544033</v>
       </c>
       <c r="O31" t="n">
-        <v>3.839751371012508</v>
+        <v>3.352115511335557</v>
       </c>
       <c r="P31" t="n">
-        <v>4.186215519494405</v>
+        <v>3.919166349502099</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.141292855615482</v>
+        <v>3.603611273638228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.55769835132911</v>
+        <v>2.530842064826544</v>
       </c>
       <c r="B32" t="n">
-        <v>3.527471548385564</v>
+        <v>2.508722854026665</v>
       </c>
       <c r="C32" t="n">
-        <v>3.530008380509699</v>
+        <v>2.501418542198035</v>
       </c>
       <c r="D32" t="n">
-        <v>3.527138649917167</v>
+        <v>2.563385812234789</v>
       </c>
       <c r="E32" t="n">
-        <v>3.539093295808233</v>
+        <v>2.545779095825357</v>
       </c>
       <c r="F32" t="n">
-        <v>3.664489642078798</v>
+        <v>2.780749933253427</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696756764345683</v>
+        <v>2.729761941956044</v>
       </c>
       <c r="H32" t="n">
-        <v>3.805129120327272</v>
+        <v>2.87873674299445</v>
       </c>
       <c r="I32" t="n">
-        <v>3.930308934098523</v>
+        <v>2.835099750623441</v>
       </c>
       <c r="J32" t="n">
-        <v>3.723347873229671</v>
+        <v>2.713156956697095</v>
       </c>
       <c r="K32" t="n">
-        <v>3.765870590242754</v>
+        <v>2.829638247774641</v>
       </c>
       <c r="L32" t="n">
-        <v>4.036568073281941</v>
+        <v>3.262958776180278</v>
       </c>
       <c r="M32" t="n">
-        <v>4.067489832152214</v>
+        <v>3.205407253506325</v>
       </c>
       <c r="N32" t="n">
-        <v>3.864554601828593</v>
+        <v>3.598530013235703</v>
       </c>
       <c r="O32" t="n">
-        <v>3.839751371012508</v>
+        <v>3.36978240617136</v>
       </c>
       <c r="P32" t="n">
-        <v>4.186215519494405</v>
+        <v>3.915385937207096</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.141292855615482</v>
+        <v>3.621493674697084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.837133541694116</v>
+        <v>2.52279821516823</v>
       </c>
       <c r="B33" t="n">
-        <v>3.807237477293786</v>
+        <v>2.503148805094326</v>
       </c>
       <c r="C33" t="n">
-        <v>3.792131500564821</v>
+        <v>2.493222382540233</v>
       </c>
       <c r="D33" t="n">
-        <v>3.877742295006901</v>
+        <v>2.549520631791819</v>
       </c>
       <c r="E33" t="n">
-        <v>3.846263815421434</v>
+        <v>2.528841265287805</v>
       </c>
       <c r="F33" t="n">
-        <v>4.184728141017195</v>
+        <v>2.751381618561796</v>
       </c>
       <c r="G33" t="n">
-        <v>4.096543255741621</v>
+        <v>2.693414349945183</v>
       </c>
       <c r="H33" t="n">
-        <v>4.340855092779586</v>
+        <v>2.853894236504411</v>
       </c>
       <c r="I33" t="n">
-        <v>4.116155106387115</v>
+        <v>2.706169868608661</v>
       </c>
       <c r="J33" t="n">
-        <v>4.379243712997781</v>
+        <v>2.878752187015377</v>
       </c>
       <c r="K33" t="n">
-        <v>4.085659662749283</v>
+        <v>2.685791571753986</v>
       </c>
       <c r="L33" t="n">
-        <v>4.948947468459693</v>
+        <v>3.253911065161697</v>
       </c>
       <c r="M33" t="n">
-        <v>4.899223830886498</v>
+        <v>3.221213055061662</v>
       </c>
       <c r="N33" t="n">
-        <v>5.405929318608403</v>
+        <v>3.554378220167122</v>
       </c>
       <c r="O33" t="n">
-        <v>5.216973124050983</v>
+        <v>3.43011988820659</v>
       </c>
       <c r="P33" t="n">
-        <v>5.84697740070284</v>
+        <v>3.844354802060907</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.719496456642742</v>
+        <v>3.760557674719807</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.820806127275751</v>
+        <v>2.512282612091639</v>
       </c>
       <c r="B34" t="n">
-        <v>3.787604027396491</v>
+        <v>2.490456482654412</v>
       </c>
       <c r="C34" t="n">
-        <v>3.774253799848373</v>
+        <v>2.481670964956629</v>
       </c>
       <c r="D34" t="n">
-        <v>3.859991219904142</v>
+        <v>2.538051227284863</v>
       </c>
       <c r="E34" t="n">
-        <v>3.832572049704198</v>
+        <v>2.520011545737024</v>
       </c>
       <c r="F34" t="n">
-        <v>4.15864380457861</v>
+        <v>2.734364260192344</v>
       </c>
       <c r="G34" t="n">
-        <v>4.082012629082529</v>
+        <v>2.684006278438301</v>
       </c>
       <c r="H34" t="n">
-        <v>4.286357210586226</v>
+        <v>2.818246240889803</v>
       </c>
       <c r="I34" t="n">
-        <v>4.132257618596092</v>
+        <v>2.716860503922426</v>
       </c>
       <c r="J34" t="n">
-        <v>4.36041348527687</v>
+        <v>2.86695934565636</v>
       </c>
       <c r="K34" t="n">
-        <v>4.073948278431635</v>
+        <v>2.678336547583206</v>
       </c>
       <c r="L34" t="n">
-        <v>4.938207240501189</v>
+        <v>3.246816046444254</v>
       </c>
       <c r="M34" t="n">
-        <v>4.889254156236028</v>
+        <v>3.21465484920955</v>
       </c>
       <c r="N34" t="n">
-        <v>5.40644554072647</v>
+        <v>3.554675384431859</v>
       </c>
       <c r="O34" t="n">
-        <v>5.19356871477972</v>
+        <v>3.414858000215861</v>
       </c>
       <c r="P34" t="n">
-        <v>5.828409603891322</v>
+        <v>3.832177812871012</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.737163024672825</v>
+        <v>3.772169448247263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.769172035880677</v>
+        <v>2.478300973079829</v>
       </c>
       <c r="B35" t="n">
-        <v>3.729620295952948</v>
+        <v>2.45229270928601</v>
       </c>
       <c r="C35" t="n">
-        <v>3.712968082785612</v>
+        <v>2.441349821630434</v>
       </c>
       <c r="D35" t="n">
-        <v>3.761159793424756</v>
+        <v>2.472979354006783</v>
       </c>
       <c r="E35" t="n">
-        <v>3.73598046563667</v>
+        <v>2.456442890495856</v>
       </c>
       <c r="F35" t="n">
-        <v>4.077386609327853</v>
+        <v>2.680843804497867</v>
       </c>
       <c r="G35" t="n">
-        <v>4.029671972162884</v>
+        <v>2.649524395162436</v>
       </c>
       <c r="H35" t="n">
-        <v>4.38314210795738</v>
+        <v>2.881927797249473</v>
       </c>
       <c r="I35" t="n">
-        <v>4.349558511293169</v>
+        <v>2.859839119456484</v>
       </c>
       <c r="J35" t="n">
-        <v>4.604474501003285</v>
+        <v>3.027580181096234</v>
       </c>
       <c r="K35" t="n">
-        <v>4.374482967909992</v>
+        <v>2.876158656604503</v>
       </c>
       <c r="L35" t="n">
-        <v>4.839014296544768</v>
+        <v>3.181635177432273</v>
       </c>
       <c r="M35" t="n">
-        <v>4.796389793057569</v>
+        <v>3.153644220882872</v>
       </c>
       <c r="N35" t="n">
-        <v>5.341115363763799</v>
+        <v>3.511629880310613</v>
       </c>
       <c r="O35" t="n">
-        <v>5.140167804587249</v>
+        <v>3.379629655928516</v>
       </c>
       <c r="P35" t="n">
-        <v>5.791303709239512</v>
+        <v>3.807608683303132</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.723072752759845</v>
+        <v>3.762698890586745</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.686486050123224</v>
+        <v>2.423843757633252</v>
       </c>
       <c r="B36" t="n">
-        <v>3.650929901788202</v>
+        <v>2.400465592851584</v>
       </c>
       <c r="C36" t="n">
-        <v>3.627625659047171</v>
+        <v>2.38513766835758</v>
       </c>
       <c r="D36" t="n">
-        <v>3.709326448931809</v>
+        <v>2.438868304750652</v>
       </c>
       <c r="E36" t="n">
-        <v>3.665450268802689</v>
+        <v>2.410009642749618</v>
       </c>
       <c r="F36" t="n">
-        <v>4.046325805274106</v>
+        <v>2.660454856594277</v>
       </c>
       <c r="G36" t="n">
-        <v>3.979472611068752</v>
+        <v>2.616502593175376</v>
       </c>
       <c r="H36" t="n">
-        <v>4.389348922953308</v>
+        <v>2.885979811291816</v>
       </c>
       <c r="I36" t="n">
-        <v>4.31766154620404</v>
+        <v>2.838850695016445</v>
       </c>
       <c r="J36" t="n">
-        <v>4.681101086658358</v>
+        <v>3.077846386312124</v>
       </c>
       <c r="K36" t="n">
-        <v>4.429776242550958</v>
+        <v>2.91258258113259</v>
       </c>
       <c r="L36" t="n">
-        <v>4.80851615300046</v>
+        <v>3.161593808758286</v>
       </c>
       <c r="M36" t="n">
-        <v>4.763760883323002</v>
+        <v>3.13216212032561</v>
       </c>
       <c r="N36" t="n">
-        <v>5.337943513636688</v>
+        <v>3.5096573060515</v>
       </c>
       <c r="O36" t="n">
-        <v>5.136761062596792</v>
+        <v>3.377402876635291</v>
       </c>
       <c r="P36" t="n">
-        <v>5.774750582639817</v>
+        <v>3.796905799283113</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.747686720132014</v>
+        <v>3.779076653468834</v>
       </c>
     </row>
   </sheetData>
